--- a/src/test/java/ServiceNow/CHARMS/Resources/RASScenario2.xlsx
+++ b/src/test/java/ServiceNow/CHARMS/Resources/RASScenario2.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bucurgb/IdeaProjects/CBIIT-Test-Automation/src/test/java/ServiceNow/CHARMS/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FE7066-490E-5943-9C8F-5B477E9607DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4FB1D0-E2E6-B14B-B109-93477B6FB411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="102420" yWindow="180" windowWidth="49220" windowHeight="28080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="screenerScenario2" sheetId="1" r:id="rId1"/>
     <sheet name="IIQScenario2" sheetId="2" r:id="rId2"/>
+    <sheet name="RASSurvey" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="460">
   <si>
     <t>Question</t>
   </si>
@@ -72,15 +73,9 @@
     <t>Date of birth month</t>
   </si>
   <si>
-    <t>April</t>
-  </si>
-  <si>
     <t>Date of birth year</t>
   </si>
   <si>
-    <t>What was your sex assigned at birth?</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
@@ -90,9 +85,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>In which country do you currently live?</t>
-  </si>
-  <si>
     <t>United States of America</t>
   </si>
   <si>
@@ -129,9 +121,6 @@
     <t>What is your email address?</t>
   </si>
   <si>
-    <t>automatedTest@email.com</t>
-  </si>
-  <si>
     <t>Please confirm your email address</t>
   </si>
   <si>
@@ -153,9 +142,6 @@
     <t>703-687-5814</t>
   </si>
   <si>
-    <t>What is your ethnicity?</t>
-  </si>
-  <si>
     <t>Not Hispanic/Latino</t>
   </si>
   <si>
@@ -171,64 +157,18 @@
     <t>Martian</t>
   </si>
   <si>
-    <t>Are you a participant in any other research study or registry group?  Please specify.</t>
-  </si>
-  <si>
     <t>Family Advocacy Group</t>
   </si>
   <si>
-    <t xml:space="preserve">To determine eligibility for this study, we need to collect information about medical diagnoses.  These questions ask about general medical conditions, cancer and any prior diagnosis of a RASopathy.  Please complete this information to the best of your knowledge. </t>
-  </si>
-  <si>
-    <t>Have you ever been diagnosed with the following conditions?  Select all that apply.  If you do not see the exact condition diagnosed, please select the closest answer. Option 9</t>
-  </si>
-  <si>
     <t>Non-cancerous tumors</t>
   </si>
   <si>
-    <t>Have you ever been diagnosed with the following conditions?  Select all that apply.  If you do not see the exact condition diagnosed, please select the closest answer. Option 10</t>
-  </si>
-  <si>
-    <t>Lymphedema</t>
-  </si>
-  <si>
-    <t>Have you ever been diagnosed with cancer?</t>
-  </si>
-  <si>
-    <t>Please complete the box below by selecting which primary cancers were diagnosed and at what age and year they occurred. If cancer spread from one place to another, please only indicate the original cancers and not the number of sites where cancer spread.
-Cancer Type</t>
-  </si>
-  <si>
-    <t>Neurablastoma</t>
-  </si>
-  <si>
-    <t>Please complete the box below by selecting which primary cancers were diagnosed and at what age and year they occurred. If cancer spread from one place to another, please only indicate the original cancers and not the number of sites where cancer spread.
-Age at diagnosis</t>
-  </si>
-  <si>
-    <t>Please complete the box below by selecting which primary cancers were diagnosed and at what age and year they occurred. If cancer spread from one place to another, please only indicate the original cancers and not the number of sites where cancer spread.
-Year at diagnosis</t>
-  </si>
-  <si>
-    <t>Please complete the box below by selecting which primary cancers were diagnosed and at what age and year they occurred. If cancer spread from one place to another, please only indicate the original cancers and not the number of sites where cancer spread.
-Curently receiving treatment</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
-    <t>Have you been diagnosed with a RASopathy such as Noonan syndrome, Noonan syndrome with multiple lentigines, Costello syndrome, cardiofaciocutaneous syndrome, Legius syndrome, capillary arteriovenous malformation syndrome, hereditary gingival fibromatosis or SYNGAP1 syndrome?</t>
-  </si>
-  <si>
     <t>We know that RASopathies are a group of syndromes that have a genetic basis.  In order to help us determine eligibility for the RASopathies Study, we also need to know about any genetic testing that has been completed.  We will need a copy of any test results.</t>
   </si>
   <si>
-    <t>Have any of your biological relatives been diagnosed with a RASopathy?</t>
-  </si>
-  <si>
-    <t>Have you ever had genetic testing?</t>
-  </si>
-  <si>
     <t>We will now ask a few remaining questions regarding this study.</t>
   </si>
   <si>
@@ -236,9 +176,6 @@
   </si>
   <si>
     <t>How did you hear about this study?  If a specific health care provider referred you to this study, please include their name in the corresponding text box. Other reason</t>
-  </si>
-  <si>
-    <t>Have you or other family members ever participated in another study on RASopathies at another medical institution, university, government agency or other site?</t>
   </si>
   <si>
     <t>What are the main reasons for participating in this study?  Select all that apply.  Please elaborate on the reason in the corresponding textbox.</t>
@@ -551,6 +488,1059 @@
 To submit your responses, you must continue in the questionnaire by clicking the forward arrow below. 
 The information you have provided will be reviewed by our study team. In the meantime, you should receive an email confirming this submission. 
 Please feel free to call at any time if you have any questions regarding this protocol and ask to speak with the study nurse. Our toll-free phone number is 1-800-518-8474 or 301-212-5250. Thank you for your willingness to consider joining our research effort. We could not do vital studies like this without the help of dedicated patients and families.</t>
+  </si>
+  <si>
+    <t>THIS IS THE COPY FOR LOWER ENVIRONMENTS ONLY!!!
+STUDY INTRODUCTION
+RASopathies are a group of syndromes, also called conditions or disorders, caused by changes in genes that send signals across the Ras/MAPK pathway. This pathway helps systems in the body to grow and work properly. The National Cancer Institute is studying individuals who have or are at risk of developing a RASopathy including Noonan Syndrome, Noonan Syndrome with multiple lentigines, Cardiofaciocutaneous syndrome, Costello syndrome, Legius syndrome, Capillary Arteriovenous Malformation syndrome, Hereditary Gingival Fibromatosis and SYNGAP1 syndrome. Although Neurofibromatosis Type 1 is a RASopathy, we are not enrolling NF1 patients at this time. Individuals with a RASopathy not listed above may also be eligible.
+Each syndrome has unique features, but some overlapping characteristics of these disorders exist and include:
+heart defects
+skin lesions
+bone abnormalities
+eye and muscle problems
+short stature
+learning difficulties
+common facial and physical features
+increased risk of developing benign and cancerous tumors
+This study aims to learn how some RASopathies develop, identify or characterize unrecognized or under-recognized RASopathies, what genetic variants or mutations cause different types of RASopathies or RASopathy-related problems, what are the signs or symptoms of each syndrome and the medical problems that could be screened for and potentially be treated earlier.
+More information about the study can be found at https://rasopathies.cancer.gov/.
+To determine your eligibility for this study, we are asking you to provide the information requested below.  It may take about 15-20 minutes to provide this information.  Before beginning, make sure you have as much information as possible available about your family’s health history, including the types of syndromes and/or cancers diagnosed in yourself or your relatives and the approximate ages at diagnosis. 
+This form cannot be saved or returned to if it is closed before completion.
+Our study team will review the information provided to determine your eligibility to participate. If you enroll in the study, you may be asked to do some or all of the following:
+Sign a study consent form
+Provide information and complete questionnaires about your family history and your personal health history
+Grant us permission to verify you or your child's eligible condition
+Provide samples (such as a blood sample or saliva sample)
+Allow us to contact family members, such as siblings, parents, aunts or uncles, to invite them to participate in the study.
+Please note treatment is not being offered as part of this protocol.
+If you are unable to complete the online questionnaire or would prefer to complete it by phone, please contact the referral intake nurse at 1-800-518-8474 or 301-212-5250.</t>
+  </si>
+  <si>
+    <t>I am completing this form for someone else</t>
+  </si>
+  <si>
+    <t>What is the name of the person who may be eligible for this study? First name</t>
+  </si>
+  <si>
+    <t>TestFirst</t>
+  </si>
+  <si>
+    <t>What is the name of the person who may be eligible for this study? Middle initial</t>
+  </si>
+  <si>
+    <t>What is the name of the person who may be eligible for this study? Last name</t>
+  </si>
+  <si>
+    <t>TestLast</t>
+  </si>
+  <si>
+    <t>What is your relationship to DFSDFS SFSDFS?</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>Are you the legal guardian of DFSDFS SFSDFS?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The next set of questions will collect basic information about DFSDFS SFSDFS.  </t>
+  </si>
+  <si>
+    <t>Date of birth of DFSDFS SFSDFS
+2023</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>Sex of DFSDFS SFSDFS assigned at birth</t>
+  </si>
+  <si>
+    <t>Is DFSDFS SFSDFS adopted?</t>
+  </si>
+  <si>
+    <t>Is DFSDFS SFSDFS alive?</t>
+  </si>
+  <si>
+    <t>In which country does DFSDFS SFSDFS currently live?</t>
+  </si>
+  <si>
+    <t>automatedTest4@email.com</t>
+  </si>
+  <si>
+    <t>Ethnicity of DFSDFS SFSDFS</t>
+  </si>
+  <si>
+    <t>Is DFSDFS SFSDFS a participant in any other research study or registry group?  Please specify.</t>
+  </si>
+  <si>
+    <t>Is DFSDFS SFSDFS a participant in any other research study or registry group?  Please specify. Name</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To determine eligibility for this study, we need to collect information about medical diagnoses.  These questions ask about general medical conditions, cancer and any prior diagnosis of a RASopathy.  Please complete this information to the best of your knowledge. 
+</t>
+  </si>
+  <si>
+    <t>Has DFSDFS SFSDFS ever been diagnosed with the following conditions?  Select all that apply.  If you do not see the exact condition diagnosed, please select the closest answer.</t>
+  </si>
+  <si>
+    <t>Has DFSDFS SFSDFS ever been diagnosed with cancer?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has DFSDFS SFSDFS been diagnosed with a RASopathy such as Noonan syndrome, Noonan syndrome with multiple lentigines, Costello syndrome, cardiofaciocutaneous syndrome, Legius syndrome, capillary arteriovenous malformation syndrome, hereditary gingival fibromatosis or SYNGAP1 syndrome?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Have any of DFSDFS's biological relatives been diagnosed with a RASopathy?</t>
+  </si>
+  <si>
+    <t>Has DFSDFS SFSDFS ever had genetic testing?</t>
+  </si>
+  <si>
+    <t>Has DFSDFS SFSDFS or other family members ever participated in another study on RASopathy at another medical institution, university, government agency or other site?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are almost done!
+To submit your responses, you must continue in the questionnaire by clicking the forward arrow below.  
+The information you have provided will be reviewed by our study team.  If it is determined that you are eligible to participate in the RASopathy Study, you will receive an email with further details, including instructions to log in to a secure study portal. If the team decides that you are not eligible, you will receive an email explaining why. In the meantime, you should receive an email confirming this submission.
+Please feel free to call at any time if you have any questions regarding this protocol and ask to speak with the RASopathies Study nurse. Our toll-free phone number is 1-800-518-8474 or 301-212-5250. Thank you for your willingness to consider joining our research effort.  We could not do vital studies like this without the help of dedicated patients and families.  </t>
+  </si>
+  <si>
+    <t>Thank you for starting the RAS Survey and for your continued participation 
+in the RASopathies Study at the National Cancer Institute!
+This survey asks detailed questions about you or your family member's medical history.  
+Some of this information may be difficult for you to recall completely.
+If you cannot remember something exactly, please give your best
+estimate. Feel free to consult other family members, doctors,
+medical records, or any sources that may assist you.
+This is a research study, and we don’t currently know or understand
+all of the health problems caused by RASopathy syndromes. Therefore,
+some of the questions we ask in the survey are for us to learn more about some 
+of the health problems that may potentially be related to a RASopathy and
+other RASopathy-related conditions. By answering these questions, you
+are helping us to learn if there is a relationship between any of these
+health problems and a RASopathy.</t>
+  </si>
+  <si>
+    <t>This questionnaire may take you several hours to complete. It does not need to be completed all at once. 
+We encourage you to take a break and return to complete the survey later, if needed 
+You can save your answers by clicking the "Save and Next" button in the survey and closing your browser window 
+When you return to the survey, you will be asked for a PIN code, provided during the log in process 
+This unique PIN code returns you to your previous spot in the questionnaire 
+ The study team requests that you complete the questionnaire within two months from the date you start the questionnaire.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The first block of questions will collect basic demographic information.
+This information will help us better understand the individuals who enroll in this study.  </t>
+  </si>
+  <si>
+    <t>Have you ever been included in a published case report or otherwise represented in a public manner by a healthcare provider or researcher?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Please provide any additional information about the authors, year of publication or PubMed ID (PMID), if available.</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>The next set of questions will ask about birth and neonatal history.</t>
+  </si>
+  <si>
+    <t>TestCity mom</t>
+  </si>
+  <si>
+    <t>Please complete the table below regarding your biological parents.  Biological mother Unsure</t>
+  </si>
+  <si>
+    <t>Please complete the table below regarding your biological parents.  Biological mother age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please complete the table below regarding your biological parents.  Biological mother City
+</t>
+  </si>
+  <si>
+    <t>Please complete the table below regarding your biological parents.  Biological father City</t>
+  </si>
+  <si>
+    <t>TestCity dad</t>
+  </si>
+  <si>
+    <t>Please complete the table below regarding your biological parents.  Biological father Unsure</t>
+  </si>
+  <si>
+    <t>Please complete the table below regarding your biological parents.  Biological father Age</t>
+  </si>
+  <si>
+    <t>Were you diagnosed with hypoglycemia (low blood sugar) during the newborn period?</t>
+  </si>
+  <si>
+    <t>Were you diagnosed with any of the following conditions during your mother's pregnancy? 
+These are conditions often detected on routine fetal ultrasound.  Please select all that apply.</t>
+  </si>
+  <si>
+    <t>Extra fluid in the neck area (nuchal edema)</t>
+  </si>
+  <si>
+    <t>During her pregnancy with you, did your mother have any prenatal tests to identify fetal birth defects or fetal medical problems?</t>
+  </si>
+  <si>
+    <t>Please indicate the results of the prenatal tests administered to your biological mother during her pregnancy with you. Serum Normal</t>
+  </si>
+  <si>
+    <t>Please indicate the results of the prenatal tests administered to your biological mother during her pregnancy with you. Serum Abnormal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was your biological mother diagnosed with any of the following conditions prior to or during her pregnancy with you?  Please select all that apply. </t>
+  </si>
+  <si>
+    <t>Polyhydramnios (excess amniotic fluid)</t>
+  </si>
+  <si>
+    <t>During her pregnancy with you, did your biological mother take any medications, vitamins or supplements for any reason?</t>
+  </si>
+  <si>
+    <t>Please select all medications your mother took during her pregnancy with you. 
+Select all that apply</t>
+  </si>
+  <si>
+    <t>Antibiotics</t>
+  </si>
+  <si>
+    <t>Please provide details on the name of the medication taken, reason it was taken and approximate length of time it was taken. 
+If you are unsure of the name of or reason for the medication, write 'Unsure' or place an 'X' in the text box.Antibiotics Name</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>Please provide details on the name of the medication taken, reason it was taken and approximate length of time it was taken. 
+If you are unsure of the name of or reason for the medication, write 'Unsure' or place an 'X' in the text box.Antibiotics Reason</t>
+  </si>
+  <si>
+    <t>Please provide details on the name of the medication taken, reason it was taken and approximate length of time it was taken. 
+If you are unsure of the name of or reason for the medication, write 'Unsure' or place an 'X' in the text box.Antibiotics Length</t>
+  </si>
+  <si>
+    <t>xaa</t>
+  </si>
+  <si>
+    <t>4 weeks</t>
+  </si>
+  <si>
+    <t>Please provide details on the name of the medication taken, reason it was taken and approximate length of time it was taken. 
+If you are unsure of the name of or reason for the medication, write 'Unsure' or place an 'X' in the text box.Herbal Name</t>
+  </si>
+  <si>
+    <t>yyy</t>
+  </si>
+  <si>
+    <t>Please provide details on the name of the medication taken, reason it was taken and approximate length of time it was taken. 
+If you are unsure of the name of or reason for the medication, write 'Unsure' or place an 'X' in the text box.Herbal Length</t>
+  </si>
+  <si>
+    <t>Please provide details on the name of the medication taken, reason it was taken and approximate length of time it was taken. 
+If you are unsure of the name of or reason for the medication, write 'Unsure' or place an 'X' in the text box.Herbal Reason</t>
+  </si>
+  <si>
+    <t>yaa</t>
+  </si>
+  <si>
+    <t>1 day</t>
+  </si>
+  <si>
+    <t>Did your biological mother use any tobacco products during her pregnancy with you? 
+Some examples include: cigarettes, cigars, pipes, or chewing tobacco.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What tobacco products did your biological mother use during her pregnancy with you? 
+Please select all that apply. </t>
+  </si>
+  <si>
+    <t>Cigarettes</t>
+  </si>
+  <si>
+    <t>Did your biological mother use any vaping products during her pregnancy with you? 
+Some examples include: electronic cigarettes, vape pens, or mechanical modified 
+nicotine delivery system (MODs).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which vaping products did your mother use during her pregnancy with you? 
+Please select all that apply. </t>
+  </si>
+  <si>
+    <t>Electronic cigarettes</t>
+  </si>
+  <si>
+    <t>Did your biological mother drink any alcoholic beverages during her pregnancy with you?</t>
+  </si>
+  <si>
+    <t>What alcoholic beverages did your mother drink during her pregnancy with you?  Please select all that apply.</t>
+  </si>
+  <si>
+    <t>Wine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did your biological mother use any recreational drugs during her pregnancy with you?  </t>
+  </si>
+  <si>
+    <t>Cannabis (marijuana, weed, pot)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What recreational drug did your biological mother use during her pregnancy with you?
+Please select all that apply. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did your biological mother ever live or work in a place where others smoked cigarettes, pipes or cigars around her during her pregnancy with you?  </t>
+  </si>
+  <si>
+    <t>What products were used around your biological mother during her pregnancy with you?  Please select all that apply</t>
+  </si>
+  <si>
+    <t>Please describe your biological parents' occupation(s) during your mother's pregnancy with you?  Please list all of the occupations during the pregnancy. Biological mother ocupation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please describe your biological parents' occupation(s) during your mother's pregnancy with you?  Please list all of the occupations during the pregnancy. Biological mother don't know
+</t>
+  </si>
+  <si>
+    <t>Please describe your biological parents' occupation(s) during your mother's pregnancy with you?  Please list all of the occupations during the pregnancy. Biological father ocupation</t>
+  </si>
+  <si>
+    <t>Please describe your biological parents' occupation(s) during your mother's pregnancy with you?  Please list all of the occupations during the pregnancy. Biological father don't know</t>
+  </si>
+  <si>
+    <t>What is the height of your biological mother and father?  Please complete the table below mother height value</t>
+  </si>
+  <si>
+    <t>What is the height of your biological mother and father?  Please complete the table below mother height inches</t>
+  </si>
+  <si>
+    <t>What is the height of your biological mother and father?  Please complete the table below mother height Unsure</t>
+  </si>
+  <si>
+    <t>What is the height of your biological mother and father?  Please complete the table below father height value</t>
+  </si>
+  <si>
+    <t>What is the height of your biological mother and father?  Please complete the table below father height inches</t>
+  </si>
+  <si>
+    <t>What is the height of your biological mother and father?  Please complete the table below father height Unsure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The next set of questions will ask about hormone-related growth.  Growth is influenced by many things including nutrition, parental height/genetics and secreted hormones that tell the body to grow taller. </t>
+  </si>
+  <si>
+    <t>Have you ever been evaluated by an endocrinologist for any reason?  These are doctors that specialize in the endocrine system, which is made up of many glands that secrete hormones.  Hormones play a role in many things in the body including growth, metabolism and salt regulation.  Endocrinologists often diagnose conditions such as diabetes and thyroid problems.</t>
+  </si>
+  <si>
+    <t>What is the name of the endocrinologist who completed your examination? Doctor</t>
+  </si>
+  <si>
+    <t>What is the name of the endocrinologist who completed your examination? Location</t>
+  </si>
+  <si>
+    <t>What is the name of the endocrinologist who completed your examination? Hospital</t>
+  </si>
+  <si>
+    <t>XX</t>
+  </si>
+  <si>
+    <t>XXX</t>
+  </si>
+  <si>
+    <t>Have you ever had growth hormone testing?</t>
+  </si>
+  <si>
+    <t>What were the results of your growth hormone testing?</t>
+  </si>
+  <si>
+    <t>Normal growth hormone levels</t>
+  </si>
+  <si>
+    <t>Have you ever received growth hormone treatment?</t>
+  </si>
+  <si>
+    <t>What was your height before starting growth hormone?</t>
+  </si>
+  <si>
+    <t>How many times have you received growth hormone treatment?</t>
+  </si>
+  <si>
+    <t>Height (please specify units such as feet, inches or centimeters)</t>
+  </si>
+  <si>
+    <t>Please provide the details of growth hormone replacement by completing the table below.age start</t>
+  </si>
+  <si>
+    <t>Please provide the details of growth hormone replacement by completing the table below.age stop</t>
+  </si>
+  <si>
+    <t>Please provide the details of growth hormone replacement by completing the table below.date start</t>
+  </si>
+  <si>
+    <t>Please provide the details of growth hormone replacement by completing the table below.date stop</t>
+  </si>
+  <si>
+    <t>Please provide the details of growth hormone replacement by completing the table below.are you still on growth hormones</t>
+  </si>
+  <si>
+    <t>The next set of questions will ask about development.  Development includes things such as crawling/walking and speaking/understanding language.</t>
+  </si>
+  <si>
+    <t>Were you ever diagnosed with hypotonia as an infant or child?  This is often described as unusually low muscle tone or "floppy" muscle tone.</t>
+  </si>
+  <si>
+    <t>At what age were you able to sit without support?</t>
+  </si>
+  <si>
+    <t>9-12 months</t>
+  </si>
+  <si>
+    <t>At what age were you able to walk without support?</t>
+  </si>
+  <si>
+    <t>12-18 months</t>
+  </si>
+  <si>
+    <t>Have you ever received physical therapy?</t>
+  </si>
+  <si>
+    <t>At what age were you able to use simple two-word phrases?</t>
+  </si>
+  <si>
+    <t>24-36 months</t>
+  </si>
+  <si>
+    <t>How would you describe your current speech capabilities?</t>
+  </si>
+  <si>
+    <t>Simple speech compared to people of the same age</t>
+  </si>
+  <si>
+    <t>Have you ever received speech therapy?</t>
+  </si>
+  <si>
+    <t>Between the ages of 3 and 6 years old (preschool years), were you ever diagnosed with issues of cognitive development?
+Cognitive development can include difficulties in learning, understanding, and processing information or making decisions.</t>
+  </si>
+  <si>
+    <t>Severe cognitive delay</t>
+  </si>
+  <si>
+    <t>Did you receive occupational therapy between 3 and 6 years of age?
+Occupational therapy is based on engagement in activities of daily life (such as self-care skills, education, work, or social interaction.  In young children, this may include someone who worked with them to develop fine motor skills through toys or artwork).</t>
+  </si>
+  <si>
+    <t>Between the ages of 6 and 10 (elementary school age) please select the option that best describes your schooling.</t>
+  </si>
+  <si>
+    <t>Attended typical elementary school without support</t>
+  </si>
+  <si>
+    <t>Between the ages of 10 and 17 (middle and high school age) please select the option that best describes your schooling.</t>
+  </si>
+  <si>
+    <t>Attended typical classroom without support or little support</t>
+  </si>
+  <si>
+    <t>Please indicate the highest degree or level of schooling you have completed</t>
+  </si>
+  <si>
+    <t>Some school, no high school diploma</t>
+  </si>
+  <si>
+    <t>What is your current employment status?</t>
+  </si>
+  <si>
+    <t>Internship</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following learning differences?  Please select all that apply.</t>
+  </si>
+  <si>
+    <t>Short attention span - includes attention deficit disorder (ADD) and attention deficit hyperactivity diosrder (ADHD)</t>
+  </si>
+  <si>
+    <t>If you have ever had formal IQ testing and have a copy, please upload it here. 
+Please note, only PDFs are accepted.</t>
+  </si>
+  <si>
+    <t>The next set of questions will ask about medical conditions associated with the heart.</t>
+  </si>
+  <si>
+    <t>Have you ever been evaluated by a cardiologist?  These are doctors that specialize in the heart. Cardiologists often diagnose conditions such as an irregular heart beat, an enlarged heart, and heart defects.</t>
+  </si>
+  <si>
+    <t>What is the name of the cardiologist who completed your heart evaluation? Doctor</t>
+  </si>
+  <si>
+    <t>What is the name of the cardiologist who completed your heart evaluation? Location</t>
+  </si>
+  <si>
+    <t>What is the name of the cardiologist who completed your heart evaluation? Hospital</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>ZZ</t>
+  </si>
+  <si>
+    <t>ZZZ</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any structural heart issue(s)?
+Some examples include: pulmonary valve stenosis/dysplasia, hypertrophic cardiomyopathy, atrial septal defect, ventricular septal defect, and mitral/tricuspid valve anomalies.</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following structural heart issues? 
+Structural issues affect how the heart is shaped.  Please select all that apply.</t>
+  </si>
+  <si>
+    <t>Pulmonary valve stenosis or pulmonary valve dysplasia (PVS/PS) - these are conditions where the valve that allows blood to flow from your heart to your lungs does not fully open or is structurally abnormal</t>
+  </si>
+  <si>
+    <t>Have you ever had any of the following symptoms?  Please select all that apply.</t>
+  </si>
+  <si>
+    <t>Chest pain or tightening</t>
+  </si>
+  <si>
+    <t>Please complete the table below for the following symptom(s), indicating when these symptoms occurred and where these symptoms were evaluated.  You only have to provide the age or date for each symptom (not both).  If you don't recall when the symptom first started or when it most recently occurred, place an 'X' under "don't know."  age at first evaluation</t>
+  </si>
+  <si>
+    <t>Please complete the table below for the following symptom(s), indicating when these symptoms occurred and where these symptoms were evaluated.  You only have to provide the age or date for each symptom (not both).  If you don't recall when the symptom first started or when it most recently occurred, place an 'X' under "don't know."  Location of first evaluation</t>
+  </si>
+  <si>
+    <t>Please complete the table below for the following symptom(s), indicating when these symptoms occurred and where these symptoms were evaluated.  You only have to provide the age or date for each symptom (not both).  If you don't recall when the symptom first started or when it most recently occurred, place an 'X' under "don't know."  age at recent evaluation</t>
+  </si>
+  <si>
+    <t>Please complete the table below for the following symptom(s), indicating when these symptoms occurred and where these symptoms were evaluated.  You only have to provide the age or date for each symptom (not both).  If you don't recall when the symptom first started or when it most recently occurred, place an 'X' under "don't know."  Location of recent evaluation</t>
+  </si>
+  <si>
+    <t>Please complete the table below for the following symptom(s), indicating when these symptoms occurred and where these symptoms were evaluated.  You only have to provide the age or date for each symptom (not both).  If you don't recall when the symptom first started or when it most recently occurred, place an 'X' under "don't know."  date at first evaluation</t>
+  </si>
+  <si>
+    <t>Please complete the table below for the following symptom(s), indicating when these symptoms occurred and where these symptoms were evaluated.  You only have to provide the age or date for each symptom (not both).  If you don't recall when the symptom first started or when it most recently occurred, place an 'X' under "don't know."  don't know at first evaluation</t>
+  </si>
+  <si>
+    <t>Please complete the table below for the following symptom(s), indicating when these symptoms occurred and where these symptoms were evaluated.  You only have to provide the age or date for each symptom (not both).  If you don't recall when the symptom first started or when it most recently occurred, place an 'X' under "don't know."  date at recent evaluation</t>
+  </si>
+  <si>
+    <t>Please complete the table below for the following symptom(s), indicating when these symptoms occurred and where these symptoms were evaluated.  You only have to provide the age or date for each symptom (not both).  If you don't recall when the symptom first started or when it most recently occurred, place an 'X' under "don't know."  don't know at recent evaluation</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>qwe</t>
+  </si>
+  <si>
+    <t>._</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>sd++</t>
+  </si>
+  <si>
+    <t>Have you ever received treatment for heart problems?
+Some examples include: medication, catheter intervention, and surgery</t>
+  </si>
+  <si>
+    <t>Have you ever had any of the following treatments for heart problems?  Please select all that apply.</t>
+  </si>
+  <si>
+    <t>Catheter intervention (i.e., "a heart cath')</t>
+  </si>
+  <si>
+    <t>Please complete the table below by providing information for the FIRST treatment and the MOST RECENT treatment.  You only need to provide the age at which symptoms occurred or date (not both).  If you do not recall the details, please place an 'X' in the 'Don't know' box.  First treatement age</t>
+  </si>
+  <si>
+    <t>Please complete the table below by providing information for the FIRST treatment and the MOST RECENT treatment.  You only need to provide the age at which symptoms occurred or date (not both).  If you do not recall the details, please place an 'X' in the 'Don't know' box.  First treatement date</t>
+  </si>
+  <si>
+    <t>Please complete the table below by providing information for the FIRST treatment and the MOST RECENT treatment.  You only need to provide the age at which symptoms occurred or date (not both).  If you do not recall the details, please place an 'X' in the 'Don't know' box.  First treatement don't know</t>
+  </si>
+  <si>
+    <t>Please complete the table below by providing information for the FIRST treatment and the MOST RECENT treatment.  You only need to provide the age at which symptoms occurred or date (not both).  If you do not recall the details, please place an 'X' in the 'Don't know' box.  First treatement location</t>
+  </si>
+  <si>
+    <t>Please complete the table below by providing information for the FIRST treatment and the MOST RECENT treatment.  You only need to provide the age at which symptoms occurred or date (not both).  If you do not recall the details, please place an 'X' in the 'Don't know' box.  Most recent treatement age</t>
+  </si>
+  <si>
+    <t>Please complete the table below by providing information for the FIRST treatment and the MOST RECENT treatment.  You only need to provide the age at which symptoms occurred or date (not both).  If you do not recall the details, please place an 'X' in the 'Don't know' box.  Most recent treatement date</t>
+  </si>
+  <si>
+    <t>Please complete the table below by providing information for the FIRST treatment and the MOST RECENT treatment.  You only need to provide the age at which symptoms occurred or date (not both).  If you do not recall the details, please place an 'X' in the 'Don't know' box.  Most recent treatement don't know</t>
+  </si>
+  <si>
+    <t>Please complete the table below by providing information for the FIRST treatment and the MOST RECENT treatment.  You only need to provide the age at which symptoms occurred or date (not both).  If you do not recall the details, please place an 'X' in the 'Don't know' box.  Most recent treatement location</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>wer</t>
+  </si>
+  <si>
+    <t>_+MN</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any functional heart issue(s)?
+Some examples include: tachycardia (fast heartbeat), cardiac conduction defect (irregular heartbeat), and heart failure.</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following functional heart issues?
+Functional issues affect how the heart works.  Please select all that apply.</t>
+  </si>
+  <si>
+    <t>Tachycardia (heart beats too fast)</t>
+  </si>
+  <si>
+    <t>Please provide any details known for the condition(s) for which you have been diagnosed.  For each condition, you need to provide either the age or date at which the condition occurred (not both).  If you do not know or cannot recall, place an 'X' in the 'Don't know' box.  For each condition, also provide any information regarding treatment.  If none, please state 'None' in the treatment box.  If treatment was required, please provide some details as to what was needed (medication with name, procedure type, etc). first symptoms age</t>
+  </si>
+  <si>
+    <t>Please provide any details known for the condition(s) for which you have been diagnosed.  For each condition, you need to provide either the age or date at which the condition occurred (not both).  If you do not know or cannot recall, place an 'X' in the 'Don't know' box.  For each condition, also provide any information regarding treatment.  If none, please state 'None' in the treatment box.  If treatment was required, please provide some details as to what was needed (medication with name, procedure type, etc). first symptoms date</t>
+  </si>
+  <si>
+    <t>Please provide any details known for the condition(s) for which you have been diagnosed.  For each condition, you need to provide either the age or date at which the condition occurred (not both).  If you do not know or cannot recall, place an 'X' in the 'Don't know' box.  For each condition, also provide any information regarding treatment.  If none, please state 'None' in the treatment box.  If treatment was required, please provide some details as to what was needed (medication with name, procedure type, etc). first symptoms don't know</t>
+  </si>
+  <si>
+    <t>Please provide any details known for the condition(s) for which you have been diagnosed.  For each condition, you need to provide either the age or date at which the condition occurred (not both).  If you do not know or cannot recall, place an 'X' in the 'Don't know' box.  For each condition, also provide any information regarding treatment.  If none, please state 'None' in the treatment box.  If treatment was required, please provide some details as to what was needed (medication with name, procedure type, etc). date of diagnosis age</t>
+  </si>
+  <si>
+    <t>Please provide any details known for the condition(s) for which you have been diagnosed.  For each condition, you need to provide either the age or date at which the condition occurred (not both).  If you do not know or cannot recall, place an 'X' in the 'Don't know' box.  For each condition, also provide any information regarding treatment.  If none, please state 'None' in the treatment box.  If treatment was required, please provide some details as to what was needed (medication with name, procedure type, etc). date of diagnosis date</t>
+  </si>
+  <si>
+    <t>Please provide any details known for the condition(s) for which you have been diagnosed.  For each condition, you need to provide either the age or date at which the condition occurred (not both).  If you do not know or cannot recall, place an 'X' in the 'Don't know' box.  For each condition, also provide any information regarding treatment.  If none, please state 'None' in the treatment box.  If treatment was required, please provide some details as to what was needed (medication with name, procedure type, etc). date of diagnosis don't know</t>
+  </si>
+  <si>
+    <t>Please provide any details known for the condition(s) for which you have been diagnosed.  For each condition, you need to provide either the age or date at which the condition occurred (not both).  If you do not know or cannot recall, place an 'X' in the 'Don't know' box.  For each condition, also provide any information regarding treatment.  If none, please state 'None' in the treatment box.  If treatment was required, please provide some details as to what was needed (medication with name, procedure type, etc). treatment</t>
+  </si>
+  <si>
+    <t>Please provide any details known for the condition(s) for which you have been diagnosed.  For each condition, you need to provide either the age or date at which the condition occurred (not both).  If you do not know or cannot recall, place an 'X' in the 'Don't know' box.  For each condition, also provide any information regarding treatment.  If none, please state 'None' in the treatment box.  If treatment was required, please provide some details as to what was needed (medication with name, procedure type, etc). hospital</t>
+  </si>
+  <si>
+    <t>The next two questions will ask about RASopathy diagnoses.</t>
+  </si>
+  <si>
+    <t>Have you been diagnosed with a RASopathy by a physician or through genetic testing?  Examples of RASopathies include Noonan syndrome, Legius syndrome, Costello syndrome.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please indicate if you have been diagnosed with any of the following RASopathies?  Please select all that apply. </t>
+  </si>
+  <si>
+    <t>Noonan syndrome</t>
+  </si>
+  <si>
+    <t>The next set of questions will ask about general medical history.</t>
+  </si>
+  <si>
+    <t>Do you have a primary care provider?  A primary care provider is a health professional (doctor, physician assistant, nurse practitioner) to whom you go to for "routine" care. Examples of routine care include immunizations/vaccines, annual or sports physicals, or to treat common minor illnesses, such as sinus or ear infections.</t>
+  </si>
+  <si>
+    <t>Please provide the information for your primary care provider below.  Name</t>
+  </si>
+  <si>
+    <t>Please provide the information for your primary care provider below.  Location</t>
+  </si>
+  <si>
+    <t>Please provide the information for your primary care provider below.  Hospital</t>
+  </si>
+  <si>
+    <t>Please indicate in the table below if you have allergies to the listed items.  We will ask about the specifics of these allergies in later questions. Alergies to medicine Yes</t>
+  </si>
+  <si>
+    <t>Please indicate in the table below if you have allergies to the listed items.  We will ask about the specifics of these allergies in later questions. Alergies to food Yes</t>
+  </si>
+  <si>
+    <t>Please indicate in the table below if you have allergies to the listed items.  We will ask about the specifics of these allergies in later questions. Alergies to anything else No</t>
+  </si>
+  <si>
+    <t>Please complete the table below for all medications to which you are allergic.  To add a new medication, please click on the '+' button in the upper left corner of the table.  Once a new medication is added, please indicate the name of the medication and the reaction that occurred after taking the medication.  Please be as specific as possible and only include medications.  If you are allergic to food and other items, we will ask about those on the next page. List medication name</t>
+  </si>
+  <si>
+    <t>Please complete the table below for all medications to which you are allergic.  To add a new medication, please click on the '+' button in the upper left corner of the table.  Once a new medication is added, please indicate the name of the medication and the reaction that occurred after taking the medication.  Please be as specific as possible and only include medications.  If you are allergic to food and other items, we will ask about those on the next page. Describe alergic reaction name</t>
+  </si>
+  <si>
+    <t>Please complete the table below for all foods to which you are allergic. To add a new food, please click on the '+' button in the upper left corner of the table. Once a new food is added, please indicate the name of the food and the reaction that occurred after eating the food. Please be as specific as possible and include only food.  If you are also allergic to other things, such as bee stings, we will ask about those in the next question. Food Items</t>
+  </si>
+  <si>
+    <t>Please complete the table below for all foods to which you are allergic. To add a new food, please click on the '+' button in the upper left corner of the table. Once a new food is added, please indicate the name of the food and the reaction that occurred after eating the food. Please be as specific as possible and include only food.  If you are also allergic to other things, such as bee stings, we will ask about those in the next question. Reactions after eating</t>
+  </si>
+  <si>
+    <t>12q</t>
+  </si>
+  <si>
+    <t>123q</t>
+  </si>
+  <si>
+    <t>Have you ever had an operation or biopsy?</t>
+  </si>
+  <si>
+    <t>Please provide the information for each biopsy and surgery in the table below. To add a surgery or biopsy, click on the '+' button located in the upper left corner of the table.  Once a new surgery or biopsy is added, please indicate what type of surgery/biopsy was performed (ie, gallbladder removal), the approximate date or approximate age when the biopsy or surgery was performed (only one needed), the reason that BEST represents why the surgery or biopsy was completed, and the hospital information where the surgery or biopsy was performed.  If you do not recall the details of the operation or biopsy, please place an 'X' in the column. Surgery Type</t>
+  </si>
+  <si>
+    <t>Please provide the information for each biopsy and surgery in the table below. To add a surgery or biopsy, click on the '+' button located in the upper left corner of the table.  Once a new surgery or biopsy is added, please indicate what type of surgery/biopsy was performed (ie, gallbladder removal), the approximate date or approximate age when the biopsy or surgery was performed (only one needed), the reason that BEST represents why the surgery or biopsy was completed, and the hospital information where the surgery or biopsy was performed.  If you do not recall the details of the operation or biopsy, please place an 'X' in the column. Surgery age</t>
+  </si>
+  <si>
+    <t>Please provide the information for each biopsy and surgery in the table below. To add a surgery or biopsy, click on the '+' button located in the upper left corner of the table.  Once a new surgery or biopsy is added, please indicate what type of surgery/biopsy was performed (ie, gallbladder removal), the approximate date or approximate age when the biopsy or surgery was performed (only one needed), the reason that BEST represents why the surgery or biopsy was completed, and the hospital information where the surgery or biopsy was performed.  If you do not recall the details of the operation or biopsy, please place an 'X' in the column. Surgery date</t>
+  </si>
+  <si>
+    <t>Please provide the information for each biopsy and surgery in the table below. To add a surgery or biopsy, click on the '+' button located in the upper left corner of the table.  Once a new surgery or biopsy is added, please indicate what type of surgery/biopsy was performed (ie, gallbladder removal), the approximate date or approximate age when the biopsy or surgery was performed (only one needed), the reason that BEST represents why the surgery or biopsy was completed, and the hospital information where the surgery or biopsy was performed.  If you do not recall the details of the operation or biopsy, please place an 'X' in the column. Surgery unsure</t>
+  </si>
+  <si>
+    <t>Please provide the information for each biopsy and surgery in the table below. To add a surgery or biopsy, click on the '+' button located in the upper left corner of the table.  Once a new surgery or biopsy is added, please indicate what type of surgery/biopsy was performed (ie, gallbladder removal), the approximate date or approximate age when the biopsy or surgery was performed (only one needed), the reason that BEST represents why the surgery or biopsy was completed, and the hospital information where the surgery or biopsy was performed.  If you do not recall the details of the operation or biopsy, please place an 'X' in the column. Surgery Reason</t>
+  </si>
+  <si>
+    <t>Please provide the information for each biopsy and surgery in the table below. To add a surgery or biopsy, click on the '+' button located in the upper left corner of the table.  Once a new surgery or biopsy is added, please indicate what type of surgery/biopsy was performed (ie, gallbladder removal), the approximate date or approximate age when the biopsy or surgery was performed (only one needed), the reason that BEST represents why the surgery or biopsy was completed, and the hospital information where the surgery or biopsy was performed.  If you do not recall the details of the operation or biopsy, please place an 'X' in the column. Surgery Hospital</t>
+  </si>
+  <si>
+    <t>Mass</t>
+  </si>
+  <si>
+    <t>Have you ever been hospitalized for any reason other than a surgery or childbirth?</t>
+  </si>
+  <si>
+    <t>Please provide the information for each hospitalization in the table below. To add a new hospitalization, please click on the '+' sign in the upper left corner of the table.  Once a new hospitalization is added, please list the primary reason the hospitalization occurred, the approximate age OR approximate date of the hospitalization (only one needed), and the name of the hospital and its location.  If you do not recall the details of the hospitalization, place an 'X' in the box. Reason for hospitalization</t>
+  </si>
+  <si>
+    <t>Please provide the information for each hospitalization in the table below. To add a new hospitalization, please click on the '+' sign in the upper left corner of the table.  Once a new hospitalization is added, please list the primary reason the hospitalization occurred, the approximate age OR approximate date of the hospitalization (only one needed), and the name of the hospital and its location.  If you do not recall the details of the hospitalization, place an 'X' in the box. age</t>
+  </si>
+  <si>
+    <t>Please provide the information for each hospitalization in the table below. To add a new hospitalization, please click on the '+' sign in the upper left corner of the table.  Once a new hospitalization is added, please list the primary reason the hospitalization occurred, the approximate age OR approximate date of the hospitalization (only one needed), and the name of the hospital and its location.  If you do not recall the details of the hospitalization, place an 'X' in the box. Date</t>
+  </si>
+  <si>
+    <t>Please provide the information for each hospitalization in the table below. To add a new hospitalization, please click on the '+' sign in the upper left corner of the table.  Once a new hospitalization is added, please list the primary reason the hospitalization occurred, the approximate age OR approximate date of the hospitalization (only one needed), and the name of the hospital and its location.  If you do not recall the details of the hospitalization, place an 'X' in the box. Unsure</t>
+  </si>
+  <si>
+    <t>Please provide the information for each hospitalization in the table below. To add a new hospitalization, please click on the '+' sign in the upper left corner of the table.  Once a new hospitalization is added, please list the primary reason the hospitalization occurred, the approximate age OR approximate date of the hospitalization (only one needed), and the name of the hospital and its location.  If you do not recall the details of the hospitalization, place an 'X' in the box. Where did hospitalization ocur</t>
+  </si>
+  <si>
+    <t>rgrg</t>
+  </si>
+  <si>
+    <t>eger</t>
+  </si>
+  <si>
+    <t>erger</t>
+  </si>
+  <si>
+    <t>erge</t>
+  </si>
+  <si>
+    <t>regrg</t>
+  </si>
+  <si>
+    <t>The next set of questions will ask about GI (gastrointestinal) symptoms or conditions.
+These include issues with eating or digestion and may involve the esophagus, stomach, pancreas, small intestine or large intestine.</t>
+  </si>
+  <si>
+    <t>Have you ever been evaluated by a gastroenterologist?  These are doctors that specialize in the GI tract and liver. The GI tract includes your esophagus, stomach, small intestine, large intestine/colon, liver and pancreas.  Gastroenterologists often diagnose conditions such as inflammatory bowel disease (Crohn's disease or ulcerative colitis), Celiac disease, ulcers, and pancreas inflammation (pancreatitis).</t>
+  </si>
+  <si>
+    <t>Please provide the details for the gastroenterologist who completed the evaluation doctor</t>
+  </si>
+  <si>
+    <t>Please provide the details for the gastroenterologist who completed the evaluation location</t>
+  </si>
+  <si>
+    <t>Please provide the details for the gastroenterologist who completed the evaluation Hospital</t>
+  </si>
+  <si>
+    <t>th</t>
+  </si>
+  <si>
+    <t>thl</t>
+  </si>
+  <si>
+    <t>thll</t>
+  </si>
+  <si>
+    <t>Poor eater - declining food or unable to eat enough food for growth</t>
+  </si>
+  <si>
+    <t>Required feeding tube inserted in the nose to help with feeding. This would include both nasogastric (NG) tubes and nasojejunal (NJ) tubes. NG tubes are placed in the stomach and NJ tubes are placed into the small intestine.</t>
+  </si>
+  <si>
+    <t>Required surgically placed feeding tube (in the stomach or small intestine) to help with feeding. Examples include gastrostomy/g-tube and gastrostomy-jejunostomy/GJ-tube.</t>
+  </si>
+  <si>
+    <t>Gastroparesis - delayed stomach emptying (when the stomach does not empty as quickly as it should). This often leads to persistent vomiting</t>
+  </si>
+  <si>
+    <t>Unsure/unknown</t>
+  </si>
+  <si>
+    <t>Other (please specify)</t>
+  </si>
+  <si>
+    <t>No known feeding difficulties</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following feeding difficulties?  These issues often include problems eating food by mouth or keeping food from being vomited.  Please select all that apply. Option 1</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following feeding difficulties?  These issues often include problems eating food by mouth or keeping food from being vomited.  Please select all that apply.Option 2</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following feeding difficulties?  These issues often include problems eating food by mouth or keeping food from being vomited.  Please select all that apply. Option 3</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following feeding difficulties?  These issues often include problems eating food by mouth or keeping food from being vomited.  Please select all that apply. Option 4</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following feeding difficulties?  These issues often include problems eating food by mouth or keeping food from being vomited.  Please select all that apply. Option 5</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following feeding difficulties?  These issues often include problems eating food by mouth or keeping food from being vomited.  Please select all that apply. Option 6</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following feeding difficulties?  These issues often include problems eating food by mouth or keeping food from being vomited.  Please select all that apply. Option 7</t>
+  </si>
+  <si>
+    <t>At what age was the nasogastric or nasojejunal tube placed?</t>
+  </si>
+  <si>
+    <t>Age (specify if in days, weeks, months or years)</t>
+  </si>
+  <si>
+    <t>At what age was the gastrostomy (G-tube) or gastrostomy-jejunostomy (GJ) tube placed?</t>
+  </si>
+  <si>
+    <t>At what age was the gastrostomy (G-tube) or gastrostomy-jejunostomy (GJ) tube removed?</t>
+  </si>
+  <si>
+    <t>Have you ever had any physical symptoms that likely involved your gastrointestinal (GI) system?  There are many symptoms that are connected to the GI system.  A few examples include heartburn, abdominal pain, persistent/chronic diarrhea or constipation, bloating, difficulty swallowing, and poor weight gain.</t>
+  </si>
+  <si>
+    <t>Which of the following symptoms related to the GI system have occurred?  Please select all that apply. Option 1</t>
+  </si>
+  <si>
+    <t>Which of the following symptoms related to the GI system have occurred?  Please select all that apply. Option 2</t>
+  </si>
+  <si>
+    <t>Which of the following symptoms related to the GI system have occurred?  Please select all that apply. Option 3</t>
+  </si>
+  <si>
+    <t>Which of the following symptoms related to the GI system have occurred?  Please select all that apply. Option 4</t>
+  </si>
+  <si>
+    <t>Which of the following symptoms related to the GI system have occurred?  Please select all that apply. Option 5</t>
+  </si>
+  <si>
+    <t>Which of the following symptoms related to the GI system have occurred?  Please select all that apply. Option 6</t>
+  </si>
+  <si>
+    <t>Which of the following symptoms related to the GI system have occurred?  Please select all that apply. Option 7</t>
+  </si>
+  <si>
+    <t>Which of the following symptoms related to the GI system have occurred?  Please select all that apply. Option 8</t>
+  </si>
+  <si>
+    <t>Which of the following symptoms related to the GI system have occurred?  Please select all that apply. Option 9</t>
+  </si>
+  <si>
+    <t>Which of the following symptoms related to the GI system have occurred?  Please select all that apply. Option 10</t>
+  </si>
+  <si>
+    <t>Which of the following symptoms related to the GI system have occurred?  Please select all that apply. Option 11</t>
+  </si>
+  <si>
+    <t>Which of the following symptoms related to the GI system have occurred?  Please select all that apply. Option 12</t>
+  </si>
+  <si>
+    <t>Which of the following symptoms related to the GI system have occurred?  Please select all that apply. Option 13</t>
+  </si>
+  <si>
+    <t>Which of the following symptoms related to the GI system have occurred?  Please select all that apply. Option 14</t>
+  </si>
+  <si>
+    <t>Which of the following symptoms related to the GI system have occurred?  Please select all that apply. Option 15</t>
+  </si>
+  <si>
+    <t>Which of the following symptoms related to the GI system have occurred?  Please select all that apply. Option 16</t>
+  </si>
+  <si>
+    <t>Which of the following symptoms related to the GI system have occurred?  Please select all that apply. Option 17</t>
+  </si>
+  <si>
+    <t>Which of the following symptoms related to the GI system have occurred?  Please select all that apply. Option 18</t>
+  </si>
+  <si>
+    <t>Which of the following symptoms related to the GI system have occurred?  Please select all that apply. Option 19</t>
+  </si>
+  <si>
+    <t>Which of the following symptoms related to the GI system have occurred?  Please select all that apply. Option 20</t>
+  </si>
+  <si>
+    <t>Which of the following symptoms related to the GI system have occurred?  Please select all that apply. Option 21</t>
+  </si>
+  <si>
+    <t>Choking/gagging</t>
+  </si>
+  <si>
+    <t>Painful swallowing</t>
+  </si>
+  <si>
+    <t>Difficulty swallowing</t>
+  </si>
+  <si>
+    <t>Food getting stuck while swallowing</t>
+  </si>
+  <si>
+    <t>Reflux/heartburn</t>
+  </si>
+  <si>
+    <t>Nausea</t>
+  </si>
+  <si>
+    <t>Abdominal pain</t>
+  </si>
+  <si>
+    <t>Vomiting</t>
+  </si>
+  <si>
+    <t>Feel full quickly or have abdominal pain that interferes with appetite</t>
+  </si>
+  <si>
+    <t>Gallbladder problems (eg, stones, infection)</t>
+  </si>
+  <si>
+    <t>Jaundice (yellow skin). This does not include jaundice that occurs in the first week of life</t>
+  </si>
+  <si>
+    <t>Food allergies</t>
+  </si>
+  <si>
+    <t>Lactose intolerance (gas, bloating, diarrhea with dairy products)</t>
+  </si>
+  <si>
+    <t>Aversion to specific foods or qualities/food textures</t>
+  </si>
+  <si>
+    <t>Gas bloating</t>
+  </si>
+  <si>
+    <t>Diarrhea (loose liquid stool &gt; 1 per day)</t>
+  </si>
+  <si>
+    <t>Constipation</t>
+  </si>
+  <si>
+    <t>Encopresis (Frequent or daily leakage of stool)</t>
+  </si>
+  <si>
+    <t>Perianal lesions or sores</t>
+  </si>
+  <si>
+    <t>Unintentional or unplanned weight loss</t>
+  </si>
+  <si>
+    <t>Decreased appetite</t>
+  </si>
+  <si>
+    <t>Please let us know if the symptoms listed below were previous symptoms or current (ongoing) symptoms. Option 1 Previous</t>
+  </si>
+  <si>
+    <t>Please let us know if the symptoms listed below were previous symptoms or current (ongoing) symptoms. Option 2 Previous</t>
+  </si>
+  <si>
+    <t>Please let us know if the symptoms listed below were previous symptoms or current (ongoing) symptoms. Option 3 Previous</t>
+  </si>
+  <si>
+    <t>Please let us know if the symptoms listed below were previous symptoms or current (ongoing) symptoms. Option 4 Previous</t>
+  </si>
+  <si>
+    <t>Please let us know if the symptoms listed below were previous symptoms or current (ongoing) symptoms. Option 5 Previous</t>
+  </si>
+  <si>
+    <t>Please let us know if the symptoms listed below were previous symptoms or current (ongoing) symptoms. Option 6 Previous</t>
+  </si>
+  <si>
+    <t>Please let us know if the symptoms listed below were previous symptoms or current (ongoing) symptoms. Option 7 Previous</t>
+  </si>
+  <si>
+    <t>Please let us know if the symptoms listed below were previous symptoms or current (ongoing) symptoms. Option 8 Previous</t>
+  </si>
+  <si>
+    <t>Please let us know if the symptoms listed below were previous symptoms or current (ongoing) symptoms. Option 9 Previous</t>
+  </si>
+  <si>
+    <t>Please let us know if the symptoms listed below were previous symptoms or current (ongoing) symptoms. Option 10 Previous</t>
+  </si>
+  <si>
+    <t>Please let us know if the symptoms listed below were previous symptoms or current (ongoing) symptoms. Option 11 Previous</t>
+  </si>
+  <si>
+    <t>Please let us know if the symptoms listed below were previous symptoms or current (ongoing) symptoms. Option 12 Current</t>
+  </si>
+  <si>
+    <t>Please let us know if the symptoms listed below were previous symptoms or current (ongoing) symptoms. Option 13 Current</t>
+  </si>
+  <si>
+    <t>Please let us know if the symptoms listed below were previous symptoms or current (ongoing) symptoms. Option 14 Current</t>
+  </si>
+  <si>
+    <t>Please let us know if the symptoms listed below were previous symptoms or current (ongoing) symptoms. Option 15 Current</t>
+  </si>
+  <si>
+    <t>Please let us know if the symptoms listed below were previous symptoms or current (ongoing) symptoms. Option 16 Current</t>
+  </si>
+  <si>
+    <t>Please let us know if the symptoms listed below were previous symptoms or current (ongoing) symptoms. Option 17 Unsure</t>
+  </si>
+  <si>
+    <t>Please let us know if the symptoms listed below were previous symptoms or current (ongoing) symptoms. Option 18 Unsure</t>
+  </si>
+  <si>
+    <t>Please let us know if the symptoms listed below were previous symptoms or current (ongoing) symptoms. Option 19 Unsure</t>
+  </si>
+  <si>
+    <t>Please let us know if the symptoms listed below were previous symptoms or current (ongoing) symptoms. Option 20 Unsure</t>
+  </si>
+  <si>
+    <t>Please let us know if the symptoms listed below were previous symptoms or current (ongoing) symptoms. Option 21 Unsure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Did choking/gagging ever lead to…Oprion 1 Yes</t>
+  </si>
+  <si>
+    <t>Did choking/gagging ever lead to…Oprion 2 Yes</t>
+  </si>
+  <si>
+    <t>Did choking/gagging ever lead to…Oprion 3 Yes</t>
+  </si>
+  <si>
+    <t>Please complete the table below regarding heartburn/reflux symptoms Has a ph probe Yes</t>
+  </si>
+  <si>
+    <t>Please complete the table below regarding heartburn/reflux symptoms Have any reflux Yes</t>
+  </si>
+  <si>
+    <t>Please complete the table below regarding heartburn/reflux symptoms age</t>
+  </si>
+  <si>
+    <t>Please complete the table below regarding heartburn/reflux symptoms medication</t>
+  </si>
+  <si>
+    <t>2xw</t>
+  </si>
+  <si>
+    <t>iull_</t>
   </si>
 </sst>
 </file>
@@ -560,7 +1550,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -579,6 +1569,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -606,7 +1604,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -634,6 +1632,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -949,10 +1953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection sqref="A1:B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -969,336 +1973,385 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="5">
-        <v>32964</v>
+    <row r="6" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1990</v>
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>17</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13" s="5">
+        <v>33664</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1992</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="4">
-        <v>22015</v>
+        <v>148</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>31</v>
+        <v>149</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>34</v>
+        <v>150</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="4">
+        <v>22015</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="4" t="s">
+    </row>
+    <row r="34" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+    <row r="35" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="136" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="4" t="s">
+    </row>
+    <row r="38" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+    <row r="39" spans="1:2" ht="153" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="119" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B40" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="119" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="85" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="85" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="136" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="136" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="136" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" s="4">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="136" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="119" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="119" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="85" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="B43" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>68</v>
+        <v>45</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A49" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B18" r:id="rId1" xr:uid="{297E94BD-9523-41E6-80A9-134243A06771}"/>
-    <hyperlink ref="B19" r:id="rId2" xr:uid="{794D7FF9-0D73-422F-A007-9F2248165548}"/>
+    <hyperlink ref="B27" r:id="rId1" xr:uid="{129AAACF-20FA-9146-8ECF-B7ABF595A572}"/>
+    <hyperlink ref="B26" r:id="rId2" xr:uid="{D060E1E3-F762-DD44-A72D-77449118F9D8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1309,7 +2362,7 @@
   <dimension ref="A1:B78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" activeCellId="1" sqref="A1 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1328,15 +2381,15 @@
     </row>
     <row r="2" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B3" s="4">
         <v>123456</v>
@@ -1344,23 +2397,23 @@
     </row>
     <row r="4" spans="1:2" ht="238" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="356" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="B6" s="5"/>
     </row>
     <row r="7" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>3</v>
@@ -1368,71 +2421,71 @@
     </row>
     <row r="8" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="B16" s="4">
         <v>1</v>
@@ -1440,7 +2493,7 @@
     </row>
     <row r="17" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="B17" s="4">
         <v>1980</v>
@@ -1456,382 +2509,382 @@
     </row>
     <row r="19" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="340" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1872,6 +2925,1686 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{43C07C8F-8309-8948-A1B7-CD7DD089D4FA}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D404A0E7-D275-C04F-8254-0737AF1E4245}">
+  <dimension ref="A1:B211"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="B215" sqref="B215"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="100.33203125" customWidth="1"/>
+    <col min="2" max="2" width="69.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="272" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B14">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="B39">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="B41">
+        <v>54321</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B43">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>221</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B46">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A49" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B49" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A50" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B52" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="B53" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B55" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B57" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B61">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B62">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B63" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A64" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B64" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A65" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B65" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A66" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B66" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A67" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B67" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A68" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="B68" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A69" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="B69" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A70" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B70" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A71" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B71" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A72" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="B72" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A73" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="B73" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A74" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="B74" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A75" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B75" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A76" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B76" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A77" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="B77" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A78" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="B78" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A79" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A80" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="B80" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A81" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="B81" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A82" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="B82" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A83" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="B83" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A84" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="B84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A85" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B85" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A86" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="B86" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A87" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="B87" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A88" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="B88" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A89" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="B89">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A90" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="B90" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A91" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="B91" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A92" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="B92" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A93" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="B93" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A94" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="B94" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A95" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="B95" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A96" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="B96" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A97" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="B97" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A98" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="B98" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A99" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B99">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A100" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="B100">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A101" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="B101" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A102" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="B102" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A103" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B103">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A104" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="B104">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A105" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="B105" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A106" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B106" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A107" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="B107" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A108" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A109" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="B109">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A110" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="B110">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A111" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="B111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A112" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="B112">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A113" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="B113">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A114" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="B114">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A115" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B115">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A116" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="B116" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A117" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="B117" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A118" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="B118" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A119" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="B119" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A120" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="B120" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A121" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="B121" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A122" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="B122" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A123" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="B123">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A124" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="B124" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A125" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="B125" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A127" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="B127" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A128" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="B128">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A129" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="B129">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A131" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="B131" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A132" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="B132" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A133" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="B133" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+      <c r="A134" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+      <c r="A135" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="B135">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+      <c r="A136" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="B136">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+      <c r="A138" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="B138">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+      <c r="A139" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="B139" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+      <c r="A140" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="B140">
+        <v>4444</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A141" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="B141" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A142" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="B142" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A143" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="B143" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A144" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="B144" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A145" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="B145" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A146" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="B146" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A147" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A148" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="B148" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A149" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="B149" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A150" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="B150" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A151" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="B151" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A152" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="B152" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A153" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="B153" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A154" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="B154" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A155" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="B155" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A156" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="B156" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A157" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B157" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A158" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="B158" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A159" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="B159" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A160" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="B160" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A161" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="B161" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A162" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="B162" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A163" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="B163" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>389</v>
+      </c>
+      <c r="B164" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>390</v>
+      </c>
+      <c r="B165" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>391</v>
+      </c>
+      <c r="B166" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>392</v>
+      </c>
+      <c r="B167" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>393</v>
+      </c>
+      <c r="B168" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>394</v>
+      </c>
+      <c r="B169" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>395</v>
+      </c>
+      <c r="B170" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>396</v>
+      </c>
+      <c r="B171" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>397</v>
+      </c>
+      <c r="B172" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>398</v>
+      </c>
+      <c r="B173" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>399</v>
+      </c>
+      <c r="B174" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>400</v>
+      </c>
+      <c r="B175" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>401</v>
+      </c>
+      <c r="B176" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>402</v>
+      </c>
+      <c r="B177" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>403</v>
+      </c>
+      <c r="B178" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>404</v>
+      </c>
+      <c r="B179" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>405</v>
+      </c>
+      <c r="B180" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>406</v>
+      </c>
+      <c r="B181" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>407</v>
+      </c>
+      <c r="B182" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>408</v>
+      </c>
+      <c r="B183" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>430</v>
+      </c>
+      <c r="B184" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>431</v>
+      </c>
+      <c r="B185" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>432</v>
+      </c>
+      <c r="B186" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>433</v>
+      </c>
+      <c r="B187" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>434</v>
+      </c>
+      <c r="B188" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>435</v>
+      </c>
+      <c r="B189" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>436</v>
+      </c>
+      <c r="B190" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>437</v>
+      </c>
+      <c r="B191" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>438</v>
+      </c>
+      <c r="B192" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>439</v>
+      </c>
+      <c r="B193" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>440</v>
+      </c>
+      <c r="B194" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>441</v>
+      </c>
+      <c r="B195" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>442</v>
+      </c>
+      <c r="B196" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>443</v>
+      </c>
+      <c r="B197" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>444</v>
+      </c>
+      <c r="B198" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>445</v>
+      </c>
+      <c r="B199" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>446</v>
+      </c>
+      <c r="B200" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>447</v>
+      </c>
+      <c r="B201" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>448</v>
+      </c>
+      <c r="B202" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>449</v>
+      </c>
+      <c r="B203" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>450</v>
+      </c>
+      <c r="B204" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A205" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="B205" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>452</v>
+      </c>
+      <c r="B206" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>453</v>
+      </c>
+      <c r="B207" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>454</v>
+      </c>
+      <c r="B208" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>455</v>
+      </c>
+      <c r="B209" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>456</v>
+      </c>
+      <c r="B210" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>457</v>
+      </c>
+      <c r="B211" t="s">
+        <v>459</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/src/test/java/ServiceNow/CHARMS/Resources/RASScenario2.xlsx
+++ b/src/test/java/ServiceNow/CHARMS/Resources/RASScenario2.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bucurgb/IdeaProjects/CBIIT-Test-Automation/src/test/java/ServiceNow/CHARMS/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4FB1D0-E2E6-B14B-B109-93477B6FB411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A5DE95-F877-6A43-AC80-269E15F2AD49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="102420" yWindow="180" windowWidth="49220" windowHeight="28080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="screenerScenario2" sheetId="1" r:id="rId1"/>
     <sheet name="IIQScenario2" sheetId="2" r:id="rId2"/>
-    <sheet name="RASSurvey" sheetId="3" r:id="rId3"/>
+    <sheet name="RASSurveyScenario2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -2934,7 +2934,7 @@
   <dimension ref="A1:B211"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="B215" sqref="B215"/>
+      <selection activeCell="A212" sqref="A212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/src/test/java/ServiceNow/CHARMS/Resources/RASScenario2.xlsx
+++ b/src/test/java/ServiceNow/CHARMS/Resources/RASScenario2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bucurgb/IdeaProjects/CBIIT-Test-Automation/src/test/java/ServiceNow/CHARMS/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A5DE95-F877-6A43-AC80-269E15F2AD49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF22899-D415-1B41-A820-048CCF7BB133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="102420" yWindow="180" windowWidth="49220" windowHeight="28080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="1137">
   <si>
     <t>Question</t>
   </si>
@@ -1542,6 +1542,2096 @@
   <si>
     <t>iull_</t>
   </si>
+  <si>
+    <t>Please complete the table below regarding nausea symptoms.Has bothersome nausia Yes</t>
+  </si>
+  <si>
+    <t>Please complete the table below regarding nausea symptoms.Has nausia not related to vomiting Yes</t>
+  </si>
+  <si>
+    <t>Please complete the table below regarding nausea symptoms.Has nausia medications Yes</t>
+  </si>
+  <si>
+    <t>Please complete the table below regarding nausea symptoms.Age</t>
+  </si>
+  <si>
+    <t>Please complete the table below regarding nausea symptoms.Medication</t>
+  </si>
+  <si>
+    <t>qwqe</t>
+  </si>
+  <si>
+    <t>Please complete the next set of questions regarding abdominal pain.Option 1 Yes</t>
+  </si>
+  <si>
+    <t>Please complete the next set of questions regarding abdominal pain.Option 2 Yes</t>
+  </si>
+  <si>
+    <t>Please complete the next set of questions regarding abdominal pain.Option 3 Yes</t>
+  </si>
+  <si>
+    <t>Please complete the next set of questions regarding abdominal pain.Option 4 Yes</t>
+  </si>
+  <si>
+    <t>Please complete the next set of questions regarding abdominal pain.Option 5 Yes</t>
+  </si>
+  <si>
+    <t>Please complete the next set of questions regarding abdominal pain.Option 6 Yes</t>
+  </si>
+  <si>
+    <t>Please complete the next set of questions regarding abdominal pain.Option 7 Yes</t>
+  </si>
+  <si>
+    <t>Please complete the next set of questions regarding abdominal pain.Option 8 No</t>
+  </si>
+  <si>
+    <t>Please complete the next set of questions regarding abdominal pain.Option 9 No</t>
+  </si>
+  <si>
+    <t>Please complete the next set of questions regarding abdominal pain.Option 10 No</t>
+  </si>
+  <si>
+    <t>Please complete the next set of questions regarding abdominal pain.Option 11 No</t>
+  </si>
+  <si>
+    <t>Please complete the next set of questions regarding abdominal pain.Option 12 No</t>
+  </si>
+  <si>
+    <t>Please complete the next set of questions regarding abdominal pain.Option 13 No</t>
+  </si>
+  <si>
+    <t>Please complete the next set of questions regarding abdominal pain.Option 14 Unsure</t>
+  </si>
+  <si>
+    <t>Please complete the next set of questions regarding abdominal pain.Option 15 Unsure</t>
+  </si>
+  <si>
+    <t>Please complete the next set of questions regarding abdominal pain.Option 16 Unsure</t>
+  </si>
+  <si>
+    <t>Please complete the next set of questions regarding abdominal pain.Option 17 Unsure</t>
+  </si>
+  <si>
+    <t>Please complete the next set of questions regarding abdominal pain.Option 18 Unsure</t>
+  </si>
+  <si>
+    <t>Please complete the next set of questions regarding abdominal pain.Option 19 Unsure</t>
+  </si>
+  <si>
+    <t>Have any medications ever been taken for abdominal pain?</t>
+  </si>
+  <si>
+    <t>How many medications have been taken for abdominal pain?</t>
+  </si>
+  <si>
+    <t>Please complete the table below regarding the medications taken for abdominal pain to the best of your ability. Age</t>
+  </si>
+  <si>
+    <t>Please complete the table below regarding the medications taken for abdominal pain to the best of your ability.medication name</t>
+  </si>
+  <si>
+    <t>Please complete the table below regarding the medications taken for abdominal pain to the best of your ability. Details</t>
+  </si>
+  <si>
+    <t>wqqs</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Please complete the next set of questions regarding vomiting.</t>
+  </si>
+  <si>
+    <t>Has any medication ever been taken for vomiting?</t>
+  </si>
+  <si>
+    <t>How many medications have been taken for vomiting?</t>
+  </si>
+  <si>
+    <t>Please complete the list below by describing any medications taken for vomiting and the age when these medications were taken. Age</t>
+  </si>
+  <si>
+    <t>Please complete the list below by describing any medications taken for vomiting and the age when these medications were taken.  Name</t>
+  </si>
+  <si>
+    <t>zc xc cx</t>
+  </si>
+  <si>
+    <t>1_)(*&amp;</t>
+  </si>
+  <si>
+    <t>Have any of the following symptoms occurred 4 or more days/month for at least two months?  Select all that apply. Option 1</t>
+  </si>
+  <si>
+    <t>Have any of the following symptoms occurred 4 or more days/month for at least two months?  Select all that apply. Option 2</t>
+  </si>
+  <si>
+    <t>Have any of the following symptoms occurred 4 or more days/month for at least two months?  Select all that apply. Option 3</t>
+  </si>
+  <si>
+    <t>Fullness after eating</t>
+  </si>
+  <si>
+    <t>Feeling full soon after starting to eat</t>
+  </si>
+  <si>
+    <t>Abdominal pain/burning above the belly button not related to bowel movements</t>
+  </si>
+  <si>
+    <t>Please answer the below questions regarding jaundice (yellowing of the skin). What age</t>
+  </si>
+  <si>
+    <t>adca12w 2w+</t>
+  </si>
+  <si>
+    <t>Please answer the below questions regarding jaundice (yellowing of the skin). How Long</t>
+  </si>
+  <si>
+    <t>dscxsdc</t>
+  </si>
+  <si>
+    <t>Do you take a lactose supplement?</t>
+  </si>
+  <si>
+    <t>To what foods are you averse?  Please describe foods that you avoid because you do not like the texture or other physical qualities of the food (Please do not include foods you avoid because you do not like the taste).</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Please answer the next two questions about diarrhea.</t>
+  </si>
+  <si>
+    <t>Please complete the table below regarding diarrhea. If medications have never been used, please put 'N/A' in the box. Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below regarding diarrhea. If medications have never been used, please put 'N/A' in the box. Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below regarding diarrhea. If medications have never been used, please put 'N/A' in the box. Option 3</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>Please complete the table regarding constipation.</t>
+  </si>
+  <si>
+    <t>Please complete the table below regarding encopresis. If medications have never been used, please put 'N/A' in the box.Oprion 1</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>Test3</t>
+  </si>
+  <si>
+    <t>Test 5</t>
+  </si>
+  <si>
+    <t>Test 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below regarding weight loss.Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below regarding weight loss.Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below regarding weight loss.Option 3</t>
+  </si>
+  <si>
+    <t>Test6</t>
+  </si>
+  <si>
+    <t>Test7</t>
+  </si>
+  <si>
+    <t>Test8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please complete the information below regarding decreased appetite. </t>
+  </si>
+  <si>
+    <t>Are you toilet trained?</t>
+  </si>
+  <si>
+    <t>At what age (approximately) were you toilet trained?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please complete the information below regarding urination. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please complete the information below regarding bowel movements. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How many bowel movements do you have per week? </t>
+  </si>
+  <si>
+    <t>What is the longest amount of time that has passed without you having a bowel movement?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please use the Bristol Stool Chart shown below and select the choice that best represents what typical bowel movements look like.  </t>
+  </si>
+  <si>
+    <t>Have you ever had a procedure, test or study to evaluate your gastrointestinal (GI) system?  Examples include swallow studies, colonoscopy or endoscopy, and rectal exam.</t>
+  </si>
+  <si>
+    <t>Please indicate which of the following procedures have been performed. Please select all that apply. Option 1</t>
+  </si>
+  <si>
+    <t>Please indicate which of the following procedures have been performed. Please select all that apply. Option 2</t>
+  </si>
+  <si>
+    <t>Please indicate which of the following procedures have been performed. Please select all that apply. Option 3</t>
+  </si>
+  <si>
+    <t>Please indicate which of the following procedures have been performed. Please select all that apply. Option 4</t>
+  </si>
+  <si>
+    <t>Please indicate which of the following procedures have been performed. Please select all that apply. Option 5</t>
+  </si>
+  <si>
+    <t>Please indicate which of the following procedures have been performed. Please select all that apply. Option 6</t>
+  </si>
+  <si>
+    <t>Please indicate which of the following procedures have been performed. Please select all that apply. Option 7</t>
+  </si>
+  <si>
+    <t>Please indicate which of the following procedures have been performed. Please select all that apply. Option 8</t>
+  </si>
+  <si>
+    <t>Please indicate which of the following procedures have been performed. Please select all that apply. Option 9</t>
+  </si>
+  <si>
+    <t>Digital rectal exam</t>
+  </si>
+  <si>
+    <t>Upper endoscopy</t>
+  </si>
+  <si>
+    <t>Colonoscopy</t>
+  </si>
+  <si>
+    <t>Anorectal manometry</t>
+  </si>
+  <si>
+    <t>pH probe or impedance study</t>
+  </si>
+  <si>
+    <t>Upper GI swallow study</t>
+  </si>
+  <si>
+    <t>Modified barium swallow study</t>
+  </si>
+  <si>
+    <t>Gastric emptying study</t>
+  </si>
+  <si>
+    <t>Other GI test (please specify)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please provide the information below for the first procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Zdigital rectal xexam column 1  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please provide the information below for the first procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Zdigital rectal xexam column 3  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please provide the information below for the first procedure of each kind that was performed.  In the next question, we will ask about the most recent procedure and any findings. Zdigital rectal xexam column 4  </t>
+  </si>
+  <si>
+    <t>sew</t>
+  </si>
+  <si>
+    <t>sewdss</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>sdcdff</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the most recent procedure of each kind that was performed.  Digital rectal exam column 1</t>
+  </si>
+  <si>
+    <t>sdcs</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the most recent procedure of each kind that was performed.  Digital rectal exam column 2</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the most recent procedure of each kind that was performed.  Digital rectal exam column 3</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the most recent procedure of each kind that was performed.  Digital rectal exam column 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> vbcvb sf </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sfgvbs</t>
+  </si>
+  <si>
+    <t>233rfwefe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The next set of questions ask about breathing and the lungs. </t>
+  </si>
+  <si>
+    <t>Have you ever had an evaluation by a pulmonologist?  These are doctors that specialize in the airway and lungs. Pulmonologists often diagnose conditions such as asthma and cystic fibrosis.</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the pulmonologist who completed your evaluation. Name</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the pulmonologist who completed your evaluation. Location</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the pulmonologist who completed your evaluation.  Hospital</t>
+  </si>
+  <si>
+    <t>xyz Location---</t>
+  </si>
+  <si>
+    <t>Z hospital</t>
+  </si>
+  <si>
+    <t>Have you ever had wheezing or whistling in your chest?</t>
+  </si>
+  <si>
+    <t>Have you been diagnosed with reactive airway disease or asthma?</t>
+  </si>
+  <si>
+    <t>Have you ever been seen in the emergency room for a breathing problem?</t>
+  </si>
+  <si>
+    <t>Have you ever been admitted to the hospital for a breathing problem?</t>
+  </si>
+  <si>
+    <t>The next set of questions will ask about oral health and dental history.</t>
+  </si>
+  <si>
+    <t>Do you receive regular dental care?</t>
+  </si>
+  <si>
+    <t>Please provide the information below for where dental care is received. Name</t>
+  </si>
+  <si>
+    <t>Please provide the information below for where dental care is received. Location</t>
+  </si>
+  <si>
+    <t>Please provide the information below for where dental care is received. Dental group</t>
+  </si>
+  <si>
+    <t>ss21</t>
+  </si>
+  <si>
+    <t>dcvvhjjyuu6</t>
+  </si>
+  <si>
+    <t>sdc</t>
+  </si>
+  <si>
+    <t>When did you last visit a dentist?  Please use format month/year as MM/YY.</t>
+  </si>
+  <si>
+    <t>adcadc d w---P{{}</t>
+  </si>
+  <si>
+    <t>What was the reason for your last dental visit?</t>
+  </si>
+  <si>
+    <t>Cleaning</t>
+  </si>
+  <si>
+    <t>Do your gums bleed regularly with tooth brushing now?</t>
+  </si>
+  <si>
+    <t>Do your teeth or gums hurt regularly?</t>
+  </si>
+  <si>
+    <t>Do you have periodontal or gum disease?</t>
+  </si>
+  <si>
+    <t>Have you had dental sealants placed?</t>
+  </si>
+  <si>
+    <t>Do you currently have cavities?</t>
+  </si>
+  <si>
+    <t>Have you previously had any dental fillings?</t>
+  </si>
+  <si>
+    <t>Does your mouth usually feel dry?</t>
+  </si>
+  <si>
+    <t>Overall, how would you rate the overall health of your teeth and gums?</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>Overall, how would you rate your dental hygiene routine (regular tooth brushing, flossing, and your home oral mouth rinse)?</t>
+  </si>
+  <si>
+    <t>Have you had any changes in your sense of smell (NOT related to a diagnosis of COVID)?</t>
+  </si>
+  <si>
+    <t>Have you had any changes in your sense of taste (NOT related to a diagnosis of COVID)?</t>
+  </si>
+  <si>
+    <t>Do you have jaw or temporomandibular joint pain?</t>
+  </si>
+  <si>
+    <t>Do you have frequent headaches?</t>
+  </si>
+  <si>
+    <t>Have you had any orthodontic treatment?</t>
+  </si>
+  <si>
+    <t>Have you had a palatal expansion?</t>
+  </si>
+  <si>
+    <t>Have you had any facial or dental trauma?</t>
+  </si>
+  <si>
+    <t>Did the facial or dental trauma require surgery?</t>
+  </si>
+  <si>
+    <t>Yes (please specify)</t>
+  </si>
+  <si>
+    <t>Have you had elective jaw surgery?</t>
+  </si>
+  <si>
+    <t>Do you have a history of cancer in the mouth or jaw?
+Some examples include lymphoma, minor salivary gland, mucosal melanoma, sarcoma, or squamous cell carcinoma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you have a family member with a jaw abnormality?
+</t>
+  </si>
+  <si>
+    <t>Do you have any numbness in or around your mouth?</t>
+  </si>
+  <si>
+    <t>Do you have any mouth sores?</t>
+  </si>
+  <si>
+    <t>Do your teeth feel sensitive to hot or cold foods?</t>
+  </si>
+  <si>
+    <t>Do you have problems moving your lips, tongue or mouth?</t>
+  </si>
+  <si>
+    <t>Overall -- Is there anything unusual about your teeth or mouth (extra teeth, missing teeth, severe dental diseases, jawbone problems, enamel problems, etc.)?</t>
+  </si>
+  <si>
+    <t>Yes (please specify what is unusual)</t>
+  </si>
+  <si>
+    <t>Have you had trouble pronouncing any words because of problems with your teeth, mouth or dentures?</t>
+  </si>
+  <si>
+    <t>Very often</t>
+  </si>
+  <si>
+    <t>Have you felt that your sense of taste has worsened because of problems with your teeth, mouth or dentures?</t>
+  </si>
+  <si>
+    <t>Have you had painful aching in your mouth?</t>
+  </si>
+  <si>
+    <t>Have you found it uncomfortable to eat any foods because of problems with your teeth, mouth or dentures?</t>
+  </si>
+  <si>
+    <t>Are you self-conscious because of your teeth, mouth or dentures?</t>
+  </si>
+  <si>
+    <t>Have you felt tense because of problems with your teeth, mouth or dentures?</t>
+  </si>
+  <si>
+    <t>Has your diet been unsatisfactory because of problems with your teeth, mouth or dentures?</t>
+  </si>
+  <si>
+    <t>Have you had to interrupt meals because of problems with your teeth, mouth or dentures?</t>
+  </si>
+  <si>
+    <t>Have you found it difficult to relax because of problems with your teeth, mouth or dentures?</t>
+  </si>
+  <si>
+    <t>Have you been a bit embarrassed because of problems with your teeth, mouth or dentures?</t>
+  </si>
+  <si>
+    <t>Have you been irritable with other people because of problems with your teeth, mouth or dentures?</t>
+  </si>
+  <si>
+    <t>Have you had difficulty doing your usual jobs because of problems with your teeth, mouth or dentures?</t>
+  </si>
+  <si>
+    <t>Have you felt that life in general is less satisfying because of problems with your teeth, mouth or dentures?</t>
+  </si>
+  <si>
+    <t>Have you been totally unable to function because of problems with your teeth, mouth or dentures?</t>
+  </si>
+  <si>
+    <t>The next set of questions ask about fluid balance and if any fluid builds up throughout the body.</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with a lymphatic system issue?
+Some examples include: neonatal lymphedema, lymphedema, congenital chylothorax, pleural effusion/chylothorax, and lymphangioma</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following lymphatic system issues? 
+The lymphatic system is a network of vessels and nodes (lymph nodes) that carry a fluid called lymph throughout our bodies. Lymph helps the body fight infection.  Please select all that apply. Option 1</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following lymphatic system issues? 
+The lymphatic system is a network of vessels and nodes (lymph nodes) that carry a fluid called lymph throughout our bodies. Lymph helps the body fight infection.  Please select all that apply. Option 2</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following lymphatic system issues? 
+The lymphatic system is a network of vessels and nodes (lymph nodes) that carry a fluid called lymph throughout our bodies. Lymph helps the body fight infection.  Please select all that apply. Option 3</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following lymphatic system issues? 
+The lymphatic system is a network of vessels and nodes (lymph nodes) that carry a fluid called lymph throughout our bodies. Lymph helps the body fight infection.  Please select all that apply. Option 4</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following lymphatic system issues? 
+The lymphatic system is a network of vessels and nodes (lymph nodes) that carry a fluid called lymph throughout our bodies. Lymph helps the body fight infection.  Please select all that apply. Option 5</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following lymphatic system issues? 
+The lymphatic system is a network of vessels and nodes (lymph nodes) that carry a fluid called lymph throughout our bodies. Lymph helps the body fight infection.  Please select all that apply. Option 6</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following lymphatic system issues? 
+The lymphatic system is a network of vessels and nodes (lymph nodes) that carry a fluid called lymph throughout our bodies. Lymph helps the body fight infection.  Please select all that apply. Option 7</t>
+  </si>
+  <si>
+    <t>Neonatal lymphedema (lymph build up typically in the arms and legs. This occurs in the first month of life)</t>
+  </si>
+  <si>
+    <t>Lymphedema (lymph fluid builds up and causes swelling in the arms and legs. This occurs after one month of age)</t>
+  </si>
+  <si>
+    <t>Congenital chylothorax (lymph fluid builds up in the lung; diagnosed within the first month of life)</t>
+  </si>
+  <si>
+    <t>Pleural effusion/chylothorax (lymph fluid builds up in the lung; diagnosed after one month of age)</t>
+  </si>
+  <si>
+    <t>Lymphangioma (lymph fluid under the skin that appears as a swelling, mass, or cyst; most often occurs in the head, neck or breast area</t>
+  </si>
+  <si>
+    <t>Chronic abdominal pain</t>
+  </si>
+  <si>
+    <t>Please complete the table below to the best of your ability about the onset of symptoms, when you were diagnosed and if any procedures or medications were undertaken. Neutanal Column 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below to the best of your ability about the onset of symptoms, when you were diagnosed and if any procedures or medications were undertaken. Neutanal Column 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below to the best of your ability about the onset of symptoms, when you were diagnosed and if any procedures or medications were undertaken. Neutanal Column 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below to the best of your ability about the onset of symptoms, when you were diagnosed and if any procedures or medications were undertaken. Neutanal Column 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below to the best of your ability about the onset of symptoms, when you were diagnosed and if any procedures or medications were undertaken. Neutanal Column 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below to the best of your ability about the onset of symptoms, when you were diagnosed and if any procedures or medications were undertaken. Neutanal Column 6</t>
+  </si>
+  <si>
+    <t>Please complete the table below to the best of your ability about the onset of symptoms, when you were diagnosed and if any procedures or medications were undertaken. Neutanal Column 7</t>
+  </si>
+  <si>
+    <t>Please complete the table below to the best of your ability about the onset of symptoms, when you were diagnosed and if any procedures or medications were undertaken. Neutanal Column 8</t>
+  </si>
+  <si>
+    <t>styiash 1</t>
+  </si>
+  <si>
+    <t>awddds11__</t>
+  </si>
+  <si>
+    <t>scftrhr6h</t>
+  </si>
+  <si>
+    <t>fgerghetfv</t>
+  </si>
+  <si>
+    <t>dfh7u5</t>
+  </si>
+  <si>
+    <t>54y4ygfhrtur</t>
+  </si>
+  <si>
+    <t>fthyju7i6tyng</t>
+  </si>
+  <si>
+    <t>ryu5hrgr</t>
+  </si>
+  <si>
+    <t>The next set of questions will ask about the kidneys.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have you ever been evaluated by a nephrologist?  These are doctors that specialize in the kidneys.  They often diagnose conditions related to kidney function and help people get dialysis if their kidneys are not working well. </t>
+  </si>
+  <si>
+    <t>Please list the information below for the nephrologist who completed your evaluation.Name</t>
+  </si>
+  <si>
+    <t>Please list the information below for the nephrologist who completed your evaluation.City</t>
+  </si>
+  <si>
+    <t>Please list the information below for the nephrologist who completed your evaluation. Hospital</t>
+  </si>
+  <si>
+    <t>Doctor t</t>
+  </si>
+  <si>
+    <t>locatopn t</t>
+  </si>
+  <si>
+    <t>Hospital t</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with a kidney problem?
+Some examples include: minor issues with kidney shape, underdeveloped kidney, missing kidney, or swollen kidney</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following kidney problems? Please select all that apply. Option 1</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following kidney problems? Please select all that apply. Option 2</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following kidney problems? Please select all that apply. Option 3</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following kidney problems? Please select all that apply. Option 4</t>
+  </si>
+  <si>
+    <t>Minor issues with kidneys that affect shape but do not result in decreased kidney function</t>
+  </si>
+  <si>
+    <t>Underdeveloped kidney (renal hypoplasia) or missing kidney (renal agenesis) which results in decreased kidney function</t>
+  </si>
+  <si>
+    <t>Hydronephrosis (when the kidney swells because of build up of urine, which can require surgery to fix)</t>
+  </si>
+  <si>
+    <t>Please complete the table below to the best of your ability regarding date of onset of symptoms, diagnosis and if any medications or procedures were undertaken.  If you do not recall the details for each condition listed, please place an 'X' in the box. Minor Column 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below to the best of your ability regarding date of onset of symptoms, diagnosis and if any medications or procedures were undertaken.  If you do not recall the details for each condition listed, please place an 'X' in the box. Minor Column 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below to the best of your ability regarding date of onset of symptoms, diagnosis and if any medications or procedures were undertaken.  If you do not recall the details for each condition listed, please place an 'X' in the box. Minor Column 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below to the best of your ability regarding date of onset of symptoms, diagnosis and if any medications or procedures were undertaken.  If you do not recall the details for each condition listed, please place an 'X' in the box. Minor Column 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below to the best of your ability regarding date of onset of symptoms, diagnosis and if any medications or procedures were undertaken.  If you do not recall the details for each condition listed, please place an 'X' in the box. Minor Column 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below to the best of your ability regarding date of onset of symptoms, diagnosis and if any medications or procedures were undertaken.  If you do not recall the details for each condition listed, please place an 'X' in the box. Minor Column 6</t>
+  </si>
+  <si>
+    <t>Please complete the table below to the best of your ability regarding date of onset of symptoms, diagnosis and if any medications or procedures were undertaken.  If you do not recall the details for each condition listed, please place an 'X' in the box. Minor Column 7</t>
+  </si>
+  <si>
+    <t>Please complete the table below to the best of your ability regarding date of onset of symptoms, diagnosis and if any medications or procedures were undertaken.  If you do not recall the details for each condition listed, please place an 'X' in the box. Minor Column 8</t>
+  </si>
+  <si>
+    <t>sddgbd</t>
+  </si>
+  <si>
+    <t>dbdd</t>
+  </si>
+  <si>
+    <t>b bnmhj</t>
+  </si>
+  <si>
+    <t>m hj</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hm  nm,jku</t>
+  </si>
+  <si>
+    <t>k,hk,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jk.//k.j , </t>
+  </si>
+  <si>
+    <t>jk.jl../;p[o;</t>
+  </si>
+  <si>
+    <t>The next set of questions ask about hair and skin qualities.</t>
+  </si>
+  <si>
+    <t>Have you ever been evaluated by a dermatologist?  Dermatologists are physicians who specialize in conditions of the skin.  They diagnose and treat a range of conditions such as melanoma, acne, and hemangiomas.</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the dermatologist who completed your evaluation. Name</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the dermatologist who completed your evaluation. City</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the dermatologist who completed your evaluation. Hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dghnmk, </t>
+  </si>
+  <si>
+    <t>kj,jhk, mn</t>
+  </si>
+  <si>
+    <t>;p[[mjkuilu</t>
+  </si>
+  <si>
+    <t>Please choose the best term(s) to describe your hair.  Please select all that apply. Option 1</t>
+  </si>
+  <si>
+    <t>Please choose the best term(s) to describe your hair.  Please select all that apply. Option 2</t>
+  </si>
+  <si>
+    <t>Please choose the best term(s) to describe your hair.  Please select all that apply. Option 3</t>
+  </si>
+  <si>
+    <t>Please choose the best term(s) to describe your hair.  Please select all that apply. Option 4</t>
+  </si>
+  <si>
+    <t>Please choose the best term(s) to describe your hair.  Please select all that apply. Option 5</t>
+  </si>
+  <si>
+    <t>Please choose the best term(s) to describe your hair.  Please select all that apply. Option 6</t>
+  </si>
+  <si>
+    <t>Please choose the best term(s) to describe your hair.  Please select all that apply. Option 7</t>
+  </si>
+  <si>
+    <t>Straight</t>
+  </si>
+  <si>
+    <t>Wavy</t>
+  </si>
+  <si>
+    <t>Sparse/have too little hair</t>
+  </si>
+  <si>
+    <t>Fine</t>
+  </si>
+  <si>
+    <t>Curly/wooly</t>
+  </si>
+  <si>
+    <t>Easy to pluck</t>
+  </si>
+  <si>
+    <t>Is the texture or amount of your hair similar to biological family members, such as your mother, father, sibling, and children?</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following issues involving patches of thickened skin, also known as hyperkeratotis skin? Please select all that apply. Option 1</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following issues involving patches of thickened skin, also known as hyperkeratotis skin? Please select all that apply. Option 2</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following issues involving patches of thickened skin, also known as hyperkeratotis skin? Please select all that apply. Option 3</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following issues involving patches of thickened skin, also known as hyperkeratotis skin? Please select all that apply. Option 4</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following issues involving patches of thickened skin, also known as hyperkeratotis skin? Please select all that apply. Option 5</t>
+  </si>
+  <si>
+    <t>Keratosis pilaris (patches of small, hard bumps often found on the upper arms. These look similar to goose bumps)</t>
+  </si>
+  <si>
+    <t>Palmar/plantar hyperkeratosis (significant thickening of the skin on the palms of the hands or soles of the feet)</t>
+  </si>
+  <si>
+    <t>Facial keratosis/Ulerythema ophryogenes (patches of dry, hard sandpaper-like bumps on the face, particularly in and near the eyebrows)</t>
+  </si>
+  <si>
+    <t>Ichthyosis (dry, scaly skin)</t>
+  </si>
+  <si>
+    <t>Do you have any of the following pigmented skin findings? Select all that apply. Option 1</t>
+  </si>
+  <si>
+    <t>Do you have any of the following pigmented skin findings? Select all that apply. Option 2</t>
+  </si>
+  <si>
+    <t>Do you have any of the following pigmented skin findings? Select all that apply. Option 3</t>
+  </si>
+  <si>
+    <t>Do you have any of the following pigmented skin findings? Select all that apply. Option 4</t>
+  </si>
+  <si>
+    <t>Do you have any of the following pigmented skin findings? Select all that apply. Option 5</t>
+  </si>
+  <si>
+    <t>Three or more cafe-au-lait spots (light brown birthmarks the color of coffee with milk)</t>
+  </si>
+  <si>
+    <t>Diffuse hyperpigmentation (patches of skin that are darker than the rest of your skin)</t>
+  </si>
+  <si>
+    <t>Three or more nevi (small brown, tan, pink or red spots, also called moles)</t>
+  </si>
+  <si>
+    <t>Three or more lentigines (dark, smooth/flat freckles or spots on the skin)</t>
+  </si>
+  <si>
+    <t>Do you have any hemangiomas?  Hemangiomas are bright red marks on the skin made up of blood vessels, which may appear as a mass or lump.  A hemangioma may appear in infancy or childhood and fade over time. . Option 1</t>
+  </si>
+  <si>
+    <t>Three or more hemangiomas</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following skin tumors?  Please select all that apply. Option 1</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following skin tumors?  Please select all that apply. Option 2</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following skin tumors?  Please select all that apply. Option 3</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following skin tumors?  Please select all that apply. Option 4</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following skin tumors?  Please select all that apply. Option 5</t>
+  </si>
+  <si>
+    <t>Granular cell tumor (soft tissue tumor, often benign, commonly located in the head and neck area and tongue)</t>
+  </si>
+  <si>
+    <t>Melanoma</t>
+  </si>
+  <si>
+    <t>Dysplastic nevi</t>
+  </si>
+  <si>
+    <t>Papilloma (wart-like growths)</t>
+  </si>
+  <si>
+    <t>The next set of questions ask about skeletal conditions.
+Skeletal conditions involve the bones throughout the body.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Have you ever been evaluated by an orthopaedic surgeon?  Orthopaedic surgeons are doctors who specialize in the bones and muscles.  They diagnose and treat a range of conditions including broken bones, osteosarcoma, and torn ligaments.</t>
+  </si>
+  <si>
+    <t>Please provide the details below for the orthopaedic surgeon who completed your evaluation. Name</t>
+  </si>
+  <si>
+    <t>Please provide the details below for the orthopaedic surgeon who completed your evaluation.Location</t>
+  </si>
+  <si>
+    <t>Please provide the details below for the orthopaedic surgeon who completed your evaluation. Hospital</t>
+  </si>
+  <si>
+    <t>fgbf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hnmy,m </t>
+  </si>
+  <si>
+    <r>
+      <t>m;/o</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">l/o </t>
+    </r>
+  </si>
+  <si>
+    <t>Have you been diagnosed with any of the following skeletal findings in the thoracic area? The thoracic area includes the chest and ribs. Please select all that apply. Option 1</t>
+  </si>
+  <si>
+    <t>Have you been diagnosed with any of the following skeletal findings in the thoracic area? The thoracic area includes the chest and ribs. Please select all that apply. Option 2</t>
+  </si>
+  <si>
+    <t>Have you been diagnosed with any of the following skeletal findings in the thoracic area? The thoracic area includes the chest and ribs. Please select all that apply. Option 3</t>
+  </si>
+  <si>
+    <t>Have you been diagnosed with any of the following skeletal findings in the thoracic area? The thoracic area includes the chest and ribs. Please select all that apply. Option 4</t>
+  </si>
+  <si>
+    <t>Pectus carinatum (breastbone sticks out from the chest)</t>
+  </si>
+  <si>
+    <t>Pectus excavatum (breastbone appears sunken or caved into the chest)</t>
+  </si>
+  <si>
+    <t>Broad chest, nipples widely spaced</t>
+  </si>
+  <si>
+    <t>Do you have any issues with curving of the spine?  This would often be diagnosed or evaluated by an orthopaedic surgeon.  Examples include scoliosis and kyphosis.</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following types of curvature of the spine? 
+Please select all that apply. Option 1</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following types of curvature of the spine? 
+Please select all that apply. Option 2</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following types of curvature of the spine? 
+Please select all that apply. Option 3</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following types of curvature of the spine? 
+Please select all that apply. Option 4</t>
+  </si>
+  <si>
+    <t>Scoliosis (curving of the spine from side to side)</t>
+  </si>
+  <si>
+    <t>Kyphosis (curving of the spine from front to back)</t>
+  </si>
+  <si>
+    <t>Kyphoscoliosis (curving of the spine both side to side and front to back)</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the spine issues listed.  For each condition, please indicate your age or date when they occurred (you do not need to include both).  If you do not recall the details, place an 'X' in the column 'Don't know'.  For the treatment column, if no treatment was required, please write 'None'. Other Column 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the spine issues listed.  For each condition, please indicate your age or date when they occurred (you do not need to include both).  If you do not recall the details, place an 'X' in the column 'Don't know'.  For the treatment column, if no treatment was required, please write 'None'. Other Column 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the spine issues listed.  For each condition, please indicate your age or date when they occurred (you do not need to include both).  If you do not recall the details, place an 'X' in the column 'Don't know'.  For the treatment column, if no treatment was required, please write 'None'. Other Column 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the spine issues listed.  For each condition, please indicate your age or date when they occurred (you do not need to include both).  If you do not recall the details, place an 'X' in the column 'Don't know'.  For the treatment column, if no treatment was required, please write 'None'. Other Column 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the spine issues listed.  For each condition, please indicate your age or date when they occurred (you do not need to include both).  If you do not recall the details, place an 'X' in the column 'Don't know'.  For the treatment column, if no treatment was required, please write 'None'. Other Column 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the spine issues listed.  For each condition, please indicate your age or date when they occurred (you do not need to include both).  If you do not recall the details, place an 'X' in the column 'Don't know'.  For the treatment column, if no treatment was required, please write 'None'. Other Column 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bv cvb </t>
+  </si>
+  <si>
+    <t>cbn v</t>
+  </si>
+  <si>
+    <t>m gj khkj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jh,,h </t>
+  </si>
+  <si>
+    <t>k,jl</t>
+  </si>
+  <si>
+    <t>l;';l;/'p[p/</t>
+  </si>
+  <si>
+    <t>Has your neck been described as short or webbed?
+Individuals with a short, webbed neck may have a low hairline or extra skin where the neck meets the shoulders.</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with joint issues?  These conditions are often diagnosed by neurologists, rheumatologists and orthopaedic surgeons.  Examples include ulnar deviation, Achilles tendon contracture, hip dysplasia.</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with the following joint issues?  Please select all that apply. Option 1</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with the following joint issues?  Please select all that apply. Option 2</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with the following joint issues?  Please select all that apply. Option 3</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with the following joint issues?  Please select all that apply. Option 4</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with the following joint issues?  Please select all that apply. Option 5</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with the following joint issues?  Please select all that apply. Option 6</t>
+  </si>
+  <si>
+    <t>Ulnar deviation (also called ulnar drift, when your fingers bend towards your pinky finger, but your wrist shifts towards your thumb. May cause swelling and difficulty gripping)</t>
+  </si>
+  <si>
+    <t>Pes planus/pes valgus (also known as flat feet)</t>
+  </si>
+  <si>
+    <t>Achilles tendon contracture (tightness in the achilles tendon which runs from your heel to your ankle and causes pain or the foot to remain in an abnormal position)</t>
+  </si>
+  <si>
+    <t>Hip dysplasia requiring surgery (when the upper thigh bone and the hip socket don't connect properly. Select this ONLY if you had surgery to correct hip dysplasia)</t>
+  </si>
+  <si>
+    <t>Hypermobility (joints that are more flexible than usual; sometimes referred to as "double jointed")</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the joint issues listed.  For each condition, please include the date or age when symptoms first occurred and date or age at diagnosis (you do not need to include both the date and age).  If you do not recall the details, please place an 'X' in the column 'Don't know.'  If no treatment was required, please put 'None' in the 'Treatment' column. Other Column 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the joint issues listed.  For each condition, please include the date or age when symptoms first occurred and date or age at diagnosis (you do not need to include both the date and age).  If you do not recall the details, please place an 'X' in the column 'Don't know.'  If no treatment was required, please put 'None' in the 'Treatment' column. Other Column 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the joint issues listed.  For each condition, please include the date or age when symptoms first occurred and date or age at diagnosis (you do not need to include both the date and age).  If you do not recall the details, please place an 'X' in the column 'Don't know.'  If no treatment was required, please put 'None' in the 'Treatment' column. Other Column 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the joint issues listed.  For each condition, please include the date or age when symptoms first occurred and date or age at diagnosis (you do not need to include both the date and age).  If you do not recall the details, please place an 'X' in the column 'Don't know.'  If no treatment was required, please put 'None' in the 'Treatment' column. Other Column 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the joint issues listed.  For each condition, please include the date or age when symptoms first occurred and date or age at diagnosis (you do not need to include both the date and age).  If you do not recall the details, please place an 'X' in the column 'Don't know.'  If no treatment was required, please put 'None' in the 'Treatment' column. Other Column 6</t>
+  </si>
+  <si>
+    <t>lease complete the table below for each of the joint issues listed.  For each condition, please include the date or age when symptoms first occurred and date or age at diagnosis (you do not need to include both the date and age).  If you do not recall the details, please place an 'X' in the column 'Don't know.'  If no treatment was required, please put 'None' in the 'Treatment' column. Other Column 7</t>
+  </si>
+  <si>
+    <t>lease complete the table below for each of the joint issues listed.  For each condition, please include the date or age when symptoms first occurred and date or age at diagnosis (you do not need to include both the date and age).  If you do not recall the details, please place an 'X' in the column 'Don't know.'  If no treatment was required, please put 'None' in the 'Treatment' column. Other Column 5</t>
+  </si>
+  <si>
+    <t>cdvdfb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fg bfh g </t>
+  </si>
+  <si>
+    <t>hnmn nymy</t>
+  </si>
+  <si>
+    <t>yukm66jk</t>
+  </si>
+  <si>
+    <t>7j67ijntn</t>
+  </si>
+  <si>
+    <t>uyjumy</t>
+  </si>
+  <si>
+    <t>7ujmy7ui79</t>
+  </si>
+  <si>
+    <t>The next set of questions ask about blood disorders.  Blood disorders include immune system problems (white blood cells) or bleeding/clotting issues (platelets) or other bone marrow problems (where white blood cells, red blood cells and platelets are produced).</t>
+  </si>
+  <si>
+    <t>Have you ever had an evaluation by a hematologist or oncologist?  Hematologists are physicians who specialize in the blood system, including white blood cells, platelets, red blood cells and clotting factors.  Oncologists are physicians who specialize in cancer.</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the hematologist/oncologist who completed your evaluation. Name</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the hematologist/oncologist who completed your evaluation. Location</t>
+  </si>
+  <si>
+    <t>Please provide the information below for the hematologist/oncologist who completed your evaluation. Hospital</t>
+  </si>
+  <si>
+    <t>fnhumy7</t>
+  </si>
+  <si>
+    <t>9p/.iu.</t>
+  </si>
+  <si>
+    <t>o/kkk;/k</t>
+  </si>
+  <si>
+    <t>Do you have issues with bleeding or bruising?  Examples include easy bruising, poor blood clotting.  These conditions are often evaluated and diagnosed by a hematologist (a physician who specializes in the blood).</t>
+  </si>
+  <si>
+    <t>Do you have any of the following issues with bleeding or bruising?  Please select all that apply. Option 1</t>
+  </si>
+  <si>
+    <t>Do you have any of the following issues with bleeding or bruising?  Please select all that apply. Option 3</t>
+  </si>
+  <si>
+    <t>Do you have any of the following issues with bleeding or bruising?  Please select all that apply. Option 4</t>
+  </si>
+  <si>
+    <t>Do you have any of the following issues with bleeding or bruising?  Please select all that apply. Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the bleeding/bruising issues listed.  For each condition, please provide your age or date when symptoms first started and at diagnosis (you only need to provide date or age, but not both).  If you do not recall the details, please place an 'X' in the 'Don't know' column.  If no treatment was required, please write 'None' in the treatment column.  other Column 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the bleeding/bruising issues listed.  For each condition, please provide your age or date when symptoms first started and at diagnosis (you only need to provide date or age, but not both).  If you do not recall the details, please place an 'X' in the 'Don't know' column.  If no treatment was required, please write 'None' in the treatment column.  other Column 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the bleeding/bruising issues listed.  For each condition, please provide your age or date when symptoms first started and at diagnosis (you only need to provide date or age, but not both).  If you do not recall the details, please place an 'X' in the 'Don't know' column.  If no treatment was required, please write 'None' in the treatment column.  other Column 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the bleeding/bruising issues listed.  For each condition, please provide your age or date when symptoms first started and at diagnosis (you only need to provide date or age, but not both).  If you do not recall the details, please place an 'X' in the 'Don't know' column.  If no treatment was required, please write 'None' in the treatment column.  other Column 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the bleeding/bruising issues listed.  For each condition, please provide your age or date when symptoms first started and at diagnosis (you only need to provide date or age, but not both).  If you do not recall the details, please place an 'X' in the 'Don't know' column.  If no treatment was required, please write 'None' in the treatment column.  other Column 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the bleeding/bruising issues listed.  For each condition, please provide your age or date when symptoms first started and at diagnosis (you only need to provide date or age, but not both).  If you do not recall the details, please place an 'X' in the 'Don't know' column.  If no treatment was required, please write 'None' in the treatment column.  other Column 6</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the bleeding/bruising issues listed.  For each condition, please provide your age or date when symptoms first started and at diagnosis (you only need to provide date or age, but not both).  If you do not recall the details, please place an 'X' in the 'Don't know' column.  If no treatment was required, please write 'None' in the treatment column.  other Column 7</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the bleeding/bruising issues listed.  For each condition, please provide your age or date when symptoms first started and at diagnosis (you only need to provide date or age, but not both).  If you do not recall the details, please place an 'X' in the 'Don't know' column.  If no treatment was required, please write 'None' in the treatment column.  other Column 8</t>
+  </si>
+  <si>
+    <t>ghnyurmfy</t>
+  </si>
+  <si>
+    <t>uktum</t>
+  </si>
+  <si>
+    <t>9p79l689</t>
+  </si>
+  <si>
+    <t>0009p89</t>
+  </si>
+  <si>
+    <t>uolu,i.o</t>
+  </si>
+  <si>
+    <t>jk,l.pop/</t>
+  </si>
+  <si>
+    <t>op/o/o/p</t>
+  </si>
+  <si>
+    <t>hnngmyu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you have any known blood disorders or symptoms of blood disorders?  Examples include an enlarged spleen, leukemia, low platelets or low blood cells.  </t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following blood disorders or symptoms of blood disorders?  Please select all that apply. Option 1</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following blood disorders or symptoms of blood disorders?  Please select all that apply. Option 2</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following blood disorders or symptoms of blood disorders?  Please select all that apply. Option 3</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following blood disorders or symptoms of blood disorders?  Please select all that apply. Option 4</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following blood disorders or symptoms of blood disorders?  Please select all that apply. Option 5</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following blood disorders or symptoms of blood disorders?  Please select all that apply. Option 6</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following blood disorders or symptoms of blood disorders?  Please select all that apply. Option 7</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following blood disorders or symptoms of blood disorders?  Please select all that apply. Option 8</t>
+  </si>
+  <si>
+    <t>Splenomegaly (when the spleen is enlarged)</t>
+  </si>
+  <si>
+    <t>Myeloproliferative disorder (when you produce too many red blood cells, white blood cells or platelets. Examples include polycythemia vera, myelofibrosis, chromic myelogenous leukemia, thrombocythemia, eosinophilia</t>
+  </si>
+  <si>
+    <t>Juvenile myelomonocytic leukemia (JMML; a type of childhood cancer)</t>
+  </si>
+  <si>
+    <t>Thrombocytopenia (low platelets; may cause easy bruising and bleeding)</t>
+  </si>
+  <si>
+    <t>Marrow hypoplasia (when bone marrow is not making enough blood cells)</t>
+  </si>
+  <si>
+    <t>History of low white blood cell count but no specific diagnosis</t>
+  </si>
+  <si>
+    <t>Other leukemia (please specify)</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed.  For each condition listed, please include either your age or date of symptoms and diagnosis (you do not need to include both date and age).  If you do not recall the details, please place an 'X' in the column 'Don't know'.  If no treatment was required, please write 'None' in the 'Treatment' column. Other Column 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed.  For each condition listed, please include either your age or date of symptoms and diagnosis (you do not need to include both date and age).  If you do not recall the details, please place an 'X' in the column 'Don't know'.  If no treatment was required, please write 'None' in the 'Treatment' column. Other Column 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed.  For each condition listed, please include either your age or date of symptoms and diagnosis (you do not need to include both date and age).  If you do not recall the details, please place an 'X' in the column 'Don't know'.  If no treatment was required, please write 'None' in the 'Treatment' column. Other Column 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed.  For each condition listed, please include either your age or date of symptoms and diagnosis (you do not need to include both date and age).  If you do not recall the details, please place an 'X' in the column 'Don't know'.  If no treatment was required, please write 'None' in the 'Treatment' column. Other Column 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed.  For each condition listed, please include either your age or date of symptoms and diagnosis (you do not need to include both date and age).  If you do not recall the details, please place an 'X' in the column 'Don't know'.  If no treatment was required, please write 'None' in the 'Treatment' column. Other Column 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed.  For each condition listed, please include either your age or date of symptoms and diagnosis (you do not need to include both date and age).  If you do not recall the details, please place an 'X' in the column 'Don't know'.  If no treatment was required, please write 'None' in the 'Treatment' column. Other Column 6</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed.  For each condition listed, please include either your age or date of symptoms and diagnosis (you do not need to include both date and age).  If you do not recall the details, please place an 'X' in the column 'Don't know'.  If no treatment was required, please write 'None' in the 'Treatment' column. Other Column 7</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the blood disorders issues listed.  For each condition listed, please include either your age or date of symptoms and diagnosis (you do not need to include both date and age).  If you do not recall the details, please place an 'X' in the column 'Don't know'.  If no treatment was required, please write 'None' in the 'Treatment' column. Other Column 8</t>
+  </si>
+  <si>
+    <t>gbgf</t>
+  </si>
+  <si>
+    <t>gjtumgjyu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yhjcxc. </t>
+  </si>
+  <si>
+    <t>vmj.j;,jh ,</t>
+  </si>
+  <si>
+    <t>jk..hgh vn g</t>
+  </si>
+  <si>
+    <t>n hg jkyukyj</t>
+  </si>
+  <si>
+    <t>fjhntutjh46</t>
+  </si>
+  <si>
+    <t>ger4y4bryj878</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following tumors?  Please select all that apply. Option 1</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following tumors?  Please select all that apply. Option 2</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following tumors?  Please select all that apply. Option 3</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following tumors?  Please select all that apply. Option 4</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following tumors?  Please select all that apply. Option 5</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following tumors?  Please select all that apply. Option 6</t>
+  </si>
+  <si>
+    <t>Giant cell lesion of the jaw (a tumor in the bones of the jaw; may be called Central Giant Cell lesion)</t>
+  </si>
+  <si>
+    <t>Pigmented villonodulous synovitis (a mass or tumor affecting the tendons or joints of the body, commonly the knee)</t>
+  </si>
+  <si>
+    <t>Papillomata (multiple wart-like growths on the skin)</t>
+  </si>
+  <si>
+    <t>Rhabdomyosarcoma (a soft tissue tumor, such as in the muscle)</t>
+  </si>
+  <si>
+    <t>Neuroblastoma (a nerve cell tumor)</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the tumors listed.  Please include your age or date when symptoms first started and diagnosis (you do not need to include both age and date).  If you do not recall the details, please place an 'X' under the 'Don't know' column.  Other Column 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the tumors listed.  Please include your age or date when symptoms first started and diagnosis (you do not need to include both age and date).  If you do not recall the details, please place an 'X' under the 'Don't know' column.  Other Column 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the tumors listed.  Please include your age or date when symptoms first started and diagnosis (you do not need to include both age and date).  If you do not recall the details, please place an 'X' under the 'Don't know' column.  Other Column 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the tumors listed.  Please include your age or date when symptoms first started and diagnosis (you do not need to include both age and date).  If you do not recall the details, please place an 'X' under the 'Don't know' column.  Other Column 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the tumors listed.  Please include your age or date when symptoms first started and diagnosis (you do not need to include both age and date).  If you do not recall the details, please place an 'X' under the 'Don't know' column.  Other Column 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the tumors listed.  Please include your age or date when symptoms first started and diagnosis (you do not need to include both age and date).  If you do not recall the details, please place an 'X' under the 'Don't know' column.  Other Column 6</t>
+  </si>
+  <si>
+    <t>fdvbgb</t>
+  </si>
+  <si>
+    <t>jmj hjm</t>
+  </si>
+  <si>
+    <t>jk,hjk,</t>
+  </si>
+  <si>
+    <t>/;/';][[plkkj</t>
+  </si>
+  <si>
+    <t>ghgmmyu</t>
+  </si>
+  <si>
+    <t>Do you have a history of frequent infections (typically recurrent sinus infections or pneumonia) or immunodeficiency?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have you ever been evaluated by an immunologist or rheumatologist? These are physicians who specialize in the immune system and how it functions.  They diagnose conditions such as lupus, autoimmune thyroiditis, and psoriasis. </t>
+  </si>
+  <si>
+    <t>Please provide the name of the immunologist/rheumatologist who completed your evaluation.Name</t>
+  </si>
+  <si>
+    <t>Please provide the name of the immunologist/rheumatologist who completed your evaluation.Location</t>
+  </si>
+  <si>
+    <t>Please provide the name of the immunologist/rheumatologist who completed your evaluation. Hospital</t>
+  </si>
+  <si>
+    <t>fgbfn</t>
+  </si>
+  <si>
+    <t>k,ylil.l/p</t>
+  </si>
+  <si>
+    <t>etbrytnutr</t>
+  </si>
+  <si>
+    <t>How would you describe infection frequency and your immune system? Please select all that apply. Option 1</t>
+  </si>
+  <si>
+    <t>How would you describe infection frequency and your immune system? Please select all that apply. Option 2</t>
+  </si>
+  <si>
+    <t>How would you describe infection frequency and your immune system? Please select all that apply. Option 3</t>
+  </si>
+  <si>
+    <t>Frequent infections in infancy and childhood noted by parents or caregivers; no formal diagnosis of immunodeficiency</t>
+  </si>
+  <si>
+    <t>Frequent infections in infancy and childhood; diagnosed with immunodeficiency by medical staff</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the immunodeficiencies listed.  For each, please provide the date or age at which symptoms occurred and diagnosis (you do not need to include both age and date).  If you do not recall details, please place an 'X' in the 'Don't know' column.  If no treatment has been required, place 'None' in the 'Treatment' column.Other Column 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the immunodeficiencies listed.  For each, please provide the date or age at which symptoms occurred and diagnosis (you do not need to include both age and date).  If you do not recall details, please place an 'X' in the 'Don't know' column.  If no treatment has been required, place 'None' in the 'Treatment' column.Other Column 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the immunodeficiencies listed.  For each, please provide the date or age at which symptoms occurred and diagnosis (you do not need to include both age and date).  If you do not recall details, please place an 'X' in the 'Don't know' column.  If no treatment has been required, place 'None' in the 'Treatment' column.Other Column 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the immunodeficiencies listed.  For each, please provide the date or age at which symptoms occurred and diagnosis (you do not need to include both age and date).  If you do not recall details, please place an 'X' in the 'Don't know' column.  If no treatment has been required, place 'None' in the 'Treatment' column.Other Column 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the immunodeficiencies listed.  For each, please provide the date or age at which symptoms occurred and diagnosis (you do not need to include both age and date).  If you do not recall details, please place an 'X' in the 'Don't know' column.  If no treatment has been required, place 'None' in the 'Treatment' column.Other Column 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the immunodeficiencies listed.  For each, please provide the date or age at which symptoms occurred and diagnosis (you do not need to include both age and date).  If you do not recall details, please place an 'X' in the 'Don't know' column.  If no treatment has been required, place 'None' in the 'Treatment' column.Other Column 6</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the immunodeficiencies listed.  For each, please provide the date or age at which symptoms occurred and diagnosis (you do not need to include both age and date).  If you do not recall details, please place an 'X' in the 'Don't know' column.  If no treatment has been required, place 'None' in the 'Treatment' column.Other Column 7</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the immunodeficiencies listed.  For each, please provide the date or age at which symptoms occurred and diagnosis (you do not need to include both age and date).  If you do not recall details, please place an 'X' in the 'Don't know' column.  If no treatment has been required, place 'None' in the 'Treatment' column.Other Column 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hndgh </t>
+  </si>
+  <si>
+    <t>,yjmyry8i578</t>
+  </si>
+  <si>
+    <t>5ty3wtrh3</t>
+  </si>
+  <si>
+    <t>trhj76jiull</t>
+  </si>
+  <si>
+    <t>rethr67rkjrtydnju</t>
+  </si>
+  <si>
+    <t>rthyumyruk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  j,u,j jhmty</t>
+  </si>
+  <si>
+    <t>umyu,tukl987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Have you ever been diagnosed with an autoimmune disorder?  An autoimmune disorder is when the immune system attacks the body's own healthy tissues; can include Hashimoto thyroiditis, lupus, or autoimmune thrombocytopenia, etc.</t>
+  </si>
+  <si>
+    <t>With what autoimmune disorder have you been diagnosed? Option 1</t>
+  </si>
+  <si>
+    <t>With what autoimmune disorder have you been diagnosed? Option 2</t>
+  </si>
+  <si>
+    <t>With what autoimmune disorder have you been diagnosed? Option 3</t>
+  </si>
+  <si>
+    <t>With what autoimmune disorder have you been diagnosed? Option 4</t>
+  </si>
+  <si>
+    <t>With what autoimmune disorder have you been diagnosed? Option 5</t>
+  </si>
+  <si>
+    <t>Autoimmune thyroiditis (when the thyroid gland is inflamed due to autoimmune disease; may also be called chronic lymphocytic thyroiditis, Hashimoto's thyroiditis or Hashimoto's disease)</t>
+  </si>
+  <si>
+    <t>Lupus (SLE)</t>
+  </si>
+  <si>
+    <t>Psoriasis</t>
+  </si>
+  <si>
+    <t>Autoimmune blood condition (ie, neutropenic, thrombocytopenia). Please specify</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the autoimmune conditions listed below.  Please provide the date or age when symptoms first occurred and diagnosis (you do not need to include both age and date).  If you do not recall the details, please place an 'X' in the 'Don't know' box.  If no treatment was required, please state 'None' in the 'Treatment' column. Other Column 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the autoimmune conditions listed below.  Please provide the date or age when symptoms first occurred and diagnosis (you do not need to include both age and date).  If you do not recall the details, please place an 'X' in the 'Don't know' box.  If no treatment was required, please state 'None' in the 'Treatment' column. Other Column 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the autoimmune conditions listed below.  Please provide the date or age when symptoms first occurred and diagnosis (you do not need to include both age and date).  If you do not recall the details, please place an 'X' in the 'Don't know' box.  If no treatment was required, please state 'None' in the 'Treatment' column. Other Column 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the autoimmune conditions listed below.  Please provide the date or age when symptoms first occurred and diagnosis (you do not need to include both age and date).  If you do not recall the details, please place an 'X' in the 'Don't know' box.  If no treatment was required, please state 'None' in the 'Treatment' column. Other Column 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the autoimmune conditions listed below.  Please provide the date or age when symptoms first occurred and diagnosis (you do not need to include both age and date).  If you do not recall the details, please place an 'X' in the 'Don't know' box.  If no treatment was required, please state 'None' in the 'Treatment' column. Other Column 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the autoimmune conditions listed below.  Please provide the date or age when symptoms first occurred and diagnosis (you do not need to include both age and date).  If you do not recall the details, please place an 'X' in the 'Don't know' box.  If no treatment was required, please state 'None' in the 'Treatment' column. Other Column 6</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the autoimmune conditions listed below.  Please provide the date or age when symptoms first occurred and diagnosis (you do not need to include both age and date).  If you do not recall the details, please place an 'X' in the 'Don't know' box.  If no treatment was required, please state 'None' in the 'Treatment' column. Other Column 7</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the autoimmune conditions listed below.  Please provide the date or age when symptoms first occurred and diagnosis (you do not need to include both age and date).  If you do not recall the details, please place an 'X' in the 'Don't know' box.  If no treatment was required, please state 'None' in the 'Treatment' column. Other Column 8</t>
+  </si>
+  <si>
+    <t>hmnghdnfu</t>
+  </si>
+  <si>
+    <t>kturtyuik687k675</t>
+  </si>
+  <si>
+    <t>8778um gf</t>
+  </si>
+  <si>
+    <t>k785muyk6</t>
+  </si>
+  <si>
+    <t>uk76i</t>
+  </si>
+  <si>
+    <t>86u</t>
+  </si>
+  <si>
+    <t>87j686</t>
+  </si>
+  <si>
+    <t>8i79o9o7</t>
+  </si>
+  <si>
+    <t>The next set of questions ask about conditions associated with the central nervous system. 
+The central nervous system includes the brain and spinal cord.</t>
+  </si>
+  <si>
+    <t>Have you ever been evaluated by a neurologist or neurosurgeon?  These are physicians who specialize in the brain and spinal cord.  They diagnose conditions such as seizures, brain tumors, and brain malformations.</t>
+  </si>
+  <si>
+    <t>Please provide the information for the neurologist or neurosurgeon who completed your evaluation. Name</t>
+  </si>
+  <si>
+    <t>Please provide the information for the neurologist or neurosurgeon who completed your evaluation. Location</t>
+  </si>
+  <si>
+    <t>Please provide the information for the neurologist or neurosurgeon who completed your evaluation.Hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b ff </t>
+  </si>
+  <si>
+    <t xml:space="preserve">h gh g </t>
+  </si>
+  <si>
+    <t>gmh,hk,kj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have you ever been diagnosed with a structural brain abnormality?  Examples include Chiari 1 malformation, hydrocephalus, tethered spinal cord.  These conditions are often diagnosed using a CT or MRI scan and evaluated by neurosurgeons.  </t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following issues of the brain?
+Please select all that apply. Option 1</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following issues of the brain?
+Please select all that apply. Option 2</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following issues of the brain?
+Please select all that apply. Option 3</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following issues of the brain?
+Please select all that apply. Option 4</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following issues of the brain?
+Please select all that apply. Option 5</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with any of the following issues of the brain?
+Please select all that apply. Option 6</t>
+  </si>
+  <si>
+    <t>Chiari 1 malformation or cerebellar tonsillar ectopia (when part of the cerebellum, known as the cerebellar tonsils, bulges out of the normal opening at the base of the skull)</t>
+  </si>
+  <si>
+    <t>Hydrocephalus (extra cerebrospinal fluid, CSF, builds up within the brain)</t>
+  </si>
+  <si>
+    <t>Syringomyelia (when cerebrospinal fluid, CSF, forms a cyst in your spinal cord, often casued by Chiari malformation)</t>
+  </si>
+  <si>
+    <t>Tethered spinal cord (when movement of the spinal cord is limited due to a connection with tissue around the spinal column)</t>
+  </si>
+  <si>
+    <t>Cortical atrophy (when the outer layer of the brain, cortex, deteriorates and may affect memory, thinking, and vision)</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed.  For each condition, please list either the date or age when the symptoms started and time of diagnosis (you do not need to include both age and date).  If you do not recall, place an 'X' in the 'Don't know' column. 
+Please indicate whether you have received treatment such as decompression or other surgery and the age or date at treatment, if any.
+Decompression is surgery to reduce pressure on your brain and spinal cord and restore the normal flow of cerebrospinal fluid.Other Column 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed.  For each condition, please list either the date or age when the symptoms started and time of diagnosis (you do not need to include both age and date).  If you do not recall, place an 'X' in the 'Don't know' column. 
+Please indicate whether you have received treatment such as decompression or other surgery and the age or date at treatment, if any.
+Decompression is surgery to reduce pressure on your brain and spinal cord and restore the normal flow of cerebrospinal fluid.Other Column 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed.  For each condition, please list either the date or age when the symptoms started and time of diagnosis (you do not need to include both age and date).  If you do not recall, place an 'X' in the 'Don't know' column. 
+Please indicate whether you have received treatment such as decompression or other surgery and the age or date at treatment, if any.
+Decompression is surgery to reduce pressure on your brain and spinal cord and restore the normal flow of cerebrospinal fluid.Other Column 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed.  For each condition, please list either the date or age when the symptoms started and time of diagnosis (you do not need to include both age and date).  If you do not recall, place an 'X' in the 'Don't know' column. 
+Please indicate whether you have received treatment such as decompression or other surgery and the age or date at treatment, if any.
+Decompression is surgery to reduce pressure on your brain and spinal cord and restore the normal flow of cerebrospinal fluid.Other Column 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed.  For each condition, please list either the date or age when the symptoms started and time of diagnosis (you do not need to include both age and date).  If you do not recall, place an 'X' in the 'Don't know' column. 
+Please indicate whether you have received treatment such as decompression or other surgery and the age or date at treatment, if any.
+Decompression is surgery to reduce pressure on your brain and spinal cord and restore the normal flow of cerebrospinal fluid.Other Column 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed.  For each condition, please list either the date or age when the symptoms started and time of diagnosis (you do not need to include both age and date).  If you do not recall, place an 'X' in the 'Don't know' column. 
+Please indicate whether you have received treatment such as decompression or other surgery and the age or date at treatment, if any.
+Decompression is surgery to reduce pressure on your brain and spinal cord and restore the normal flow of cerebrospinal fluid.Other Column 6</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed.  For each condition, please list either the date or age when the symptoms started and time of diagnosis (you do not need to include both age and date).  If you do not recall, place an 'X' in the 'Don't know' column. 
+Please indicate whether you have received treatment such as decompression or other surgery and the age or date at treatment, if any.
+Decompression is surgery to reduce pressure on your brain and spinal cord and restore the normal flow of cerebrospinal fluid.Other Column 7</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed.  For each condition, please list either the date or age when the symptoms started and time of diagnosis (you do not need to include both age and date).  If you do not recall, place an 'X' in the 'Don't know' column. 
+Please indicate whether you have received treatment such as decompression or other surgery and the age or date at treatment, if any.
+Decompression is surgery to reduce pressure on your brain and spinal cord and restore the normal flow of cerebrospinal fluid.Other Column 8</t>
+  </si>
+  <si>
+    <t>gfjgyjuyky</t>
+  </si>
+  <si>
+    <t>l895r67i5</t>
+  </si>
+  <si>
+    <t>t5jny5j</t>
+  </si>
+  <si>
+    <t>57j65jhy</t>
+  </si>
+  <si>
+    <t>jtjutn ttmy</t>
+  </si>
+  <si>
+    <t>tty5uhb4</t>
+  </si>
+  <si>
+    <t>nteheh54jeaEEFe</t>
+  </si>
+  <si>
+    <t>grtggtgth5h y5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you have a history of seizures?  </t>
+  </si>
+  <si>
+    <t>Please select all seizure disorders for which you have been diagnosed. Option 1</t>
+  </si>
+  <si>
+    <t>Please select all seizure disorders for which you have been diagnosed. Option 2</t>
+  </si>
+  <si>
+    <t>Please select all seizure disorders for which you have been diagnosed. Option 3</t>
+  </si>
+  <si>
+    <t>Please select all seizure disorders for which you have been diagnosed. Option 4</t>
+  </si>
+  <si>
+    <t>Please select all seizure disorders for which you have been diagnosed. Option 5</t>
+  </si>
+  <si>
+    <t>Febrile or short-term seizures, no treatment required</t>
+  </si>
+  <si>
+    <t>Epilepsy, resolved after course of treatment</t>
+  </si>
+  <si>
+    <t>Epilepsy, ongoing treatment</t>
+  </si>
+  <si>
+    <t>Seizures, uncontrolled by treatment, also known as intractable epilepsy</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed.  For each condition, please include the age or date when symptoms occurred and when diagnosed (you do not need to include both age and date).  If you do not recall, please place an 'X' in the 'Don't know' box.  Other Column 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed.  For each condition, please include the age or date when symptoms occurred and when diagnosed (you do not need to include both age and date).  If you do not recall, please place an 'X' in the 'Don't know' box.  Other Column 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed.  For each condition, please include the age or date when symptoms occurred and when diagnosed (you do not need to include both age and date).  If you do not recall, please place an 'X' in the 'Don't know' box.  Other Column 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed.  For each condition, please include the age or date when symptoms occurred and when diagnosed (you do not need to include both age and date).  If you do not recall, please place an 'X' in the 'Don't know' box.  Other Column 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed.  For each condition, please include the age or date when symptoms occurred and when diagnosed (you do not need to include both age and date).  If you do not recall, please place an 'X' in the 'Don't know' box.  Other Column 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed.  For each condition, please include the age or date when symptoms occurred and when diagnosed (you do not need to include both age and date).  If you do not recall, please place an 'X' in the 'Don't know' box.  Other Column 6</t>
+  </si>
+  <si>
+    <t>jrjk567jk5</t>
+  </si>
+  <si>
+    <t>7eynek5</t>
+  </si>
+  <si>
+    <t>t7i6knryj6u</t>
+  </si>
+  <si>
+    <t>5ye5u4fghrty</t>
+  </si>
+  <si>
+    <t>rjrujrj</t>
+  </si>
+  <si>
+    <t>ryukjyujr</t>
+  </si>
+  <si>
+    <t>Have you ever been evaluated by a psychiatrist, psychologist or behavioral pediatrician?   These medical providers often diagnose conditions such as depression, anxiety, learning difficulties, and developmental disorders.</t>
+  </si>
+  <si>
+    <t>Please provide the information listed below for the medical providers who completed your evaluation. Name</t>
+  </si>
+  <si>
+    <t>Please provide the information listed below for the medical providers who completed your evaluation.Location</t>
+  </si>
+  <si>
+    <t>Please provide the information listed below for the medical providers who completed your evaluation. Hospital</t>
+  </si>
+  <si>
+    <t>gfnfh ng</t>
+  </si>
+  <si>
+    <t>h  gjk. G</t>
+  </si>
+  <si>
+    <t>kghnfngfh yt</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with a behavioral or psychiatric condition?  Examples include mood disorders (depression), self-harm acts, anxiety, bipolar disorder, autism spectrum disorder, aggression.</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with a behavioral or psychiatric condition?  Please select all that apply. Option 1</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with a behavioral or psychiatric condition?  Please select all that apply. Option 2</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with a behavioral or psychiatric condition?  Please select all that apply. Option 3</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with a behavioral or psychiatric condition?  Please select all that apply. Option 4</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with a behavioral or psychiatric condition?  Please select all that apply. Option 5</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with a behavioral or psychiatric condition?  Please select all that apply. Option 6</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with a behavioral or psychiatric condition?  Please select all that apply. Option 7</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with a behavioral or psychiatric condition?  Please select all that apply. Option 8</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with a behavioral or psychiatric condition?  Please select all that apply. Option 9</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with a behavioral or psychiatric condition?  Please select all that apply. Option 10</t>
+  </si>
+  <si>
+    <t>Autism spectrum disorder (includes autism and pervasive developmental disorder, not otherwise specified (PDD-NOS)</t>
+  </si>
+  <si>
+    <t>Schizophrenia (a severe disorder in which people have difficulty determining what is real and unreal, and have unusual social behaviors as a result)</t>
+  </si>
+  <si>
+    <t>Bipolar disorder (also known as manic depression; characterized by severe mood swings that affect the ability to perform day-to-day activities)</t>
+  </si>
+  <si>
+    <t>Anxiety (feelings or dread or fear that interfere with daily living)</t>
+  </si>
+  <si>
+    <t>Mood problems (depression, rapid or drastic mood swings, etc)</t>
+  </si>
+  <si>
+    <t>Obsessions or compulsions (ordering/arranging, repeating rituals, excessive concerns about time or exactness)</t>
+  </si>
+  <si>
+    <t>Post-traumatic stress disorder (PTSD; symptoms such as flashbacks, nightmares, anxiety and uncontrollable thoughts triggered by a traumatic event)</t>
+  </si>
+  <si>
+    <t>Self-harm acts (deliberate harming or hurting of one's own body)</t>
+  </si>
+  <si>
+    <t>Aggression (violent behavior that may cause harm to one's self or others, such as physical behaviors including biting, hitting, kicking or verbal behaviors)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Please complete the table below for each of the diagnosed behavioral and/or psychiatric conditions listed.  For each condition, please list the date or age of symptom onset and diagnosis (you do not need to include both age and date).  If you do not recall, please place an 'X' in the 'Don't know' box.  If no treatment was required, place 'None' in the 'Treatment' column.  Other  Column 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and/or psychiatric conditions listed.  For each condition, please list the date or age of symptom onset and diagnosis (you do not need to include both age and date).  If you do not recall, please place an 'X' in the 'Don't know' box.  If no treatment was required, place 'None' in the 'Treatment' column.  Other  Column 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and/or psychiatric conditions listed.  For each condition, please list the date or age of symptom onset and diagnosis (you do not need to include both age and date).  If you do not recall, please place an 'X' in the 'Don't know' box.  If no treatment was required, place 'None' in the 'Treatment' column.  Other  Column 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and/or psychiatric conditions listed.  For each condition, please list the date or age of symptom onset and diagnosis (you do not need to include both age and date).  If you do not recall, please place an 'X' in the 'Don't know' box.  If no treatment was required, place 'None' in the 'Treatment' column.  Other  Column 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and/or psychiatric conditions listed.  For each condition, please list the date or age of symptom onset and diagnosis (you do not need to include both age and date).  If you do not recall, please place an 'X' in the 'Don't know' box.  If no treatment was required, place 'None' in the 'Treatment' column.  Other  Column 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and/or psychiatric conditions listed.  For each condition, please list the date or age of symptom onset and diagnosis (you do not need to include both age and date).  If you do not recall, please place an 'X' in the 'Don't know' box.  If no treatment was required, place 'None' in the 'Treatment' column.  Other  Column 6</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the diagnosed behavioral and/or psychiatric conditions listed.  For each condition, please list the date or age of symptom onset and diagnosis (you do not need to include both age and date).  If you do not recall, please place an 'X' in the 'Don't know' box.  If no treatment was required, place 'None' in the 'Treatment' column.  Other  Column 7</t>
+  </si>
+  <si>
+    <t>12e1wdqe</t>
+  </si>
+  <si>
+    <t>ewfwecef</t>
+  </si>
+  <si>
+    <t>wrt4f24t</t>
+  </si>
+  <si>
+    <t>5hgvdfvh45</t>
+  </si>
+  <si>
+    <t>fgh45geb</t>
+  </si>
+  <si>
+    <t>rhhrbrthjj</t>
+  </si>
+  <si>
+    <t>j776i68i68i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please list and describe any additional neurologic conditions here that were not covered by the previous questions.  </t>
+  </si>
+  <si>
+    <t>dgbdbadafd</t>
+  </si>
+  <si>
+    <t>The next set of questions ask about vision and hearing.</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with ptosis (droopiness of the upper eyelid)?</t>
+  </si>
+  <si>
+    <t>Did you require treatment for ptosis?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have you ever had any issues with your vision or eyesight?  Examples include nearsightedness (when things in the distance look fuzzy), astigmatism, "lazy eye". </t>
+  </si>
+  <si>
+    <t>Please select all the vision/eyesight conditions for which you have been diagnosed. Option 1</t>
+  </si>
+  <si>
+    <t>Please select all the vision/eyesight conditions for which you have been diagnosed. Option 2</t>
+  </si>
+  <si>
+    <t>Please select all the vision/eyesight conditions for which you have been diagnosed. Option 3</t>
+  </si>
+  <si>
+    <t>Please select all the vision/eyesight conditions for which you have been diagnosed. Option 4</t>
+  </si>
+  <si>
+    <t>Please select all the vision/eyesight conditions for which you have been diagnosed. Option 5</t>
+  </si>
+  <si>
+    <t>Please select all the vision/eyesight conditions for which you have been diagnosed. Option 6</t>
+  </si>
+  <si>
+    <t>Neurological visual impairment (includes cortical visual impairment, delayed visual maturation and coritcal blindeness)</t>
+  </si>
+  <si>
+    <t>Nearsightedness (also called myopia; things in the distance look fuzzy)</t>
+  </si>
+  <si>
+    <t>Farsightedness (also called hyperopia or hypermetropia; things up close look fuzzy)</t>
+  </si>
+  <si>
+    <t>Astigmatism (when the front part of the eyeball is irregularly shaped, causing blurred vision)</t>
+  </si>
+  <si>
+    <t>Amblyopia (sometimes called "lazy eye"; one eye has weaker vision and may wander inwards or outwards and vision does not develop properly)</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed.  For each condition, please list the age or date when symptoms first started and when the diagnosis was made (you do not need to include both date and age).  If you do not recall, place an 'X' in the 'Don't know' column.  If no treatment was required, place 'None' in the 'Treatment' column. Othe Column 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed.  For each condition, please list the age or date when symptoms first started and when the diagnosis was made (you do not need to include both date and age).  If you do not recall, place an 'X' in the 'Don't know' column.  If no treatment was required, place 'None' in the 'Treatment' column. Othe Column 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed.  For each condition, please list the age or date when symptoms first started and when the diagnosis was made (you do not need to include both date and age).  If you do not recall, place an 'X' in the 'Don't know' column.  If no treatment was required, place 'None' in the 'Treatment' column. Othe Column 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed.  For each condition, please list the age or date when symptoms first started and when the diagnosis was made (you do not need to include both date and age).  If you do not recall, place an 'X' in the 'Don't know' column.  If no treatment was required, place 'None' in the 'Treatment' column. Othe Column 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed.  For each condition, please list the age or date when symptoms first started and when the diagnosis was made (you do not need to include both date and age).  If you do not recall, place an 'X' in the 'Don't know' column.  If no treatment was required, place 'None' in the 'Treatment' column. Othe Column 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed.  For each condition, please list the age or date when symptoms first started and when the diagnosis was made (you do not need to include both date and age).  If you do not recall, place an 'X' in the 'Don't know' column.  If no treatment was required, place 'None' in the 'Treatment' column. Othe Column 6</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed.  For each condition, please list the age or date when symptoms first started and when the diagnosis was made (you do not need to include both date and age).  If you do not recall, place an 'X' in the 'Don't know' column.  If no treatment was required, place 'None' in the 'Treatment' column. Othe Column 7</t>
+  </si>
+  <si>
+    <t>fdgwegrt</t>
+  </si>
+  <si>
+    <t>ytjygbtyj</t>
+  </si>
+  <si>
+    <t>ngtyj47u57</t>
+  </si>
+  <si>
+    <t>7ijtynmj,jlu9</t>
+  </si>
+  <si>
+    <t>j8k7k65h65j6k</t>
+  </si>
+  <si>
+    <t>i56uj5eu</t>
+  </si>
+  <si>
+    <t>7i478khjmj. Uj4e6</t>
+  </si>
+  <si>
+    <t>Have you ever experienced strabismus? Strabismus is when the eyes are not aligned properly; one may wander up, down or sideways.</t>
+  </si>
+  <si>
+    <t>Please complete the table below regarding strabismus.  Please list the age or date when symptoms first started and when the diagnosis was made (you do not need to include both date and age). If you do not recall, place an 'X' in the 'Don't know' column. If no treatment was required, place 'None' in the 'Treatment' column.Column 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below regarding strabismus.  Please list the age or date when symptoms first started and when the diagnosis was made (you do not need to include both date and age). If you do not recall, place an 'X' in the 'Don't know' column. If no treatment was required, place 'None' in the 'Treatment' column.Column 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below regarding strabismus.  Please list the age or date when symptoms first started and when the diagnosis was made (you do not need to include both date and age). If you do not recall, place an 'X' in the 'Don't know' column. If no treatment was required, place 'None' in the 'Treatment' column.Column 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below regarding strabismus.  Please list the age or date when symptoms first started and when the diagnosis was made (you do not need to include both date and age). If you do not recall, place an 'X' in the 'Don't know' column. If no treatment was required, place 'None' in the 'Treatment' column.Column 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below regarding strabismus.  Please list the age or date when symptoms first started and when the diagnosis was made (you do not need to include both date and age). If you do not recall, place an 'X' in the 'Don't know' column. If no treatment was required, place 'None' in the 'Treatment' column.Column 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below regarding strabismus.  Please list the age or date when symptoms first started and when the diagnosis was made (you do not need to include both date and age). If you do not recall, place an 'X' in the 'Don't know' column. If no treatment was required, place 'None' in the 'Treatment' column.Column 6</t>
+  </si>
+  <si>
+    <t>fndfx fdbh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yuhg hmru56m </t>
+  </si>
+  <si>
+    <t>mu. J,ol</t>
+  </si>
+  <si>
+    <t>ryukft</t>
+  </si>
+  <si>
+    <t>umy8t</t>
+  </si>
+  <si>
+    <t>78o,,uo.i;</t>
+  </si>
+  <si>
+    <t>Have you ever experienced nystagmus? 
+Nystagmus is when the eye makes sudden, uncontrolled movements, like tremors.</t>
+  </si>
+  <si>
+    <t>Please complete the table below regarding nystagmus.  Please include the age or date when symptoms first occurred and when the diagnosis was made (you do not need to include both age and date) Colimn 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below regarding nystagmus.  Please include the age or date when symptoms first occurred and when the diagnosis was made (you do not need to include both age and date) Colimn 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below regarding nystagmus.  Please include the age or date when symptoms first occurred and when the diagnosis was made (you do not need to include both age and date) Colimn 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below regarding nystagmus.  Please include the age or date when symptoms first occurred and when the diagnosis was made (you do not need to include both age and date) Colimn 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below regarding nystagmus.  Please include the age or date when symptoms first occurred and when the diagnosis was made (you do not need to include both age and date) Colimn 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below regarding nystagmus.  Please include the age or date when symptoms first occurred and when the diagnosis was made (you do not need to include both age and date) Colimn 6</t>
+  </si>
+  <si>
+    <t>m j jh</t>
+  </si>
+  <si>
+    <t>fjm fhj,gnb bnm</t>
+  </si>
+  <si>
+    <t>mgh m</t>
+  </si>
+  <si>
+    <t>tmtmyrf</t>
+  </si>
+  <si>
+    <t>mthnb hgmk7</t>
+  </si>
+  <si>
+    <t>87iruynmryu</t>
+  </si>
+  <si>
+    <t>Have you experienced hearing loss?</t>
+  </si>
+  <si>
+    <t>Have you experienced any of the following types of hearing loss?  Please select all that apply.  Option 1</t>
+  </si>
+  <si>
+    <t>Have you experienced any of the following types of hearing loss?  Please select all that apply.  Option 2</t>
+  </si>
+  <si>
+    <t>Have you experienced any of the following types of hearing loss?  Please select all that apply.  Option 3</t>
+  </si>
+  <si>
+    <t>Have you experienced any of the following types of hearing loss?  Please select all that apply.  Option 4</t>
+  </si>
+  <si>
+    <t>Have you experienced any of the following types of hearing loss?  Please select all that apply.  Option 5</t>
+  </si>
+  <si>
+    <t>Sensorineural hearing loss (SNHL; hearing loss due to an issue with the nerves in the inner ear or connecting ear to the brain)</t>
+  </si>
+  <si>
+    <t>Conductive hearing loss (hearing loss due to an issue with the ear canal, ear drum or the bones of the middle ear)</t>
+  </si>
+  <si>
+    <t>Mixed hearing loss (A combination of both conductive and senorineural hearing loss)</t>
+  </si>
+  <si>
+    <t>Hearing loss, unsure of type</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed.  For each condition, please list the age or date when symptoms first occurred and when the diagnosis was made (you do not need to include both age and date).  If you do not recall the details, place an 'X' in the 'Don't know' column. Other Column 1</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed.  For each condition, please list the age or date when symptoms first occurred and when the diagnosis was made (you do not need to include both age and date).  If you do not recall the details, place an 'X' in the 'Don't know' column. Other Column 2</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed.  For each condition, please list the age or date when symptoms first occurred and when the diagnosis was made (you do not need to include both age and date).  If you do not recall the details, place an 'X' in the 'Don't know' column. Other Column 3</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed.  For each condition, please list the age or date when symptoms first occurred and when the diagnosis was made (you do not need to include both age and date).  If you do not recall the details, place an 'X' in the 'Don't know' column. Other Column 4</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed.  For each condition, please list the age or date when symptoms first occurred and when the diagnosis was made (you do not need to include both age and date).  If you do not recall the details, place an 'X' in the 'Don't know' column. Other Column 5</t>
+  </si>
+  <si>
+    <t>Please complete the table below for each of the conditions listed.  For each condition, please list the age or date when symptoms first occurred and when the diagnosis was made (you do not need to include both age and date).  If you do not recall the details, place an 'X' in the 'Don't know' column. Other Column 6</t>
+  </si>
+  <si>
+    <t>fgbdfgb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fgbdgf </t>
+  </si>
+  <si>
+    <t>ndgh ghm</t>
+  </si>
+  <si>
+    <t>hmgfhmg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mvb vbc </t>
+  </si>
+  <si>
+    <t>b mfmt  90[-</t>
+  </si>
+  <si>
+    <t>Do you have any of the following issues with your ears?  Please select all that apply. Option 1</t>
+  </si>
+  <si>
+    <t>Do you have any of the following issues with your ears?  Please select all that apply. Option 2</t>
+  </si>
+  <si>
+    <t>Do you have any of the following issues with your ears?  Please select all that apply. Option 3</t>
+  </si>
+  <si>
+    <t>Excessive earwax</t>
+  </si>
+  <si>
+    <t>Chronic or recurrent ear infection (also known as recurrent otitis media)</t>
+  </si>
+  <si>
+    <t>If there are any other health issues present that have not been captured by this survey, please list them here:</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>You are almost done! 
+To submit your responses, you must continue in the questionnaire by clicking the forward arrow below. The information you have provided will be reviewed by our study team. In the meantime, you should receive an email confirming this submission. 
+Please feel free to call at any time if you have any questions regarding this protocol and ask to speak with the study nurse. Our toll-free phone number is 1-800-518-8474 or 301-212-5250. Thank you for your willingness to consider joining our research effort. We could not do vital studies like this without the help of dedicated individuals and families.</t>
+  </si>
 </sst>
 </file>
 
@@ -1550,7 +3640,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1576,6 +3666,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2931,10 +5029,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D404A0E7-D275-C04F-8254-0737AF1E4245}">
-  <dimension ref="A1:B211"/>
+  <dimension ref="A1:B625"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="A212" sqref="A212"/>
+    <sheetView tabSelected="1" topLeftCell="A604" workbookViewId="0">
+      <selection activeCell="A640" sqref="A640"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2951,7 +5049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="350" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>164</v>
       </c>
@@ -2959,7 +5057,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="272" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="176" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>165</v>
       </c>
@@ -2967,7 +5065,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>166</v>
       </c>
@@ -2975,7 +5073,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>55</v>
       </c>
@@ -2983,7 +5081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>167</v>
       </c>
@@ -2991,7 +5089,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>168</v>
       </c>
@@ -2999,7 +5097,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>170</v>
       </c>
@@ -4602,6 +6700,3279 @@
       </c>
       <c r="B211" t="s">
         <v>459</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>460</v>
+      </c>
+      <c r="B212" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>461</v>
+      </c>
+      <c r="B213" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>462</v>
+      </c>
+      <c r="B214" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>463</v>
+      </c>
+      <c r="B215" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>464</v>
+      </c>
+      <c r="B216">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>466</v>
+      </c>
+      <c r="B217" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>467</v>
+      </c>
+      <c r="B218" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>468</v>
+      </c>
+      <c r="B219" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>469</v>
+      </c>
+      <c r="B220" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>470</v>
+      </c>
+      <c r="B221" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>471</v>
+      </c>
+      <c r="B222" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>472</v>
+      </c>
+      <c r="B223" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>473</v>
+      </c>
+      <c r="B224" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>474</v>
+      </c>
+      <c r="B225" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>475</v>
+      </c>
+      <c r="B226" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>476</v>
+      </c>
+      <c r="B227" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>477</v>
+      </c>
+      <c r="B228" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>478</v>
+      </c>
+      <c r="B229" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>479</v>
+      </c>
+      <c r="B230" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>480</v>
+      </c>
+      <c r="B231" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>481</v>
+      </c>
+      <c r="B232" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>482</v>
+      </c>
+      <c r="B233" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>483</v>
+      </c>
+      <c r="B234" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>484</v>
+      </c>
+      <c r="B235" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>485</v>
+      </c>
+      <c r="B236" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>486</v>
+      </c>
+      <c r="B237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>487</v>
+      </c>
+      <c r="B238" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>488</v>
+      </c>
+      <c r="B239">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>489</v>
+      </c>
+      <c r="B240" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>492</v>
+      </c>
+      <c r="B241" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>493</v>
+      </c>
+      <c r="B242" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>494</v>
+      </c>
+      <c r="B243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>495</v>
+      </c>
+      <c r="B244" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>496</v>
+      </c>
+      <c r="B245" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>499</v>
+      </c>
+      <c r="B246" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>500</v>
+      </c>
+      <c r="B247" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>501</v>
+      </c>
+      <c r="B248" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>505</v>
+      </c>
+      <c r="B249" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>507</v>
+      </c>
+      <c r="B250" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>509</v>
+      </c>
+      <c r="B251" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>510</v>
+      </c>
+      <c r="B252" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>513</v>
+      </c>
+      <c r="B254" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>514</v>
+      </c>
+      <c r="B255" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>515</v>
+      </c>
+      <c r="B256" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>518</v>
+      </c>
+      <c r="B258" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>518</v>
+      </c>
+      <c r="B259" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>523</v>
+      </c>
+      <c r="B260" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>524</v>
+      </c>
+      <c r="B261" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>525</v>
+      </c>
+      <c r="B262" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>530</v>
+      </c>
+      <c r="B264" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>531</v>
+      </c>
+      <c r="B265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>534</v>
+      </c>
+      <c r="B268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>535</v>
+      </c>
+      <c r="B269" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>537</v>
+      </c>
+      <c r="B271" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>538</v>
+      </c>
+      <c r="B272" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>539</v>
+      </c>
+      <c r="B273" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>540</v>
+      </c>
+      <c r="B274" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>541</v>
+      </c>
+      <c r="B275" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>542</v>
+      </c>
+      <c r="B276" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>543</v>
+      </c>
+      <c r="B277" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>544</v>
+      </c>
+      <c r="B278" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>545</v>
+      </c>
+      <c r="B279" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>546</v>
+      </c>
+      <c r="B280" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>556</v>
+      </c>
+      <c r="B281" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>557</v>
+      </c>
+      <c r="B282" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>557</v>
+      </c>
+      <c r="B283" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>558</v>
+      </c>
+      <c r="B284" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>563</v>
+      </c>
+      <c r="B285" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>565</v>
+      </c>
+      <c r="B286" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>566</v>
+      </c>
+      <c r="B287" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>567</v>
+      </c>
+      <c r="B288" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>571</v>
+      </c>
+      <c r="B289" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>572</v>
+      </c>
+      <c r="B290" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>573</v>
+      </c>
+      <c r="B291" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>574</v>
+      </c>
+      <c r="B292" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>575</v>
+      </c>
+      <c r="B293" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>578</v>
+      </c>
+      <c r="B294" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>579</v>
+      </c>
+      <c r="B295" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>580</v>
+      </c>
+      <c r="B296" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>581</v>
+      </c>
+      <c r="B297" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>582</v>
+      </c>
+      <c r="B298" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>583</v>
+      </c>
+      <c r="B299" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>584</v>
+      </c>
+      <c r="B300" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>585</v>
+      </c>
+      <c r="B301" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>586</v>
+      </c>
+      <c r="B302" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>590</v>
+      </c>
+      <c r="B303" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>592</v>
+      </c>
+      <c r="B304" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>594</v>
+      </c>
+      <c r="B305" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>595</v>
+      </c>
+      <c r="B306" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>596</v>
+      </c>
+      <c r="B307" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>597</v>
+      </c>
+      <c r="B308" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>598</v>
+      </c>
+      <c r="B309" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>599</v>
+      </c>
+      <c r="B310" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>600</v>
+      </c>
+      <c r="B311" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>601</v>
+      </c>
+      <c r="B312" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>603</v>
+      </c>
+      <c r="B313" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>604</v>
+      </c>
+      <c r="B314" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>605</v>
+      </c>
+      <c r="B315" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>606</v>
+      </c>
+      <c r="B316" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>607</v>
+      </c>
+      <c r="B317" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>608</v>
+      </c>
+      <c r="B318" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>609</v>
+      </c>
+      <c r="B319" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>610</v>
+      </c>
+      <c r="B320" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>611</v>
+      </c>
+      <c r="B321" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>613</v>
+      </c>
+      <c r="B322" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A323" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="B323" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A324" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="B324" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>616</v>
+      </c>
+      <c r="B325" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>617</v>
+      </c>
+      <c r="B326" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>618</v>
+      </c>
+      <c r="B327" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>619</v>
+      </c>
+      <c r="B328" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>620</v>
+      </c>
+      <c r="B329" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>622</v>
+      </c>
+      <c r="B330" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>624</v>
+      </c>
+      <c r="B331" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>625</v>
+      </c>
+      <c r="B332" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>626</v>
+      </c>
+      <c r="B333" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>627</v>
+      </c>
+      <c r="B334" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>628</v>
+      </c>
+      <c r="B335" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>629</v>
+      </c>
+      <c r="B336" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>630</v>
+      </c>
+      <c r="B337" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>631</v>
+      </c>
+      <c r="B338" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>632</v>
+      </c>
+      <c r="B339" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>633</v>
+      </c>
+      <c r="B340" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>633</v>
+      </c>
+      <c r="B341" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>634</v>
+      </c>
+      <c r="B342" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>635</v>
+      </c>
+      <c r="B343" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>636</v>
+      </c>
+      <c r="B344" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>637</v>
+      </c>
+      <c r="B345" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A346" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="B346" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A347" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="B347" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A348" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="B348" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A349" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="B349" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A350" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="B350" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A351" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="B351" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A352" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="B352" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A353" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="B353" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A354" s="9" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A355" s="9" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>652</v>
+      </c>
+      <c r="B356" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>653</v>
+      </c>
+      <c r="B357" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>654</v>
+      </c>
+      <c r="B358" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>655</v>
+      </c>
+      <c r="B359" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>656</v>
+      </c>
+      <c r="B360" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>657</v>
+      </c>
+      <c r="B361" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>658</v>
+      </c>
+      <c r="B362" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>659</v>
+      </c>
+      <c r="B363" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>668</v>
+      </c>
+      <c r="B364" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>669</v>
+      </c>
+      <c r="B365" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>670</v>
+      </c>
+      <c r="B366" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>671</v>
+      </c>
+      <c r="B367" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>672</v>
+      </c>
+      <c r="B368" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A369" s="9" t="s">
+        <v>676</v>
+      </c>
+      <c r="B369" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>677</v>
+      </c>
+      <c r="B370" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>678</v>
+      </c>
+      <c r="B371" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>679</v>
+      </c>
+      <c r="B372" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>680</v>
+      </c>
+      <c r="B373" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>684</v>
+      </c>
+      <c r="B374" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>685</v>
+      </c>
+      <c r="B375" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>686</v>
+      </c>
+      <c r="B376" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>687</v>
+      </c>
+      <c r="B377" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>688</v>
+      </c>
+      <c r="B378" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>689</v>
+      </c>
+      <c r="B379" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>690</v>
+      </c>
+      <c r="B380" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>691</v>
+      </c>
+      <c r="B381" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>700</v>
+      </c>
+      <c r="B382" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>701</v>
+      </c>
+      <c r="B383" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>702</v>
+      </c>
+      <c r="B384" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>703</v>
+      </c>
+      <c r="B385" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>704</v>
+      </c>
+      <c r="B386" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>708</v>
+      </c>
+      <c r="B387" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>709</v>
+      </c>
+      <c r="B388" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>710</v>
+      </c>
+      <c r="B389" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>711</v>
+      </c>
+      <c r="B390" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>712</v>
+      </c>
+      <c r="B391" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>713</v>
+      </c>
+      <c r="B392" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>714</v>
+      </c>
+      <c r="B393" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>721</v>
+      </c>
+      <c r="B394" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>722</v>
+      </c>
+      <c r="B395" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>723</v>
+      </c>
+      <c r="B396" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>724</v>
+      </c>
+      <c r="B397" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>725</v>
+      </c>
+      <c r="B398" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>726</v>
+      </c>
+      <c r="B399" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>731</v>
+      </c>
+      <c r="B400" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>732</v>
+      </c>
+      <c r="B401" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>733</v>
+      </c>
+      <c r="B402" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>734</v>
+      </c>
+      <c r="B403" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>735</v>
+      </c>
+      <c r="B404" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>740</v>
+      </c>
+      <c r="B405" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>742</v>
+      </c>
+      <c r="B406" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>743</v>
+      </c>
+      <c r="B407" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>744</v>
+      </c>
+      <c r="B408" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>745</v>
+      </c>
+      <c r="B409" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>746</v>
+      </c>
+      <c r="B410" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A411" s="9" t="s">
+        <v>751</v>
+      </c>
+      <c r="B411" s="9" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A412" s="9" t="s">
+        <v>752</v>
+      </c>
+      <c r="B412" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>753</v>
+      </c>
+      <c r="B413" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>754</v>
+      </c>
+      <c r="B414" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>755</v>
+      </c>
+      <c r="B415" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>759</v>
+      </c>
+      <c r="B416" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>760</v>
+      </c>
+      <c r="B417" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>761</v>
+      </c>
+      <c r="B418" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>762</v>
+      </c>
+      <c r="B419" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>766</v>
+      </c>
+      <c r="B420" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A421" s="9" t="s">
+        <v>767</v>
+      </c>
+      <c r="B421" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A422" s="9" t="s">
+        <v>768</v>
+      </c>
+      <c r="B422" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A423" s="9" t="s">
+        <v>769</v>
+      </c>
+      <c r="B423" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A424" s="9" t="s">
+        <v>770</v>
+      </c>
+      <c r="B424" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A425" s="9" t="s">
+        <v>774</v>
+      </c>
+      <c r="B425" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A426" s="9" t="s">
+        <v>775</v>
+      </c>
+      <c r="B426" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A427" s="9" t="s">
+        <v>776</v>
+      </c>
+      <c r="B427" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A428" s="9" t="s">
+        <v>777</v>
+      </c>
+      <c r="B428" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A429" s="9" t="s">
+        <v>778</v>
+      </c>
+      <c r="B429" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A430" s="9" t="s">
+        <v>779</v>
+      </c>
+      <c r="B430" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A431" s="9" t="s">
+        <v>786</v>
+      </c>
+      <c r="B431" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A432" s="9" t="s">
+        <v>787</v>
+      </c>
+      <c r="B432" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A433" s="9" t="s">
+        <v>788</v>
+      </c>
+      <c r="B433" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A434" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="B434" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A435" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="B435" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A436" s="9" t="s">
+        <v>791</v>
+      </c>
+      <c r="B436" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A437" s="9" t="s">
+        <v>792</v>
+      </c>
+      <c r="B437" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A438" s="9" t="s">
+        <v>793</v>
+      </c>
+      <c r="B438" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A439" s="9" t="s">
+        <v>799</v>
+      </c>
+      <c r="B439" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A440" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="B440" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A441" s="9" t="s">
+        <v>801</v>
+      </c>
+      <c r="B441" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A442" s="9" t="s">
+        <v>802</v>
+      </c>
+      <c r="B442" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A443" t="s">
+        <v>805</v>
+      </c>
+      <c r="B443" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A444" s="9" t="s">
+        <v>803</v>
+      </c>
+      <c r="B444" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A445" s="9" t="s">
+        <v>804</v>
+      </c>
+      <c r="B445" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A446" s="9" t="s">
+        <v>813</v>
+      </c>
+      <c r="B446" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A447" s="9" t="s">
+        <v>814</v>
+      </c>
+      <c r="B447" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A448" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="B448" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A449" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="B449" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A450" s="9" t="s">
+        <v>817</v>
+      </c>
+      <c r="B450" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A451" s="9" t="s">
+        <v>821</v>
+      </c>
+      <c r="B451" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A452" s="9" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A453" s="9" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A454" s="9" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A455" s="9" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A456" s="9" t="s">
+        <v>826</v>
+      </c>
+      <c r="B456" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A457" s="9" t="s">
+        <v>827</v>
+      </c>
+      <c r="B457" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A458" s="9" t="s">
+        <v>828</v>
+      </c>
+      <c r="B458" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A459" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="B459" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A460" s="9" t="s">
+        <v>830</v>
+      </c>
+      <c r="B460" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A461" s="9" t="s">
+        <v>831</v>
+      </c>
+      <c r="B461" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A462" s="9" t="s">
+        <v>832</v>
+      </c>
+      <c r="B462" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A463" s="9" t="s">
+        <v>833</v>
+      </c>
+      <c r="B463" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A464" s="9" t="s">
+        <v>842</v>
+      </c>
+      <c r="B464" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A465" s="9" t="s">
+        <v>843</v>
+      </c>
+      <c r="B465" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A466" s="9" t="s">
+        <v>844</v>
+      </c>
+      <c r="B466" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A467" s="9" t="s">
+        <v>845</v>
+      </c>
+      <c r="B467" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A468" s="9" t="s">
+        <v>846</v>
+      </c>
+      <c r="B468" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A469" s="9" t="s">
+        <v>847</v>
+      </c>
+      <c r="B469" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A470" s="9" t="s">
+        <v>848</v>
+      </c>
+      <c r="B470" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A471" s="9" t="s">
+        <v>849</v>
+      </c>
+      <c r="B471" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A472" s="9" t="s">
+        <v>850</v>
+      </c>
+      <c r="B472" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A473" s="9" t="s">
+        <v>858</v>
+      </c>
+      <c r="B473" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A474" s="9" t="s">
+        <v>859</v>
+      </c>
+      <c r="B474" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A475" s="9" t="s">
+        <v>860</v>
+      </c>
+      <c r="B475" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A476" s="9" t="s">
+        <v>861</v>
+      </c>
+      <c r="B476" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A477" s="9" t="s">
+        <v>862</v>
+      </c>
+      <c r="B477" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A478" s="9" t="s">
+        <v>863</v>
+      </c>
+      <c r="B478" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A479" s="9" t="s">
+        <v>864</v>
+      </c>
+      <c r="B479" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A480" s="9" t="s">
+        <v>865</v>
+      </c>
+      <c r="B480" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A481" s="9" t="s">
+        <v>874</v>
+      </c>
+      <c r="B481" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A482" s="9" t="s">
+        <v>875</v>
+      </c>
+      <c r="B482" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A483" s="9" t="s">
+        <v>876</v>
+      </c>
+      <c r="B483" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A484" s="9" t="s">
+        <v>877</v>
+      </c>
+      <c r="B484" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A485" s="9" t="s">
+        <v>878</v>
+      </c>
+      <c r="B485" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A486" s="9" t="s">
+        <v>879</v>
+      </c>
+      <c r="B486" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A487" s="9" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A488" s="9" t="s">
+        <v>886</v>
+      </c>
+      <c r="B488" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A489" s="9" t="s">
+        <v>887</v>
+      </c>
+      <c r="B489" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A490" s="9" t="s">
+        <v>888</v>
+      </c>
+      <c r="B490" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A491" s="9" t="s">
+        <v>889</v>
+      </c>
+      <c r="B491" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A492" s="9" t="s">
+        <v>890</v>
+      </c>
+      <c r="B492" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A493" s="9" t="s">
+        <v>896</v>
+      </c>
+      <c r="B493" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A494" s="9" t="s">
+        <v>897</v>
+      </c>
+      <c r="B494" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A495" s="9" t="s">
+        <v>898</v>
+      </c>
+      <c r="B495" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A496" s="9" t="s">
+        <v>899</v>
+      </c>
+      <c r="B496" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A497" s="9" t="s">
+        <v>900</v>
+      </c>
+      <c r="B497" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A498" s="9" t="s">
+        <v>904</v>
+      </c>
+      <c r="B498" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A499" s="9" t="s">
+        <v>905</v>
+      </c>
+      <c r="B499" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A500" s="9" t="s">
+        <v>906</v>
+      </c>
+      <c r="B500" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A501" s="9" t="s">
+        <v>909</v>
+      </c>
+      <c r="B501" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A502" s="9" t="s">
+        <v>910</v>
+      </c>
+      <c r="B502" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A503" s="9" t="s">
+        <v>911</v>
+      </c>
+      <c r="B503" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A504" s="9" t="s">
+        <v>912</v>
+      </c>
+      <c r="B504" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A505" s="9" t="s">
+        <v>913</v>
+      </c>
+      <c r="B505" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A506" s="9" t="s">
+        <v>914</v>
+      </c>
+      <c r="B506" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A507" s="9" t="s">
+        <v>915</v>
+      </c>
+      <c r="B507" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A508" s="9" t="s">
+        <v>916</v>
+      </c>
+      <c r="B508" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A509" s="9" t="s">
+        <v>925</v>
+      </c>
+      <c r="B509" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A510" s="9" t="s">
+        <v>926</v>
+      </c>
+      <c r="B510" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A511" s="9" t="s">
+        <v>927</v>
+      </c>
+      <c r="B511" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A512" s="9" t="s">
+        <v>928</v>
+      </c>
+      <c r="B512" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A513" s="9" t="s">
+        <v>929</v>
+      </c>
+      <c r="B513" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A514" s="9" t="s">
+        <v>930</v>
+      </c>
+      <c r="B514" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A515" s="9" t="s">
+        <v>935</v>
+      </c>
+      <c r="B515" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A516" s="9" t="s">
+        <v>936</v>
+      </c>
+      <c r="B516" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A517" s="9" t="s">
+        <v>937</v>
+      </c>
+      <c r="B517" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A518" s="9" t="s">
+        <v>938</v>
+      </c>
+      <c r="B518" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A519" s="9" t="s">
+        <v>939</v>
+      </c>
+      <c r="B519" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A520" s="9" t="s">
+        <v>940</v>
+      </c>
+      <c r="B520" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A521" s="9" t="s">
+        <v>941</v>
+      </c>
+      <c r="B521" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A522" s="9" t="s">
+        <v>942</v>
+      </c>
+      <c r="B522" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A523" s="9" t="s">
+        <v>951</v>
+      </c>
+      <c r="B523" s="9" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A524" s="9" t="s">
+        <v>952</v>
+      </c>
+      <c r="B524" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A525" s="9" t="s">
+        <v>953</v>
+      </c>
+      <c r="B525" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A526" s="9" t="s">
+        <v>954</v>
+      </c>
+      <c r="B526" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A527" s="9" t="s">
+        <v>955</v>
+      </c>
+      <c r="B527" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A528" s="9" t="s">
+        <v>959</v>
+      </c>
+      <c r="B528" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A529" s="9" t="s">
+        <v>960</v>
+      </c>
+      <c r="B529" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A530" s="9" t="s">
+        <v>961</v>
+      </c>
+      <c r="B530" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A531" s="9" t="s">
+        <v>962</v>
+      </c>
+      <c r="B531" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A532" s="9" t="s">
+        <v>963</v>
+      </c>
+      <c r="B532" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A533" s="9" t="s">
+        <v>964</v>
+      </c>
+      <c r="B533" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A534" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="B534" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" ht="112" x14ac:dyDescent="0.2">
+      <c r="A535" s="9" t="s">
+        <v>971</v>
+      </c>
+      <c r="B535" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" ht="112" x14ac:dyDescent="0.2">
+      <c r="A536" s="9" t="s">
+        <v>972</v>
+      </c>
+      <c r="B536" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" ht="112" x14ac:dyDescent="0.2">
+      <c r="A537" s="9" t="s">
+        <v>973</v>
+      </c>
+      <c r="B537" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" ht="112" x14ac:dyDescent="0.2">
+      <c r="A538" s="9" t="s">
+        <v>974</v>
+      </c>
+      <c r="B538" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" ht="112" x14ac:dyDescent="0.2">
+      <c r="A539" s="9" t="s">
+        <v>975</v>
+      </c>
+      <c r="B539" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" ht="112" x14ac:dyDescent="0.2">
+      <c r="A540" s="9" t="s">
+        <v>976</v>
+      </c>
+      <c r="B540" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" ht="112" x14ac:dyDescent="0.2">
+      <c r="A541" s="9" t="s">
+        <v>977</v>
+      </c>
+      <c r="B541" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" ht="112" x14ac:dyDescent="0.2">
+      <c r="A542" s="9" t="s">
+        <v>978</v>
+      </c>
+      <c r="B542" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A543" s="9" t="s">
+        <v>987</v>
+      </c>
+      <c r="B543" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A544" s="9" t="s">
+        <v>988</v>
+      </c>
+      <c r="B544" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A545" s="9" t="s">
+        <v>989</v>
+      </c>
+      <c r="B545" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A546" s="9" t="s">
+        <v>990</v>
+      </c>
+      <c r="B546" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A547" s="9" t="s">
+        <v>991</v>
+      </c>
+      <c r="B547" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A548" s="9" t="s">
+        <v>992</v>
+      </c>
+      <c r="B548" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A549" s="9" t="s">
+        <v>997</v>
+      </c>
+      <c r="B549" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A550" s="9" t="s">
+        <v>998</v>
+      </c>
+      <c r="B550" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A551" s="9" t="s">
+        <v>999</v>
+      </c>
+      <c r="B551" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A552" s="9" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B552" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A553" s="9" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B553" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A554" s="9" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B554" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A555" s="9" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B555" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A556" s="9" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B556" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A557" s="9" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B557" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A558" s="9" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B558" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A559" s="9" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B559" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A560" s="9" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B560" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A561" s="9" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B561" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A562" s="9" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B562" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A563" s="9" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B563" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A564" s="9" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B564" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A565" s="9" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B565" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A566" s="9" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B566" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A567" s="9" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B567" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A568" s="9" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B568" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A569" s="9" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B569" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A570" s="9" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B570" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A571" s="9" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B571" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A572" s="9" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B572" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A573" s="9" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B573" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A574" s="9" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B574" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A575" s="9" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B575" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A576" s="9" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B576" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A577" s="9" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B577" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A578" s="9" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B578" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A579" s="9" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B579" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A580" s="9" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B580" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A581" s="9" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B581" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A582" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B582" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A583" s="9" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B583" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A584" s="9" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B584" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A585" s="9" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B585" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A586" s="9" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B586" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A587" s="9" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B587" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A588" s="9" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B588" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A589" s="9" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B589" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A590" s="9" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B590" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A591" s="9" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B591" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A592" s="9" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B592" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A593" s="9" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B593" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A594" s="9" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B594" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A595" s="9" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B595" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A596" s="9" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B596" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A597" s="9" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B597" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A598" s="9" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B598" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A599" s="9" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B599" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A600" s="9" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B600" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A601" s="9" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B601" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A602" s="9" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B602" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A603" s="9" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B603" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A604" s="9" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B604" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A605" s="9" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B605" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A606" s="9" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B606" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A607" s="9" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B607" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A608" s="9" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B608" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A609" s="9" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B609" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A610" s="9" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B610" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A611" s="9" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B611" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A612" s="9" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B612" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A613" s="9" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B613" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A614" s="9" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B614" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A615" s="9" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B615" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A616" s="9" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B616" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A617" s="9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B617" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A618" s="9" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B618" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A619" s="9" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B619" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A620" s="9" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B620" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A621" s="9" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B621" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A622" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B622" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A623" s="9" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B623" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A624" s="9" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B624" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" ht="160" x14ac:dyDescent="0.2">
+      <c r="A625" s="9" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B625" s="9" t="s">
+        <v>1136</v>
       </c>
     </row>
   </sheetData>
@@ -4610,21 +9981,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010084299BAE6AB37648AD80DEB59DC34125" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3eadf2c1f25cd7b71915c87a24a5e490">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="70b45aa3-433c-4bb7-a757-4861a21b7bcd" xmlns:ns3="f9acbf48-ccda-47b6-abb6-c9eb96c9ba33" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="383f12c7747b491aea3350ad3b69b32a" ns2:_="" ns3:_="">
     <xsd:import namespace="70b45aa3-433c-4bb7-a757-4861a21b7bcd"/>
@@ -4795,24 +10151,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B75DB3A7-FCD6-4DD2-8F1A-F1A891316494}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A376A26F-A459-4EA6-9FC7-DF620BE07CA9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8739BBC0-A319-48B2-92BB-329AC3208E3F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4829,4 +10183,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A376A26F-A459-4EA6-9FC7-DF620BE07CA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B75DB3A7-FCD6-4DD2-8F1A-F1A891316494}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/test/java/ServiceNow/CHARMS/Resources/RASScenario2.xlsx
+++ b/src/test/java/ServiceNow/CHARMS/Resources/RASScenario2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bucurgb/IdeaProjects/CBIIT-Test-Automation/src/test/java/ServiceNow/CHARMS/Resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juarezds/Desktop/CBIIT-Test-Automation/src/test/java/ServiceNow/CHARMS/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF22899-D415-1B41-A820-048CCF7BB133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801E77F7-A6D9-9544-AA26-2196CB41835C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="102420" yWindow="180" windowWidth="49220" windowHeight="28080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="520" windowWidth="25600" windowHeight="27180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="screenerScenario2" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="1137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="1138">
   <si>
     <t>Question</t>
   </si>
@@ -152,9 +152,6 @@
   </si>
   <si>
     <t>Race text box</t>
-  </si>
-  <si>
-    <t>Martian</t>
   </si>
   <si>
     <t>Family Advocacy Group</t>
@@ -3631,6 +3628,12 @@
     <t>You are almost done! 
 To submit your responses, you must continue in the questionnaire by clicking the forward arrow below. The information you have provided will be reviewed by our study team. In the meantime, you should receive an email confirming this submission. 
 Please feel free to call at any time if you have any questions regarding this protocol and ask to speak with the study nurse. Our toll-free phone number is 1-800-518-8474 or 301-212-5250. Thank you for your willingness to consider joining our research effort. We could not do vital studies like this without the help of dedicated individuals and families.</t>
+  </si>
+  <si>
+    <t>regression testing</t>
+  </si>
+  <si>
+    <t>entering other reason</t>
   </si>
 </sst>
 </file>
@@ -4053,8 +4056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection sqref="A1:B62"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4073,10 +4076,10 @@
     </row>
     <row r="2" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -4084,20 +4087,20 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>7</v>
@@ -4105,10 +4108,10 @@
     </row>
     <row r="6" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -4137,15 +4140,15 @@
     </row>
     <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>15</v>
@@ -4153,15 +4156,15 @@
     </row>
     <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B13" s="5">
         <v>33664</v>
@@ -4172,7 +4175,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -4185,7 +4188,7 @@
     </row>
     <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>13</v>
@@ -4193,7 +4196,7 @@
     </row>
     <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>15</v>
@@ -4201,7 +4204,7 @@
     </row>
     <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>15</v>
@@ -4209,7 +4212,7 @@
     </row>
     <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>16</v>
@@ -4265,7 +4268,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -4273,7 +4276,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -4302,7 +4305,7 @@
     </row>
     <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>35</v>
@@ -4321,92 +4324,92 @@
         <v>38</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>39</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>37</v>
@@ -4414,20 +4417,23 @@
     </row>
     <row r="45" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>1137</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>37</v>
@@ -4435,15 +4441,15 @@
     </row>
     <row r="48" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -4479,15 +4485,15 @@
     </row>
     <row r="2" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>49</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="4">
         <v>123456</v>
@@ -4495,23 +4501,23 @@
     </row>
     <row r="4" spans="1:2" ht="238" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="356" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="5"/>
     </row>
     <row r="7" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>3</v>
@@ -4519,42 +4525,42 @@
     </row>
     <row r="8" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4567,23 +4573,23 @@
     </row>
     <row r="14" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B16" s="4">
         <v>1</v>
@@ -4591,7 +4597,7 @@
     </row>
     <row r="17" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B17" s="4">
         <v>1980</v>
@@ -4607,7 +4613,7 @@
     </row>
     <row r="19" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>22</v>
@@ -4615,7 +4621,7 @@
     </row>
     <row r="20" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>25</v>
@@ -4623,63 +4629,63 @@
     </row>
     <row r="21" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>15</v>
@@ -4687,36 +4693,36 @@
     </row>
     <row r="29" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>15</v>
@@ -4724,39 +4730,39 @@
     </row>
     <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>15</v>
@@ -4764,31 +4770,31 @@
     </row>
     <row r="39" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>15</v>
@@ -4796,7 +4802,7 @@
     </row>
     <row r="43" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>15</v>
@@ -4804,7 +4810,7 @@
     </row>
     <row r="44" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>15</v>
@@ -4812,28 +4818,28 @@
     </row>
     <row r="45" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>15</v>
@@ -4841,7 +4847,7 @@
     </row>
     <row r="49" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>15</v>
@@ -4849,7 +4855,7 @@
     </row>
     <row r="50" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>15</v>
@@ -4857,7 +4863,7 @@
     </row>
     <row r="51" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>15</v>
@@ -4865,7 +4871,7 @@
     </row>
     <row r="52" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>15</v>
@@ -4873,7 +4879,7 @@
     </row>
     <row r="53" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>15</v>
@@ -4881,108 +4887,108 @@
     </row>
     <row r="54" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="340" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -5031,7 +5037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D404A0E7-D275-C04F-8254-0737AF1E4245}">
   <dimension ref="A1:B625"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A604" workbookViewId="0">
+    <sheetView topLeftCell="A604" workbookViewId="0">
       <selection activeCell="A640" sqref="A640"/>
     </sheetView>
   </sheetViews>
@@ -5051,31 +5057,31 @@
     </row>
     <row r="2" spans="1:2" ht="350" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="176" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>3</v>
@@ -5083,7 +5089,7 @@
     </row>
     <row r="6" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>15</v>
@@ -5091,31 +5097,31 @@
     </row>
     <row r="7" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>168</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>15</v>
@@ -5123,7 +5129,7 @@
     </row>
     <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B11">
         <v>27</v>
@@ -5131,15 +5137,15 @@
     </row>
     <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>175</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>15</v>
@@ -5147,7 +5153,7 @@
     </row>
     <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B14">
         <v>28</v>
@@ -5155,7 +5161,7 @@
     </row>
     <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>15</v>
@@ -5163,15 +5169,15 @@
     </row>
     <row r="16" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>180</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>15</v>
@@ -5179,7 +5185,7 @@
     </row>
     <row r="18" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>15</v>
@@ -5187,7 +5193,7 @@
     </row>
     <row r="19" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>15</v>
@@ -5195,15 +5201,15 @@
     </row>
     <row r="20" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>185</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>15</v>
@@ -5211,63 +5217,63 @@
     </row>
     <row r="22" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>188</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>190</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>196</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>199</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>15</v>
@@ -5275,15 +5281,15 @@
     </row>
     <row r="30" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>203</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>15</v>
@@ -5291,15 +5297,15 @@
     </row>
     <row r="32" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>206</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>15</v>
@@ -5307,15 +5313,15 @@
     </row>
     <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>209</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>15</v>
@@ -5323,15 +5329,15 @@
     </row>
     <row r="36" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>15</v>
@@ -5339,15 +5345,15 @@
     </row>
     <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B39">
         <v>12345</v>
@@ -5355,7 +5361,7 @@
     </row>
     <row r="40" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>15</v>
@@ -5363,7 +5369,7 @@
     </row>
     <row r="41" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B41">
         <v>54321</v>
@@ -5371,7 +5377,7 @@
     </row>
     <row r="42" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>15</v>
@@ -5379,7 +5385,7 @@
     </row>
     <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B43">
         <v>99</v>
@@ -5387,7 +5393,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B44" t="s">
         <v>15</v>
@@ -5395,7 +5401,7 @@
     </row>
     <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B45" t="s">
         <v>15</v>
@@ -5403,7 +5409,7 @@
     </row>
     <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B46">
         <v>11</v>
@@ -5411,7 +5417,7 @@
     </row>
     <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B47" t="s">
         <v>15</v>
@@ -5419,7 +5425,7 @@
     </row>
     <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B48" t="s">
         <v>15</v>
@@ -5427,15 +5433,15 @@
     </row>
     <row r="49" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B49" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B50" t="s">
         <v>15</v>
@@ -5443,31 +5449,31 @@
     </row>
     <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B52" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B53" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B54" t="s">
         <v>15</v>
@@ -5475,15 +5481,15 @@
     </row>
     <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B55" t="s">
         <v>234</v>
-      </c>
-      <c r="B55" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B56" t="s">
         <v>15</v>
@@ -5491,15 +5497,15 @@
     </row>
     <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B57" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -5507,7 +5513,7 @@
     </row>
     <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -5515,7 +5521,7 @@
     </row>
     <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -5523,7 +5529,7 @@
     </row>
     <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B61">
         <v>111</v>
@@ -5531,7 +5537,7 @@
     </row>
     <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B62">
         <v>222</v>
@@ -5539,7 +5545,7 @@
     </row>
     <row r="63" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B63" t="s">
         <v>15</v>
@@ -5547,15 +5553,15 @@
     </row>
     <row r="64" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B64" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B65" t="s">
         <v>15</v>
@@ -5563,23 +5569,23 @@
     </row>
     <row r="66" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B66" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B67" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B68" t="s">
         <v>15</v>
@@ -5587,23 +5593,23 @@
     </row>
     <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="B69" t="s">
         <v>252</v>
-      </c>
-      <c r="B69" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="B70" t="s">
         <v>254</v>
-      </c>
-      <c r="B70" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B71" t="s">
         <v>15</v>
@@ -5611,15 +5617,15 @@
     </row>
     <row r="72" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B72" t="s">
         <v>257</v>
-      </c>
-      <c r="B72" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B73" t="s">
         <v>15</v>
@@ -5627,60 +5633,60 @@
     </row>
     <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="B74" t="s">
         <v>260</v>
-      </c>
-      <c r="B74" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B75" t="s">
         <v>262</v>
-      </c>
-      <c r="B75" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="B76" t="s">
         <v>264</v>
-      </c>
-      <c r="B76" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="B77" t="s">
         <v>266</v>
-      </c>
-      <c r="B77" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="B78" t="s">
         <v>268</v>
-      </c>
-      <c r="B78" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B80" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B81" t="s">
         <v>15</v>
@@ -5688,31 +5694,31 @@
     </row>
     <row r="82" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B82" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B83" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B84" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A85" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B85" t="s">
         <v>15</v>
@@ -5720,31 +5726,31 @@
     </row>
     <row r="86" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B86" t="s">
         <v>280</v>
-      </c>
-      <c r="B86" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="B87" t="s">
         <v>282</v>
-      </c>
-      <c r="B87" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A88" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B88" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B89">
         <v>1223</v>
@@ -5752,55 +5758,55 @@
     </row>
     <row r="90" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A90" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B90" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A91" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B91" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B92" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B93" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A94" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B94" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A95" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B95" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A96" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B96" t="s">
         <v>15</v>
@@ -5808,23 +5814,23 @@
     </row>
     <row r="97" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="B97" t="s">
         <v>299</v>
-      </c>
-      <c r="B97" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A98" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B98" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A99" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B99">
         <v>123</v>
@@ -5832,7 +5838,7 @@
     </row>
     <row r="100" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A100" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B100">
         <v>111</v>
@@ -5840,23 +5846,23 @@
     </row>
     <row r="101" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A101" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B101" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A102" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B102" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A103" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B103">
         <v>1234</v>
@@ -5864,7 +5870,7 @@
     </row>
     <row r="104" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A104" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B104">
         <v>657</v>
@@ -5872,15 +5878,15 @@
     </row>
     <row r="105" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A105" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B105" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A106" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B106" t="s">
         <v>15</v>
@@ -5888,15 +5894,15 @@
     </row>
     <row r="107" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B107" t="s">
         <v>314</v>
-      </c>
-      <c r="B107" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A108" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -5904,7 +5910,7 @@
     </row>
     <row r="109" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A109" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B109">
         <v>111</v>
@@ -5912,7 +5918,7 @@
     </row>
     <row r="110" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A110" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B110">
         <v>1111</v>
@@ -5920,7 +5926,7 @@
     </row>
     <row r="111" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A111" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B111">
         <v>2</v>
@@ -5928,7 +5934,7 @@
     </row>
     <row r="112" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A112" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B112">
         <v>222</v>
@@ -5936,7 +5942,7 @@
     </row>
     <row r="113" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A113" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B113">
         <v>2222</v>
@@ -5944,7 +5950,7 @@
     </row>
     <row r="114" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A114" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B114">
         <v>333</v>
@@ -5952,7 +5958,7 @@
     </row>
     <row r="115" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A115" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B115">
         <v>3333</v>
@@ -5960,15 +5966,15 @@
     </row>
     <row r="116" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B116" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A117" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B117" t="s">
         <v>15</v>
@@ -5976,23 +5982,23 @@
     </row>
     <row r="118" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="B118" t="s">
         <v>326</v>
-      </c>
-      <c r="B118" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B119" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A120" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B120" t="s">
         <v>15</v>
@@ -6000,23 +6006,23 @@
     </row>
     <row r="121" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B121" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B122" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B123">
         <v>6</v>
@@ -6024,7 +6030,7 @@
     </row>
     <row r="124" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A124" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B124" t="s">
         <v>15</v>
@@ -6032,7 +6038,7 @@
     </row>
     <row r="125" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A125" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B125" t="s">
         <v>15</v>
@@ -6040,7 +6046,7 @@
     </row>
     <row r="127" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A127" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B127" t="s">
         <v>15</v>
@@ -6048,7 +6054,7 @@
     </row>
     <row r="128" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A128" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B128">
         <v>123</v>
@@ -6056,7 +6062,7 @@
     </row>
     <row r="129" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A129" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B129">
         <v>2223</v>
@@ -6064,23 +6070,23 @@
     </row>
     <row r="131" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A131" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B131" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A132" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B132" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B133" t="s">
         <v>15</v>
@@ -6088,7 +6094,7 @@
     </row>
     <row r="134" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A134" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -6096,7 +6102,7 @@
     </row>
     <row r="135" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A135" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B135">
         <v>1111</v>
@@ -6104,7 +6110,7 @@
     </row>
     <row r="136" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A136" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B136">
         <v>2222</v>
@@ -6112,7 +6118,7 @@
     </row>
     <row r="138" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A138" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B138">
         <v>3333</v>
@@ -6120,15 +6126,15 @@
     </row>
     <row r="139" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A139" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B139" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A140" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B140">
         <v>4444</v>
@@ -6136,7 +6142,7 @@
     </row>
     <row r="141" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B141" t="s">
         <v>15</v>
@@ -6144,55 +6150,55 @@
     </row>
     <row r="142" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A142" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B142" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A143" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B143" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A144" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B144" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A145" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B145" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A146" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B146" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A147" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A148" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B148" t="s">
         <v>15</v>
@@ -6200,111 +6206,111 @@
     </row>
     <row r="149" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B149" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B150" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B151" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A152" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B152" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A153" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B153" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A154" s="9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B154" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A155" s="9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B155" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A156" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B156" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A157" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B157" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A158" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B158" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="B159" t="s">
         <v>383</v>
-      </c>
-      <c r="B159" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B160" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B161" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A162" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B162" t="s">
         <v>15</v>
@@ -6312,175 +6318,175 @@
     </row>
     <row r="163" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B163" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B164" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B165" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B166" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B167" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B168" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B169" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B170" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B171" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B172" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B173" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B174" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B175" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B176" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B177" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B178" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B179" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B180" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B181" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B182" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B183" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B184" t="s">
         <v>15</v>
@@ -6488,7 +6494,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B185" t="s">
         <v>15</v>
@@ -6496,7 +6502,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B186" t="s">
         <v>15</v>
@@ -6504,7 +6510,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B187" t="s">
         <v>15</v>
@@ -6512,7 +6518,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B188" t="s">
         <v>15</v>
@@ -6520,7 +6526,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B189" t="s">
         <v>15</v>
@@ -6528,7 +6534,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B190" t="s">
         <v>15</v>
@@ -6536,7 +6542,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B191" t="s">
         <v>15</v>
@@ -6544,7 +6550,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B192" t="s">
         <v>15</v>
@@ -6552,7 +6558,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B193" t="s">
         <v>15</v>
@@ -6560,7 +6566,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B194" t="s">
         <v>15</v>
@@ -6568,7 +6574,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B195" t="s">
         <v>15</v>
@@ -6576,7 +6582,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B196" t="s">
         <v>15</v>
@@ -6584,7 +6590,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B197" t="s">
         <v>15</v>
@@ -6592,7 +6598,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B198" t="s">
         <v>15</v>
@@ -6600,7 +6606,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B199" t="s">
         <v>15</v>
@@ -6608,7 +6614,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B200" t="s">
         <v>15</v>
@@ -6616,7 +6622,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B201" t="s">
         <v>15</v>
@@ -6624,7 +6630,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B202" t="s">
         <v>15</v>
@@ -6632,7 +6638,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B203" t="s">
         <v>15</v>
@@ -6640,7 +6646,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B204" t="s">
         <v>15</v>
@@ -6648,7 +6654,7 @@
     </row>
     <row r="205" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A205" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B205" t="s">
         <v>15</v>
@@ -6656,7 +6662,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B206" t="s">
         <v>15</v>
@@ -6664,7 +6670,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B207" t="s">
         <v>15</v>
@@ -6672,7 +6678,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B208" t="s">
         <v>15</v>
@@ -6680,7 +6686,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B209" t="s">
         <v>15</v>
@@ -6688,23 +6694,23 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B210" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B211" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B212" t="s">
         <v>15</v>
@@ -6712,7 +6718,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B213" t="s">
         <v>15</v>
@@ -6720,7 +6726,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B214" t="s">
         <v>15</v>
@@ -6728,15 +6734,15 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B215" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B216">
         <v>2</v>
@@ -6744,7 +6750,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B217" t="s">
         <v>15</v>
@@ -6752,7 +6758,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B218" t="s">
         <v>15</v>
@@ -6760,7 +6766,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B219" t="s">
         <v>15</v>
@@ -6768,7 +6774,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B220" t="s">
         <v>15</v>
@@ -6776,7 +6782,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B221" t="s">
         <v>15</v>
@@ -6784,7 +6790,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B222" t="s">
         <v>15</v>
@@ -6792,7 +6798,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B223" t="s">
         <v>15</v>
@@ -6800,7 +6806,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B224" t="s">
         <v>15</v>
@@ -6808,7 +6814,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B225" t="s">
         <v>15</v>
@@ -6816,7 +6822,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B226" t="s">
         <v>15</v>
@@ -6824,7 +6830,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B227" t="s">
         <v>15</v>
@@ -6832,7 +6838,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B228" t="s">
         <v>15</v>
@@ -6840,7 +6846,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B229" t="s">
         <v>15</v>
@@ -6848,7 +6854,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B230" t="s">
         <v>15</v>
@@ -6856,7 +6862,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B231" t="s">
         <v>15</v>
@@ -6864,7 +6870,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B232" t="s">
         <v>15</v>
@@ -6872,7 +6878,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B233" t="s">
         <v>15</v>
@@ -6880,7 +6886,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B234" t="s">
         <v>15</v>
@@ -6888,7 +6894,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B235" t="s">
         <v>15</v>
@@ -6896,7 +6902,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B236" t="s">
         <v>15</v>
@@ -6904,7 +6910,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B237">
         <v>1</v>
@@ -6912,15 +6918,15 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B238" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B239">
         <v>123</v>
@@ -6928,15 +6934,15 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B240" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B241" t="s">
         <v>15</v>
@@ -6944,7 +6950,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B242" t="s">
         <v>15</v>
@@ -6952,7 +6958,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B243">
         <v>1</v>
@@ -6960,63 +6966,63 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B244" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B245" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B246" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B247" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B248" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
+        <v>504</v>
+      </c>
+      <c r="B249" t="s">
         <v>505</v>
-      </c>
-      <c r="B249" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
+        <v>506</v>
+      </c>
+      <c r="B250" t="s">
         <v>507</v>
-      </c>
-      <c r="B250" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B251" t="s">
         <v>15</v>
@@ -7024,94 +7030,94 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
+        <v>509</v>
+      </c>
+      <c r="B252" t="s">
         <v>510</v>
-      </c>
-      <c r="B252" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B254" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B255" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B256" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B258" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B259" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B260" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B261" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B262" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B264" t="s">
         <v>15</v>
@@ -7119,7 +7125,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B265">
         <v>1</v>
@@ -7127,17 +7133,17 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B268">
         <v>1</v>
@@ -7145,20 +7151,20 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B269" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B271" t="s">
         <v>15</v>
@@ -7166,151 +7172,151 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B272" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B273" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B274" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B275" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B276" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B277" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B278" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B279" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B280" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B281" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B282" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B283" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B284" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
+        <v>562</v>
+      </c>
+      <c r="B285" t="s">
         <v>563</v>
-      </c>
-      <c r="B285" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B286" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B287" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B288" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B289" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B290" t="s">
         <v>15</v>
@@ -7318,31 +7324,31 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B291" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B292" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B293" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B294" t="s">
         <v>15</v>
@@ -7350,7 +7356,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B295" t="s">
         <v>15</v>
@@ -7358,7 +7364,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B296" t="s">
         <v>15</v>
@@ -7366,7 +7372,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B297" t="s">
         <v>15</v>
@@ -7374,15 +7380,15 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B298" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B299" t="s">
         <v>15</v>
@@ -7390,47 +7396,47 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B300" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B301" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B302" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
+        <v>589</v>
+      </c>
+      <c r="B303" t="s">
         <v>590</v>
-      </c>
-      <c r="B303" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
+        <v>591</v>
+      </c>
+      <c r="B304" t="s">
         <v>592</v>
-      </c>
-      <c r="B304" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B305" t="s">
         <v>15</v>
@@ -7438,7 +7444,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B306" t="s">
         <v>15</v>
@@ -7446,7 +7452,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B307" t="s">
         <v>15</v>
@@ -7454,7 +7460,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B308" t="s">
         <v>15</v>
@@ -7462,7 +7468,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B309" t="s">
         <v>15</v>
@@ -7470,7 +7476,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B310" t="s">
         <v>15</v>
@@ -7478,7 +7484,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B311" t="s">
         <v>15</v>
@@ -7486,23 +7492,23 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
+        <v>600</v>
+      </c>
+      <c r="B312" t="s">
         <v>601</v>
-      </c>
-      <c r="B312" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B313" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B314" t="s">
         <v>15</v>
@@ -7510,7 +7516,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B315" t="s">
         <v>15</v>
@@ -7518,7 +7524,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B316" t="s">
         <v>15</v>
@@ -7526,7 +7532,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B317" t="s">
         <v>15</v>
@@ -7534,7 +7540,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B318" t="s">
         <v>15</v>
@@ -7542,7 +7548,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B319" t="s">
         <v>15</v>
@@ -7550,7 +7556,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B320" t="s">
         <v>15</v>
@@ -7558,15 +7564,15 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
+        <v>610</v>
+      </c>
+      <c r="B321" t="s">
         <v>611</v>
-      </c>
-      <c r="B321" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B322" t="s">
         <v>15</v>
@@ -7574,23 +7580,23 @@
     </row>
     <row r="323" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A323" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B323" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A324" s="9" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B324" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B325" t="s">
         <v>15</v>
@@ -7598,7 +7604,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B326" t="s">
         <v>15</v>
@@ -7606,15 +7612,15 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B327" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B328" t="s">
         <v>15</v>
@@ -7622,143 +7628,143 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
+        <v>619</v>
+      </c>
+      <c r="B329" t="s">
         <v>620</v>
-      </c>
-      <c r="B329" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
+        <v>621</v>
+      </c>
+      <c r="B330" t="s">
         <v>622</v>
-      </c>
-      <c r="B330" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B331" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B332" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B333" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B334" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B335" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B336" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B337" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B338" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B339" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B340" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B341" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B342" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B343" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B344" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B345" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="346" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A346" s="9" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B346" t="s">
         <v>15</v>
@@ -7766,145 +7772,145 @@
     </row>
     <row r="347" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A347" s="9" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B347" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="348" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A348" s="9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B348" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="349" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A349" s="9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B349" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="350" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A350" s="9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B350" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="351" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A351" s="9" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B351" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="352" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A352" s="9" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B352" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="353" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A353" s="9" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B353" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="354" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A354" s="9" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="355" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A355" s="9" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B356" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B357" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B358" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B359" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B360" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B361" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B362" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B363" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B364" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B365" t="s">
         <v>15</v>
@@ -7912,31 +7918,31 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B366" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B367" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B368" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="369" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A369" s="9" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B369" t="s">
         <v>15</v>
@@ -7944,111 +7950,111 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B370" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B371" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B372" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B373" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B374" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B375" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B376" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B377" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B378" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B379" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B380" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B381" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B382" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B383" t="s">
         <v>15</v>
@@ -8056,87 +8062,87 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B384" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B385" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B386" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B387" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B388" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B389" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B390" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B391" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B392" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B393" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B394" t="s">
         <v>15</v>
@@ -8144,143 +8150,143 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B395" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B396" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B397" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B398" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B399" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B400" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B401" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B402" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B403" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B404" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
+        <v>739</v>
+      </c>
+      <c r="B405" t="s">
         <v>740</v>
-      </c>
-      <c r="B405" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B406" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B407" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B408" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B409" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B410" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="411" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A411" s="9" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B411" s="9" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="412" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A412" s="9" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B412" t="s">
         <v>15</v>
@@ -8288,63 +8294,63 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B413" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B414" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B415" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B416" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B417" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B418" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B419" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B420" t="s">
         <v>15</v>
@@ -8352,87 +8358,87 @@
     </row>
     <row r="421" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A421" s="9" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B421" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="422" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A422" s="9" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B422" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="423" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A423" s="9" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B423" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="424" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A424" s="9" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B424" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="425" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A425" s="9" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B425" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="426" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A426" s="9" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B426" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="427" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A427" s="9" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B427" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="428" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A428" s="9" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B428" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="429" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A429" s="9" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B429" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="430" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A430" s="9" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B430" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="431" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A431" s="9" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B431" t="s">
         <v>15</v>
@@ -8440,7 +8446,7 @@
     </row>
     <row r="432" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A432" s="9" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B432" t="s">
         <v>15</v>
@@ -8448,119 +8454,119 @@
     </row>
     <row r="433" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A433" s="9" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B433" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="434" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A434" s="9" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B434" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="435" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A435" s="9" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B435" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="436" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A436" s="9" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B436" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="437" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A437" s="9" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B437" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="438" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A438" s="9" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B438" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="439" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A439" s="9" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B439" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="440" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A440" s="9" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B440" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="441" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A441" s="9" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B441" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="442" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A442" s="9" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B442" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B443" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="444" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A444" s="9" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B444" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="445" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A445" s="9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B445" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="446" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A446" s="9" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B446" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="447" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A447" s="9" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B447" t="s">
         <v>15</v>
@@ -8568,31 +8574,31 @@
     </row>
     <row r="448" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A448" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B448" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="449" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A449" s="9" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B449" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="450" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A450" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B450" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="451" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A451" s="9" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B451" t="s">
         <v>15</v>
@@ -8600,91 +8606,91 @@
     </row>
     <row r="452" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A452" s="9" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="453" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A453" s="9" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="454" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A454" s="9" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="455" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A455" s="9" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="456" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A456" s="9" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B456" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="457" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A457" s="9" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B457" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="458" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A458" s="9" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B458" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="459" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A459" s="9" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B459" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="460" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A460" s="9" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B460" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="461" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A461" s="9" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B461" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="462" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A462" s="9" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B462" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="463" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A463" s="9" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B463" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="464" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A464" s="9" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B464" t="s">
         <v>15</v>
@@ -8692,228 +8698,228 @@
     </row>
     <row r="465" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A465" s="9" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B465" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="466" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A466" s="9" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B466" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="467" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A467" s="9" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B467" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="468" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A468" s="9" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B468" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="469" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A469" s="9" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B469" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="470" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A470" s="9" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B470" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="471" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A471" s="9" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B471" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="472" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A472" s="9" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B472" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="473" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A473" s="9" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B473" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="474" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A474" s="9" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B474" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="475" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A475" s="9" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B475" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="476" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A476" s="9" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B476" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="477" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A477" s="9" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B477" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="478" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A478" s="9" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B478" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="479" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A479" s="9" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B479" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="480" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A480" s="9" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B480" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="481" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A481" s="9" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B481" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="482" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A482" s="9" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B482" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="483" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A483" s="9" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B483" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="484" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A484" s="9" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B484" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="485" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A485" s="9" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B485" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="486" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A486" s="9" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B486" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="487" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A487" s="9" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="488" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A488" s="9" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B488" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="489" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A489" s="9" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B489" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="490" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A490" s="9" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B490" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="491" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A491" s="9" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B491" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="492" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A492" s="9" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B492" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="493" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A493" s="9" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B493" t="s">
         <v>15</v>
@@ -8921,7 +8927,7 @@
     </row>
     <row r="494" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A494" s="9" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B494" t="s">
         <v>15</v>
@@ -8929,119 +8935,119 @@
     </row>
     <row r="495" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A495" s="9" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B495" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="496" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A496" s="9" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B496" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="497" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A497" s="9" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B497" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="498" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A498" s="9" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B498" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="499" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A499" s="9" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B499" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="500" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A500" s="9" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B500" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="501" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A501" s="9" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B501" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="502" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A502" s="9" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B502" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="503" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A503" s="9" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B503" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="504" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A504" s="9" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B504" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="505" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A505" s="9" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B505" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="506" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A506" s="9" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B506" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="507" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A507" s="9" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B507" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="508" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A508" s="9" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B508" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="509" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A509" s="9" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B509" t="s">
         <v>15</v>
@@ -9049,119 +9055,119 @@
     </row>
     <row r="510" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A510" s="9" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B510" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="511" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A511" s="9" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B511" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="512" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A512" s="9" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B512" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="513" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A513" s="9" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B513" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="514" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A514" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B514" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="515" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A515" s="9" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B515" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="516" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A516" s="9" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B516" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="517" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A517" s="9" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B517" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="518" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A518" s="9" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B518" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="519" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A519" s="9" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B519" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="520" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A520" s="9" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B520" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="521" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A521" s="9" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B521" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="522" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A522" s="9" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B522" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="523" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A523" s="9" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B523" s="9" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="524" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A524" s="9" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B524" t="s">
         <v>15</v>
@@ -9169,31 +9175,31 @@
     </row>
     <row r="525" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A525" s="9" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B525" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="526" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A526" s="9" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B526" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="527" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A527" s="9" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B527" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="528" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A528" s="9" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B528" t="s">
         <v>15</v>
@@ -9201,119 +9207,119 @@
     </row>
     <row r="529" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A529" s="9" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B529" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="530" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A530" s="9" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B530" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="531" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A531" s="9" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B531" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="532" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A532" s="9" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B532" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="533" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A533" s="9" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B533" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="534" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A534" s="9" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B534" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="535" spans="1:2" ht="112" x14ac:dyDescent="0.2">
       <c r="A535" s="9" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B535" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="536" spans="1:2" ht="112" x14ac:dyDescent="0.2">
       <c r="A536" s="9" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B536" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="537" spans="1:2" ht="112" x14ac:dyDescent="0.2">
       <c r="A537" s="9" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B537" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="538" spans="1:2" ht="112" x14ac:dyDescent="0.2">
       <c r="A538" s="9" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B538" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="539" spans="1:2" ht="112" x14ac:dyDescent="0.2">
       <c r="A539" s="9" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B539" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="540" spans="1:2" ht="112" x14ac:dyDescent="0.2">
       <c r="A540" s="9" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B540" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="541" spans="1:2" ht="112" x14ac:dyDescent="0.2">
       <c r="A541" s="9" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B541" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="542" spans="1:2" ht="112" x14ac:dyDescent="0.2">
       <c r="A542" s="9" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B542" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="543" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A543" s="9" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B543" t="s">
         <v>15</v>
@@ -9321,95 +9327,95 @@
     </row>
     <row r="544" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A544" s="9" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B544" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="545" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A545" s="9" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B545" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="546" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A546" s="9" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B546" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="547" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A547" s="9" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B547" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="548" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A548" s="9" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B548" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="549" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A549" s="9" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B549" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="550" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A550" s="9" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B550" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="551" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A551" s="9" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B551" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="552" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A552" s="9" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B552" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="553" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A553" s="9" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B553" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="554" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A554" s="9" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B554" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="555" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A555" s="9" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B555" t="s">
         <v>15</v>
@@ -9417,31 +9423,31 @@
     </row>
     <row r="556" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A556" s="9" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B556" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="557" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A557" s="9" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B557" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="558" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A558" s="9" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B558" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="559" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A559" s="9" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B559" t="s">
         <v>15</v>
@@ -9449,159 +9455,159 @@
     </row>
     <row r="560" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A560" s="9" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B560" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="561" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A561" s="9" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B561" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="562" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A562" s="9" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B562" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="563" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A563" s="9" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B563" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="564" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A564" s="9" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B564" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="565" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A565" s="9" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B565" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="566" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A566" s="9" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B566" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="567" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A567" s="9" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B567" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="568" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A568" s="9" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B568" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="569" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A569" s="9" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B569" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="570" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A570" s="9" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B570" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="571" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A571" s="9" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B571" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="572" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A572" s="9" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B572" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="573" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A573" s="9" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B573" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="574" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A574" s="9" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B574" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="575" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A575" s="9" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B575" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="576" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A576" s="9" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B576" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="577" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A577" s="9" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B577" t="s">
         <v>1050</v>
-      </c>
-      <c r="B577" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="578" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A578" s="9" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B578" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="579" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A579" s="9" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B579" t="s">
         <v>15</v>
@@ -9609,7 +9615,7 @@
     </row>
     <row r="580" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A580" s="9" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B580" t="s">
         <v>15</v>
@@ -9617,7 +9623,7 @@
     </row>
     <row r="581" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A581" s="9" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B581" t="s">
         <v>15</v>
@@ -9625,111 +9631,111 @@
     </row>
     <row r="582" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A582" s="9" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B582" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="583" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A583" s="9" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B583" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="584" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A584" s="9" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B584" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="585" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A585" s="9" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B585" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="586" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A586" s="9" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B586" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="587" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A587" s="9" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B587" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="588" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A588" s="9" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B588" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="589" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A589" s="9" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B589" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="590" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A590" s="9" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B590" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="591" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A591" s="9" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B591" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="592" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A592" s="9" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B592" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="593" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A593" s="9" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B593" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="594" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A594" s="9" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B594" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="595" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A595" s="9" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B595" t="s">
         <v>15</v>
@@ -9737,55 +9743,55 @@
     </row>
     <row r="596" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A596" s="9" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B596" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="597" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A597" s="9" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B597" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="598" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A598" s="9" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B598" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="599" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A599" s="9" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B599" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="600" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A600" s="9" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B600" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="601" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A601" s="9" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B601" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="602" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A602" s="9" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B602" t="s">
         <v>15</v>
@@ -9793,55 +9799,55 @@
     </row>
     <row r="603" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A603" s="9" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B603" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="604" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A604" s="9" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B604" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="605" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A605" s="9" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B605" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="606" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A606" s="9" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B606" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="607" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A607" s="9" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B607" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="608" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A608" s="9" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B608" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="609" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A609" s="9" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B609" t="s">
         <v>15</v>
@@ -9849,130 +9855,130 @@
     </row>
     <row r="610" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A610" s="9" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B610" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="611" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A611" s="9" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B611" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="612" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A612" s="9" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B612" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="613" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A613" s="9" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B613" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="614" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A614" s="9" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B614" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="615" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A615" s="9" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B615" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="616" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A616" s="9" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B616" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="617" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A617" s="9" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B617" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="618" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A618" s="9" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B618" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="619" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A619" s="9" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B619" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="620" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A620" s="9" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B620" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="621" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A621" s="9" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B621" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B622" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="623" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A623" s="9" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B623" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="624" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A624" s="9" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B624" t="s">
         <v>1134</v>
-      </c>
-      <c r="B624" t="s">
-        <v>1135</v>
       </c>
     </row>
     <row r="625" spans="1:2" ht="160" x14ac:dyDescent="0.2">
       <c r="A625" s="9" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B625" s="9" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
   </sheetData>
@@ -9981,6 +9987,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010084299BAE6AB37648AD80DEB59DC34125" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3eadf2c1f25cd7b71915c87a24a5e490">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="70b45aa3-433c-4bb7-a757-4861a21b7bcd" xmlns:ns3="f9acbf48-ccda-47b6-abb6-c9eb96c9ba33" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="383f12c7747b491aea3350ad3b69b32a" ns2:_="" ns3:_="">
     <xsd:import namespace="70b45aa3-433c-4bb7-a757-4861a21b7bcd"/>
@@ -10151,22 +10172,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B75DB3A7-FCD6-4DD2-8F1A-F1A891316494}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A376A26F-A459-4EA6-9FC7-DF620BE07CA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8739BBC0-A319-48B2-92BB-329AC3208E3F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10183,21 +10206,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A376A26F-A459-4EA6-9FC7-DF620BE07CA9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B75DB3A7-FCD6-4DD2-8F1A-F1A891316494}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/test/java/ServiceNow/CHARMS/Resources/RASScenario2.xlsx
+++ b/src/test/java/ServiceNow/CHARMS/Resources/RASScenario2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juarezds/Desktop/CBIIT-Test-Automation/src/test/java/ServiceNow/CHARMS/Resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bucurgb/IdeaProjects/CBIIT-Test-Automation/src/test/java/ServiceNow/CHARMS/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801E77F7-A6D9-9544-AA26-2196CB41835C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16513509-AB20-E143-AF69-FB2896F36246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="520" windowWidth="25600" windowHeight="27180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="102400" yWindow="180" windowWidth="25600" windowHeight="27180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="screenerScenario2" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="1138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="1249">
   <si>
     <t>Question</t>
   </si>
@@ -64,9 +64,6 @@
     <t>Last name</t>
   </si>
   <si>
-    <t>JuarezTest</t>
-  </si>
-  <si>
     <t>What is your date of birth?</t>
   </si>
   <si>
@@ -76,9 +73,6 @@
     <t>Date of birth year</t>
   </si>
   <si>
-    <t>Male</t>
-  </si>
-  <si>
     <t>Are you adopted?</t>
   </si>
   <si>
@@ -163,9 +157,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>We know that RASopathies are a group of syndromes that have a genetic basis.  In order to help us determine eligibility for the RASopathies Study, we also need to know about any genetic testing that has been completed.  We will need a copy of any test results.</t>
-  </si>
-  <si>
     <t>We will now ask a few remaining questions regarding this study.</t>
   </si>
   <si>
@@ -173,12 +164,6 @@
   </si>
   <si>
     <t>How did you hear about this study?  If a specific health care provider referred you to this study, please include their name in the corresponding text box. Other reason</t>
-  </si>
-  <si>
-    <t>What are the main reasons for participating in this study?  Select all that apply.  Please elaborate on the reason in the corresponding textbox.</t>
-  </si>
-  <si>
-    <t>What are the main reasons for participating in this study?  Select all that apply.  Please elaborate on the reason in the corresponding textbox. Other reason</t>
   </si>
   <si>
     <t>Please log in.
@@ -487,123 +472,7 @@
 Please feel free to call at any time if you have any questions regarding this protocol and ask to speak with the study nurse. Our toll-free phone number is 1-800-518-8474 or 301-212-5250. Thank you for your willingness to consider joining our research effort. We could not do vital studies like this without the help of dedicated patients and families.</t>
   </si>
   <si>
-    <t>THIS IS THE COPY FOR LOWER ENVIRONMENTS ONLY!!!
-STUDY INTRODUCTION
-RASopathies are a group of syndromes, also called conditions or disorders, caused by changes in genes that send signals across the Ras/MAPK pathway. This pathway helps systems in the body to grow and work properly. The National Cancer Institute is studying individuals who have or are at risk of developing a RASopathy including Noonan Syndrome, Noonan Syndrome with multiple lentigines, Cardiofaciocutaneous syndrome, Costello syndrome, Legius syndrome, Capillary Arteriovenous Malformation syndrome, Hereditary Gingival Fibromatosis and SYNGAP1 syndrome. Although Neurofibromatosis Type 1 is a RASopathy, we are not enrolling NF1 patients at this time. Individuals with a RASopathy not listed above may also be eligible.
-Each syndrome has unique features, but some overlapping characteristics of these disorders exist and include:
-heart defects
-skin lesions
-bone abnormalities
-eye and muscle problems
-short stature
-learning difficulties
-common facial and physical features
-increased risk of developing benign and cancerous tumors
-This study aims to learn how some RASopathies develop, identify or characterize unrecognized or under-recognized RASopathies, what genetic variants or mutations cause different types of RASopathies or RASopathy-related problems, what are the signs or symptoms of each syndrome and the medical problems that could be screened for and potentially be treated earlier.
-More information about the study can be found at https://rasopathies.cancer.gov/.
-To determine your eligibility for this study, we are asking you to provide the information requested below.  It may take about 15-20 minutes to provide this information.  Before beginning, make sure you have as much information as possible available about your family’s health history, including the types of syndromes and/or cancers diagnosed in yourself or your relatives and the approximate ages at diagnosis. 
-This form cannot be saved or returned to if it is closed before completion.
-Our study team will review the information provided to determine your eligibility to participate. If you enroll in the study, you may be asked to do some or all of the following:
-Sign a study consent form
-Provide information and complete questionnaires about your family history and your personal health history
-Grant us permission to verify you or your child's eligible condition
-Provide samples (such as a blood sample or saliva sample)
-Allow us to contact family members, such as siblings, parents, aunts or uncles, to invite them to participate in the study.
-Please note treatment is not being offered as part of this protocol.
-If you are unable to complete the online questionnaire or would prefer to complete it by phone, please contact the referral intake nurse at 1-800-518-8474 or 301-212-5250.</t>
-  </si>
-  <si>
-    <t>I am completing this form for someone else</t>
-  </si>
-  <si>
-    <t>What is the name of the person who may be eligible for this study? First name</t>
-  </si>
-  <si>
-    <t>TestFirst</t>
-  </si>
-  <si>
-    <t>What is the name of the person who may be eligible for this study? Middle initial</t>
-  </si>
-  <si>
-    <t>What is the name of the person who may be eligible for this study? Last name</t>
-  </si>
-  <si>
-    <t>TestLast</t>
-  </si>
-  <si>
-    <t>What is your relationship to DFSDFS SFSDFS?</t>
-  </si>
-  <si>
-    <t>Parent</t>
-  </si>
-  <si>
-    <t>Are you the legal guardian of DFSDFS SFSDFS?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The next set of questions will collect basic information about DFSDFS SFSDFS.  </t>
-  </si>
-  <si>
-    <t>Date of birth of DFSDFS SFSDFS
-2023</t>
-  </si>
-  <si>
-    <t>March</t>
-  </si>
-  <si>
-    <t>Sex of DFSDFS SFSDFS assigned at birth</t>
-  </si>
-  <si>
-    <t>Is DFSDFS SFSDFS adopted?</t>
-  </si>
-  <si>
-    <t>Is DFSDFS SFSDFS alive?</t>
-  </si>
-  <si>
-    <t>In which country does DFSDFS SFSDFS currently live?</t>
-  </si>
-  <si>
-    <t>automatedTest4@email.com</t>
-  </si>
-  <si>
-    <t>Ethnicity of DFSDFS SFSDFS</t>
-  </si>
-  <si>
-    <t>Is DFSDFS SFSDFS a participant in any other research study or registry group?  Please specify.</t>
-  </si>
-  <si>
-    <t>Is DFSDFS SFSDFS a participant in any other research study or registry group?  Please specify. Name</t>
-  </si>
-  <si>
     <t>xyz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To determine eligibility for this study, we need to collect information about medical diagnoses.  These questions ask about general medical conditions, cancer and any prior diagnosis of a RASopathy.  Please complete this information to the best of your knowledge. 
-</t>
-  </si>
-  <si>
-    <t>Has DFSDFS SFSDFS ever been diagnosed with the following conditions?  Select all that apply.  If you do not see the exact condition diagnosed, please select the closest answer.</t>
-  </si>
-  <si>
-    <t>Has DFSDFS SFSDFS ever been diagnosed with cancer?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Has DFSDFS SFSDFS been diagnosed with a RASopathy such as Noonan syndrome, Noonan syndrome with multiple lentigines, Costello syndrome, cardiofaciocutaneous syndrome, Legius syndrome, capillary arteriovenous malformation syndrome, hereditary gingival fibromatosis or SYNGAP1 syndrome?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Have any of DFSDFS's biological relatives been diagnosed with a RASopathy?</t>
-  </si>
-  <si>
-    <t>Has DFSDFS SFSDFS ever had genetic testing?</t>
-  </si>
-  <si>
-    <t>Has DFSDFS SFSDFS or other family members ever participated in another study on RASopathy at another medical institution, university, government agency or other site?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You are almost done!
-To submit your responses, you must continue in the questionnaire by clicking the forward arrow below.  
-The information you have provided will be reviewed by our study team.  If it is determined that you are eligible to participate in the RASopathy Study, you will receive an email with further details, including instructions to log in to a secure study portal. If the team decides that you are not eligible, you will receive an email explaining why. In the meantime, you should receive an email confirming this submission.
-Please feel free to call at any time if you have any questions regarding this protocol and ask to speak with the RASopathies Study nurse. Our toll-free phone number is 1-800-518-8474 or 301-212-5250. Thank you for your willingness to consider joining our research effort.  We could not do vital studies like this without the help of dedicated patients and families.  </t>
   </si>
   <si>
     <t>Thank you for starting the RAS Survey and for your continued participation 
@@ -3630,10 +3499,448 @@
 Please feel free to call at any time if you have any questions regarding this protocol and ask to speak with the study nurse. Our toll-free phone number is 1-800-518-8474 or 301-212-5250. Thank you for your willingness to consider joining our research effort. We could not do vital studies like this without the help of dedicated individuals and families.</t>
   </si>
   <si>
-    <t>regression testing</t>
-  </si>
-  <si>
-    <t>entering other reason</t>
+    <t>TestScenario4</t>
+  </si>
+  <si>
+    <t>The next set of questions will collect basic information about The proband?</t>
+  </si>
+  <si>
+    <t>The next set of questions will collect basic information about you.</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>What was your sex assigned at birth?</t>
+  </si>
+  <si>
+    <t>In which country do you currently live?</t>
+  </si>
+  <si>
+    <t>What is your ethnicity?</t>
+  </si>
+  <si>
+    <t>Scenario2@email.com</t>
+  </si>
+  <si>
+    <t>Is The proband a participant in any other research study or registry group?  Please specify. Option 1</t>
+  </si>
+  <si>
+    <t>RASopathies Net</t>
+  </si>
+  <si>
+    <t>Is The proband a participant in any other research study or registry group?  Please specify. Option 2</t>
+  </si>
+  <si>
+    <t>Is The proband a participant in any other research study or registry group?  Please specify. Option 3</t>
+  </si>
+  <si>
+    <t>Is The proband a participant in any other research study or registry group?  Please specify. Option 4</t>
+  </si>
+  <si>
+    <t>I am not involved in any other research study or registry group</t>
+  </si>
+  <si>
+    <t>Is The proband a participant in any other research study or registry group?  Please specify. Option 2 Other</t>
+  </si>
+  <si>
+    <t>Test Family</t>
+  </si>
+  <si>
+    <t>Is The proband a participant in any other research study or registry group?  Please specify. Option 3 Other</t>
+  </si>
+  <si>
+    <t>Test Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To determine eligibility for this study, we need to collect information about medical diagnoses.  These questions ask about general medical conditions, cancer and any prior diagnosis of a RASopathy.  Please complete this information to the best of your knowledge. </t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with the following conditions?  Select all that apply.  If you do not see the exact condition diagnosed, please select the closest answer. Option 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feeding problems, , failure to thrive, or other stomach/digestive problems </t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with the following conditions?  Select all that apply.  If you do not see the exact condition diagnosed, please select the closest answer. Option 2</t>
+  </si>
+  <si>
+    <t>Neurocognitive/ developmental delay  such as: Intellectual disability and language impairment</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with the following conditions?  Select all that apply.  If you do not see the exact condition diagnosed, please select the closest answer. Option 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skeletal deformities such as: Short stature, short webbed neck, unusual chest shape, curved spine, muscle or joint problems, limb overgrowth </t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with the following conditions?  Select all that apply.  If you do not see the exact condition diagnosed, please select the closest answer. Option 4</t>
+  </si>
+  <si>
+    <t>&lt;Head/craniofacial abnormalities  such as: Large head, broad or high forehead, short nose, small chin, swelling or bleeding of the gums, abnormal shape or movement of teeth</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with the following conditions?  Select all that apply.  If you do not see the exact condition diagnosed, please select the closest answer. Option 5</t>
+  </si>
+  <si>
+    <t>Eye/ear abnormalities  such as: Widely spaced eyes, eye diseases, droopy eye lids, sparse/absent eye lashes/eyebrows, low set ears, vision or hearing impairment</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with the following conditions?  Select all that apply.  If you do not see the exact condition diagnosed, please select the closest answer. Option 6</t>
+  </si>
+  <si>
+    <t>Skin/hair abnormalities   such as: soft loose skin, fine/thin/thick/dry/brittle/curly hair, slow growing hair, tumors or small skin tags near the nose or anus, lipomas, light to dark brown birth marks (cafe au lait spots), freckles in the armpits</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with the following conditions?  Select all that apply.  If you do not see the exact condition diagnosed, please select the closest answer. Option 7</t>
+  </si>
+  <si>
+    <t>Skin/hair abnormalities</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with the following conditions?  Select all that apply.  If you do not see the exact condition diagnosed, please select the closest answer. Option 8</t>
+  </si>
+  <si>
+    <t>Heart problems   such as cardiomyopathy or pulmonary valve stenosis</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with the following conditions?  Select all that apply.  If you do not see the exact condition diagnosed, please select the closest answer. Option 9</t>
+  </si>
+  <si>
+    <t>Genital abnormalities  such as undescended testes</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with the following conditions?  Select all that apply.  If you do not see the exact condition diagnosed, please select the closest answer. Option 10</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with the following conditions?  Select all that apply.  If you do not see the exact condition diagnosed, please select the closest answer. Option 11</t>
+  </si>
+  <si>
+    <t>Other : such as endocrine issues, bleeding disorders, seizures, tethered cord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have you ever been diagnosed with the following conditions?  Select all that apply.  If you do not see the exact condition diagnosed, please select the closest answer. Option 11 Other </t>
+  </si>
+  <si>
+    <t>Test 1</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with cancer?</t>
+  </si>
+  <si>
+    <t>Please complete the box below by selecting which primary cancers were diagnosed and at what age and year they occurred. If cancer spread from one place to another, please only indicate the original cancers and not the number of sites where cancer spread. Cancer Type Option 1</t>
+  </si>
+  <si>
+    <t>Neuroblastoma</t>
+  </si>
+  <si>
+    <t>Please complete the box below by selecting which primary cancers were diagnosed and at what age and year they occurred. If cancer spread from one place to another, please only indicate the original cancers and not the number of sites where cancer spread. Cancer Type Option 2</t>
+  </si>
+  <si>
+    <t>Leukemia</t>
+  </si>
+  <si>
+    <t>Please complete the box below by selecting which primary cancers were diagnosed and at what age and year they occurred. If cancer spread from one place to another, please only indicate the original cancers and not the number of sites where cancer spread. Cancer Type Option 3</t>
+  </si>
+  <si>
+    <t>Bladder cancer</t>
+  </si>
+  <si>
+    <t>Please complete the box below by selecting which primary cancers were diagnosed and at what age and year they occurred. If cancer spread from one place to another, please only indicate the original cancers and not the number of sites where cancer spread. Cancer Type Option 4</t>
+  </si>
+  <si>
+    <t>Pheochromocytoma</t>
+  </si>
+  <si>
+    <t>Please complete the box below by selecting which primary cancers were diagnosed and at what age and year they occurred. If cancer spread from one place to another, please only indicate the original cancers and not the number of sites where cancer spread. Other Cancer Optin 1</t>
+  </si>
+  <si>
+    <t>Test 2</t>
+  </si>
+  <si>
+    <t>Please complete the box below by selecting which primary cancers were diagnosed and at what age and year they occurred. If cancer spread from one place to another, please only indicate the original cancers and not the number of sites where cancer spread. Other Cancer Optin 2</t>
+  </si>
+  <si>
+    <t>Test 3</t>
+  </si>
+  <si>
+    <t>Please complete the box below by selecting which primary cancers were diagnosed and at what age and year they occurred. If cancer spread from one place to another, please only indicate the original cancers and not the number of sites where cancer spread. Other Cancer Optin 3</t>
+  </si>
+  <si>
+    <t>Please complete the box below by selecting which primary cancers were diagnosed and at what age and year they occurred. If cancer spread from one place to another, please only indicate the original cancers and not the number of sites where cancer spread. Other Cancer Optin 4</t>
+  </si>
+  <si>
+    <t>Please complete the box below by selecting which primary cancers were diagnosed and at what age and year they occurred. If cancer spread from one place to another, please only indicate the original cancers and not the number of sites where cancer spread. Age at diagnosis Option 1</t>
+  </si>
+  <si>
+    <t>Test 6</t>
+  </si>
+  <si>
+    <t>Please complete the box below by selecting which primary cancers were diagnosed and at what age and year they occurred. If cancer spread from one place to another, please only indicate the original cancers and not the number of sites where cancer spread. Age at diagnosis Option 2</t>
+  </si>
+  <si>
+    <t>Test 7</t>
+  </si>
+  <si>
+    <t>Please complete the box below by selecting which primary cancers were diagnosed and at what age and year they occurred. If cancer spread from one place to another, please only indicate the original cancers and not the number of sites where cancer spread. Age at diagnosis Option 3</t>
+  </si>
+  <si>
+    <t>Test 8</t>
+  </si>
+  <si>
+    <t>Please complete the box below by selecting which primary cancers were diagnosed and at what age and year they occurred. If cancer spread from one place to another, please only indicate the original cancers and not the number of sites where cancer spread. Age at diagnosis Option 4</t>
+  </si>
+  <si>
+    <t>Test 9</t>
+  </si>
+  <si>
+    <t>Please complete the box below by selecting which primary cancers were diagnosed and at what age and year they occurred. If cancer spread from one place to another, please only indicate the original cancers and not the number of sites where cancer spread. Year at diagnosis Option 1</t>
+  </si>
+  <si>
+    <t>Test 10</t>
+  </si>
+  <si>
+    <t>Please complete the box below by selecting which primary cancers were diagnosed and at what age and year they occurred. If cancer spread from one place to another, please only indicate the original cancers and not the number of sites where cancer spread. Year at diagnosis Option 2</t>
+  </si>
+  <si>
+    <t>Test 11</t>
+  </si>
+  <si>
+    <t>Please complete the box below by selecting which primary cancers were diagnosed and at what age and year they occurred. If cancer spread from one place to another, please only indicate the original cancers and not the number of sites where cancer spread. Year at diagnosis Option 3</t>
+  </si>
+  <si>
+    <t>Test 12</t>
+  </si>
+  <si>
+    <t>Please complete the box below by selecting which primary cancers were diagnosed and at what age and year they occurred. If cancer spread from one place to another, please only indicate the original cancers and not the number of sites where cancer spread. Year at diagnosis Option 4</t>
+  </si>
+  <si>
+    <t>Test 13</t>
+  </si>
+  <si>
+    <t>Please complete the box below by selecting which primary cancers were diagnosed and at what age and year they occurred. If cancer spread from one place to another, please only indicate the original cancers and not the number of sites where cancer spread. Curently receiving treatment Option 1</t>
+  </si>
+  <si>
+    <t>Please complete the box below by selecting which primary cancers were diagnosed and at what age and year they occurred. If cancer spread from one place to another, please only indicate the original cancers and not the number of sites where cancer spread. Curently receiving treatment Option 2</t>
+  </si>
+  <si>
+    <t>Please complete the box below by selecting which primary cancers were diagnosed and at what age and year they occurred. If cancer spread from one place to another, please only indicate the original cancers and not the number of sites where cancer spread. Curently receiving treatment Option 3</t>
+  </si>
+  <si>
+    <t>Please complete the box below by selecting which primary cancers were diagnosed and at what age and year they occurred. If cancer spread from one place to another, please only indicate the original cancers and not the number of sites where cancer spread. Curently receiving treatment Option 4</t>
+  </si>
+  <si>
+    <t>Have you been diagnosed with a RASopathy such as Noonan syndrome, Noonan syndrome with multiple lentigines, Costello syndrome, cardiofaciocutaneous syndrome, Legius syndrome, capillary arteriovenous malformation syndrome, hereditary gingival fibromatosis or SYNGAP1 syndrome?</t>
+  </si>
+  <si>
+    <t>For which specific RASopathy has GeorgeTest Scenario4 been diagnosed?</t>
+  </si>
+  <si>
+    <t>For which specific RASopathy has GeorgeTest Scenario4 been diagnosed? Other</t>
+  </si>
+  <si>
+    <t>Test 14</t>
+  </si>
+  <si>
+    <t>Age at diagnosis</t>
+  </si>
+  <si>
+    <t>Year of diagnosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We know that RASopathies are a group of syndromes that have a genetic basis.  In order to help us determine eligibility for the RASopathies Study, we also need to know about any genetic testing that has been completed.  We will need a copy of any test results.  </t>
+  </si>
+  <si>
+    <t>Have any of your biological relatives been diagnosed with a RASopathy?</t>
+  </si>
+  <si>
+    <t>Have you ever had genetic testing?</t>
+  </si>
+  <si>
+    <t>Do you have a copy of the genetic test results?</t>
+  </si>
+  <si>
+    <t>How would you like to provide the genetic test results to us?  Please select one.  On the next page, you will be provided with where to send the information.</t>
+  </si>
+  <si>
+    <t>Upload to this questionnaire</t>
+  </si>
+  <si>
+    <t>Test 15</t>
+  </si>
+  <si>
+    <t>Have you or other family members ever participated in another study on RASopathies at another medical institution, university, government agency or other site?</t>
+  </si>
+  <si>
+    <t>Please provide the information regarding previous participation in other RASopathy studies in the box below.  Column 1 Option 1</t>
+  </si>
+  <si>
+    <t>Test A</t>
+  </si>
+  <si>
+    <t>Please provide the information regarding previous participation in other RASopathy studies in the box below.  Column 1 Option 2</t>
+  </si>
+  <si>
+    <t>Test B</t>
+  </si>
+  <si>
+    <t>Please provide the information regarding previous participation in other RASopathy studies in the box below.  Column 1 Option 3</t>
+  </si>
+  <si>
+    <t>Test C</t>
+  </si>
+  <si>
+    <t>Please provide the information regarding previous participation in other RASopathy studies in the box below.  Column 1 Option 4</t>
+  </si>
+  <si>
+    <t>Test D</t>
+  </si>
+  <si>
+    <t>Please provide the information regarding previous participation in other RASopathy studies in the box below.  Column 2 Option 1</t>
+  </si>
+  <si>
+    <t>Test E</t>
+  </si>
+  <si>
+    <t>Please provide the information regarding previous participation in other RASopathy studies in the box below.  Column 2 Option 2</t>
+  </si>
+  <si>
+    <t>Test F</t>
+  </si>
+  <si>
+    <t>Please provide the information regarding previous participation in other RASopathy studies in the box below.  Column 2 Option 3</t>
+  </si>
+  <si>
+    <t>Test G</t>
+  </si>
+  <si>
+    <t>Please provide the information regarding previous participation in other RASopathy studies in the box below.  Column 2 Option 4</t>
+  </si>
+  <si>
+    <t>Test H</t>
+  </si>
+  <si>
+    <t>Please provide the information regarding previous participation in other RASopathy studies in the box below.  Column 3 Option 1</t>
+  </si>
+  <si>
+    <t>Test 24</t>
+  </si>
+  <si>
+    <t>Please provide the information regarding previous participation in other RASopathy studies in the box below.  Column 3 Option 2</t>
+  </si>
+  <si>
+    <t>Test 25</t>
+  </si>
+  <si>
+    <t>Please provide the information regarding previous participation in other RASopathy studies in the box below.  Column 3 Option 3</t>
+  </si>
+  <si>
+    <t>Test 26</t>
+  </si>
+  <si>
+    <t>Please provide the information regarding previous participation in other RASopathy studies in the box below.  Column 3 Option 4</t>
+  </si>
+  <si>
+    <t>Test 27</t>
+  </si>
+  <si>
+    <t>Please provide the information regarding previous participation in other RASopathy studies in the box below.  Column 4 Option 1</t>
+  </si>
+  <si>
+    <t>540-999-8765</t>
+  </si>
+  <si>
+    <t>Please provide the information regarding previous participation in other RASopathy studies in the box below.  Column 4 Option 2</t>
+  </si>
+  <si>
+    <t>540-999-8764</t>
+  </si>
+  <si>
+    <t>Please provide the information regarding previous participation in other RASopathy studies in the box below.  Column 4 Option 3</t>
+  </si>
+  <si>
+    <t>540-999-8763</t>
+  </si>
+  <si>
+    <t>Please provide the information regarding previous participation in other RASopathy studies in the box below.  Column 4 Option 4</t>
+  </si>
+  <si>
+    <t>540-999-8762</t>
+  </si>
+  <si>
+    <t>Please provide the information regarding previous participation in other RASopathy studies in the box below.  Column 5 Option 1</t>
+  </si>
+  <si>
+    <t>Please provide the information regarding previous participation in other RASopathy studies in the box below.  Column 5 Option 2</t>
+  </si>
+  <si>
+    <t>Please provide the information regarding previous participation in other RASopathy studies in the box below.  Column 5 Option 3</t>
+  </si>
+  <si>
+    <t>Please provide the information regarding previous participation in other RASopathy studies in the box below.  Column 5 Option 4</t>
+  </si>
+  <si>
+    <t>Please provide the information regarding previous participation in other RASopathy studies in the box below.  Column 6 Option 1</t>
+  </si>
+  <si>
+    <t>Please provide the information regarding previous participation in other RASopathy studies in the box below.  Column 6 Option 2</t>
+  </si>
+  <si>
+    <t>Please provide the information regarding previous participation in other RASopathy studies in the box below.  Column 6 Option 3</t>
+  </si>
+  <si>
+    <t>Please provide the information regarding previous participation in other RASopathy studies in the box below.  Column 6 Option 4</t>
+  </si>
+  <si>
+    <t>What are the main reasons for participating in this study?  Select all that apply.  Please elaborate on the reason in the corresponding textbox. Option 1</t>
+  </si>
+  <si>
+    <t>Participate in research</t>
+  </si>
+  <si>
+    <t>What are the main reasons for participating in this study?  Select all that apply.  Please elaborate on the reason in the corresponding textbox. Option 2</t>
+  </si>
+  <si>
+    <t>Identify a diagnosis</t>
+  </si>
+  <si>
+    <t>What are the main reasons for participating in this study?  Select all that apply.  Please elaborate on the reason in the corresponding textbox. Option 3</t>
+  </si>
+  <si>
+    <t>What are the main reasons for participating in this study?  Select all that apply.  Please elaborate on the reason in the corresponding textbox. Option 4</t>
+  </si>
+  <si>
+    <t>What are the main reasons for participating in this study?  Select all that apply.  Please elaborate on the reason in the corresponding textbox. Option 1 Other</t>
+  </si>
+  <si>
+    <t>Test 40</t>
+  </si>
+  <si>
+    <t>What are the main reasons for participating in this study?  Select all that apply.  Please elaborate on the reason in the corresponding textbox. Option 2 Other</t>
+  </si>
+  <si>
+    <t>Test 41</t>
+  </si>
+  <si>
+    <t>What are the main reasons for participating in this study?  Select all that apply.  Please elaborate on the reason in the corresponding textbox. Option 3 Other</t>
+  </si>
+  <si>
+    <t>Test 42</t>
+  </si>
+  <si>
+    <t>What are the main reasons for participating in this study?  Select all that apply.  Please elaborate on the reason in the corresponding textbox. Option 4 Other</t>
+  </si>
+  <si>
+    <t>Test 43</t>
+  </si>
+  <si>
+    <t>You are almost done!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are almost done!
+  To submit your responses, you must continue in the questionnaire by clicking the forward arrow below.  
+The information you have provided will be reviewed by our study team.  If it is determined that you are eligible to participate in the RASopathy Study, you will receive an email with further details, including instructions to log in to a secure study portal. If the team decides that you are not eligible, you will receive an email explaining why. In the meantime, you should receive an email confirming this submission.
+  Please feel free to call at any time if you have any questions regarding this protocol and ask to speak with the RASopathies Study nurse. Our toll-free phone number is 1-800-518-8474 or 301-212-5250. Thank you for your willingness to consider joining our research effort.  We could not do vital studies like this without the help of dedicated patients and families.  </t>
   </si>
 </sst>
 </file>
@@ -3643,7 +3950,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3683,6 +3990,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3705,7 +4027,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3733,11 +4055,24 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4054,16 +4389,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="88.33203125" customWidth="1"/>
+    <col min="2" max="2" width="88.33203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -4074,388 +4409,1042 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>139</v>
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>1104</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>5</v>
+      <c r="A7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="14">
+        <v>32965</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>7</v>
+      <c r="A8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>1105</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>9</v>
+      <c r="A9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="13">
+        <v>1990</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>141</v>
+      <c r="A10" s="12" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>15</v>
+      <c r="A11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>143</v>
+        <v>1107</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B13" s="5">
-        <v>33664</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>145</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="4">
-        <v>1992</v>
+        <v>18</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>147</v>
+        <v>22</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="B18" s="4">
+        <v>22015</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>1109</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>1108</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="4">
-        <v>22015</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>1112</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>1113</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>1114</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>151</v>
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>1116</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>35</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>36</v>
+        <v>1118</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>38</v>
+        <v>1120</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>152</v>
+        <v>1121</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>153</v>
+        <v>1123</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="136" x14ac:dyDescent="0.2">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+        <v>1125</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>156</v>
+        <v>1127</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>40</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>157</v>
+        <v>1129</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="153" x14ac:dyDescent="0.2">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>158</v>
+        <v>1131</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="119" x14ac:dyDescent="0.2">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>42</v>
+        <v>1133</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>42</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>159</v>
+        <v>1135</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>41</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>160</v>
+        <v>1137</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>41</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>43</v>
+        <v>1139</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>44</v>
+        <v>1140</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>45</v>
+        <v>1142</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>161</v>
+        <v>1144</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B70" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B71" s="4">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" s="15" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="15" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" s="15" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A76" s="15" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A77" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B77" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A49" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>162</v>
-      </c>
+      <c r="B78" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A88" s="3" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A89" s="15" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A90" s="15" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A91" s="15" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A92" s="15" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A93" s="15" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A94" s="15" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A95" s="15" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A96" s="15" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A97" s="15" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B97" s="8">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A98" s="15" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B98" s="8">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A99" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B99" s="8">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A100" s="15" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B100" s="8">
+        <v>4444</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A101" s="15" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B101" s="8">
+        <v>5555</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A102" s="15" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B102" s="17">
+        <v>6666</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A103" s="15" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B103" s="8">
+        <v>7777</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A104" s="15" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B104" s="8">
+        <v>8888</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A105" s="15" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A106" s="15" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A107" s="15" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A108" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A112" s="3" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="176" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A115" s="1"/>
+    </row>
+    <row r="116" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A116" s="1"/>
+    </row>
+    <row r="117" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A117" s="1"/>
+    </row>
+    <row r="118" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A118" s="1"/>
+    </row>
+    <row r="119" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A119" s="1"/>
+    </row>
+    <row r="120" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A120" s="3"/>
+      <c r="B120" s="5"/>
+    </row>
+    <row r="121" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A121" s="1"/>
+    </row>
+    <row r="122" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A122" s="1"/>
+    </row>
+    <row r="123" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A123" s="1"/>
+    </row>
+    <row r="124" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A124" s="1"/>
+    </row>
+    <row r="125" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A125" s="1"/>
+    </row>
+    <row r="126" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A126" s="1"/>
+    </row>
+    <row r="127" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A127" s="3"/>
+    </row>
+    <row r="128" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A128" s="1"/>
+    </row>
+    <row r="129" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A129" s="1"/>
+    </row>
+    <row r="130" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A130" s="1"/>
+    </row>
+    <row r="131" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A131" s="1"/>
+    </row>
+    <row r="132" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A132" s="1"/>
+    </row>
+    <row r="133" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A133" s="1"/>
+      <c r="B133" s="6"/>
+    </row>
+    <row r="134" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A134" s="1"/>
+      <c r="B134" s="6"/>
+    </row>
+    <row r="135" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A135" s="1"/>
+    </row>
+    <row r="136" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A136" s="1"/>
+    </row>
+    <row r="137" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A137" s="1"/>
+    </row>
+    <row r="138" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A138" s="1"/>
+    </row>
+    <row r="139" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A139" s="3"/>
+    </row>
+    <row r="140" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A140" s="3"/>
+    </row>
+    <row r="141" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A141" s="3"/>
+    </row>
+    <row r="142" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A142" s="3"/>
+    </row>
+    <row r="143" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A143" s="3"/>
+      <c r="B143" s="8"/>
+    </row>
+    <row r="144" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A144" s="3"/>
+    </row>
+    <row r="145" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A145" s="3"/>
+    </row>
+    <row r="146" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A146" s="3"/>
+    </row>
+    <row r="147" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A147" s="3"/>
+    </row>
+    <row r="148" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A148" s="3"/>
+    </row>
+    <row r="149" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A149" s="3"/>
+    </row>
+    <row r="150" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A150" s="3"/>
+    </row>
+    <row r="151" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A151" s="3"/>
+    </row>
+    <row r="152" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A152" s="3"/>
+    </row>
+    <row r="153" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A153" s="3"/>
+    </row>
+    <row r="154" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A154" s="3"/>
+    </row>
+    <row r="155" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A155" s="3"/>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" s="11"/>
+      <c r="B156" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B27" r:id="rId1" xr:uid="{129AAACF-20FA-9146-8ECF-B7ABF595A572}"/>
-    <hyperlink ref="B26" r:id="rId2" xr:uid="{D060E1E3-F762-DD44-A72D-77449118F9D8}"/>
+    <hyperlink ref="B19" r:id="rId1" xr:uid="{980C6B0D-F2EC-7742-BECD-CA979B616340}"/>
+    <hyperlink ref="B20" r:id="rId2" xr:uid="{6AB1EB43-B88D-0B4E-AC54-848B1B859B56}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4485,15 +5474,15 @@
     </row>
     <row r="2" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B3" s="4">
         <v>123456</v>
@@ -4501,23 +5490,23 @@
     </row>
     <row r="4" spans="1:2" ht="238" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="356" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B6" s="5"/>
     </row>
     <row r="7" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>3</v>
@@ -4525,71 +5514,71 @@
     </row>
     <row r="8" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B16" s="4">
         <v>1</v>
@@ -4597,7 +5586,7 @@
     </row>
     <row r="17" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B17" s="4">
         <v>1980</v>
@@ -4605,7 +5594,7 @@
     </row>
     <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" s="7">
         <v>29373</v>
@@ -4613,382 +5602,382 @@
     </row>
     <row r="19" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="340" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -5057,31 +6046,31 @@
     </row>
     <row r="2" spans="1:2" ht="350" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="176" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>3</v>
@@ -5089,47 +6078,47 @@
     </row>
     <row r="6" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="B11">
         <v>27</v>
@@ -5137,23 +6126,23 @@
     </row>
     <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="B14">
         <v>28</v>
@@ -5161,199 +6150,199 @@
     </row>
     <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>199</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>200</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>205</v>
+        <v>171</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>206</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>207</v>
+        <v>173</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>208</v>
+        <v>174</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>209</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>212</v>
+        <v>178</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>211</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="B39">
         <v>12345</v>
@@ -5361,15 +6350,15 @@
     </row>
     <row r="40" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="B41">
         <v>54321</v>
@@ -5377,15 +6366,15 @@
     </row>
     <row r="42" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="B43">
         <v>99</v>
@@ -5393,23 +6382,23 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
-        <v>222</v>
+        <v>188</v>
       </c>
       <c r="B46">
         <v>11</v>
@@ -5417,95 +6406,95 @@
     </row>
     <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="B49" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="B51" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="B52" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="B53" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="B55" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="B57" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -5513,7 +6502,7 @@
     </row>
     <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -5521,7 +6510,7 @@
     </row>
     <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -5529,7 +6518,7 @@
     </row>
     <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="B61">
         <v>111</v>
@@ -5537,7 +6526,7 @@
     </row>
     <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="B62">
         <v>222</v>
@@ -5545,212 +6534,212 @@
     </row>
     <row r="63" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="B63" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="B64" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="B65" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="B66" t="s">
-        <v>249</v>
+        <v>215</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="B67" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="B68" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="B69" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="B70" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="B71" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="B72" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="B73" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
-        <v>259</v>
+        <v>225</v>
       </c>
       <c r="B74" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="9" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="B75" t="s">
-        <v>262</v>
+        <v>228</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="B76" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
-        <v>265</v>
+        <v>231</v>
       </c>
       <c r="B77" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
       <c r="B78" t="s">
-        <v>268</v>
+        <v>234</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="B80" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="B81" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="B82" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="9" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="B83" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="9" t="s">
-        <v>274</v>
+        <v>240</v>
       </c>
       <c r="B84" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A85" s="9" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="B85" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="B86" t="s">
-        <v>280</v>
+        <v>246</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="9" t="s">
-        <v>281</v>
+        <v>247</v>
       </c>
       <c r="B87" t="s">
-        <v>282</v>
+        <v>248</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A88" s="9" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="B88" t="s">
-        <v>291</v>
+        <v>257</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="B89">
         <v>1223</v>
@@ -5758,79 +6747,79 @@
     </row>
     <row r="90" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A90" s="9" t="s">
-        <v>288</v>
+        <v>254</v>
       </c>
       <c r="B90" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A91" s="9" t="s">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="B91" t="s">
-        <v>292</v>
+        <v>258</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="B92" t="s">
-        <v>293</v>
+        <v>259</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="B93" t="s">
-        <v>294</v>
+        <v>260</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A94" s="9" t="s">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="B94" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A95" s="9" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="B95" t="s">
-        <v>296</v>
+        <v>262</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A96" s="9" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="B96" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="9" t="s">
-        <v>298</v>
+        <v>264</v>
       </c>
       <c r="B97" t="s">
-        <v>299</v>
+        <v>265</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A98" s="9" t="s">
-        <v>300</v>
+        <v>266</v>
       </c>
       <c r="B98" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A99" s="9" t="s">
-        <v>301</v>
+        <v>267</v>
       </c>
       <c r="B99">
         <v>123</v>
@@ -5838,7 +6827,7 @@
     </row>
     <row r="100" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A100" s="9" t="s">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="B100">
         <v>111</v>
@@ -5846,23 +6835,23 @@
     </row>
     <row r="101" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A101" s="9" t="s">
-        <v>303</v>
+        <v>269</v>
       </c>
       <c r="B101" t="s">
-        <v>309</v>
+        <v>275</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A102" s="9" t="s">
-        <v>304</v>
+        <v>270</v>
       </c>
       <c r="B102" t="s">
-        <v>310</v>
+        <v>276</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A103" s="9" t="s">
-        <v>305</v>
+        <v>271</v>
       </c>
       <c r="B103">
         <v>1234</v>
@@ -5870,7 +6859,7 @@
     </row>
     <row r="104" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A104" s="9" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="B104">
         <v>657</v>
@@ -5878,31 +6867,31 @@
     </row>
     <row r="105" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A105" s="9" t="s">
-        <v>307</v>
+        <v>273</v>
       </c>
       <c r="B105" t="s">
-        <v>311</v>
+        <v>277</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A106" s="9" t="s">
-        <v>312</v>
+        <v>278</v>
       </c>
       <c r="B106" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
-        <v>313</v>
+        <v>279</v>
       </c>
       <c r="B107" t="s">
-        <v>314</v>
+        <v>280</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A108" s="9" t="s">
-        <v>315</v>
+        <v>281</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -5910,7 +6899,7 @@
     </row>
     <row r="109" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A109" s="9" t="s">
-        <v>316</v>
+        <v>282</v>
       </c>
       <c r="B109">
         <v>111</v>
@@ -5918,7 +6907,7 @@
     </row>
     <row r="110" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A110" s="9" t="s">
-        <v>317</v>
+        <v>283</v>
       </c>
       <c r="B110">
         <v>1111</v>
@@ -5926,7 +6915,7 @@
     </row>
     <row r="111" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A111" s="9" t="s">
-        <v>318</v>
+        <v>284</v>
       </c>
       <c r="B111">
         <v>2</v>
@@ -5934,7 +6923,7 @@
     </row>
     <row r="112" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A112" s="9" t="s">
-        <v>319</v>
+        <v>285</v>
       </c>
       <c r="B112">
         <v>222</v>
@@ -5942,7 +6931,7 @@
     </row>
     <row r="113" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A113" s="9" t="s">
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="B113">
         <v>2222</v>
@@ -5950,7 +6939,7 @@
     </row>
     <row r="114" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A114" s="9" t="s">
-        <v>321</v>
+        <v>287</v>
       </c>
       <c r="B114">
         <v>333</v>
@@ -5958,7 +6947,7 @@
     </row>
     <row r="115" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A115" s="9" t="s">
-        <v>322</v>
+        <v>288</v>
       </c>
       <c r="B115">
         <v>3333</v>
@@ -5966,63 +6955,63 @@
     </row>
     <row r="116" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="9" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="B116" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A117" s="9" t="s">
-        <v>324</v>
+        <v>290</v>
       </c>
       <c r="B117" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="9" t="s">
-        <v>325</v>
+        <v>291</v>
       </c>
       <c r="B118" t="s">
-        <v>326</v>
+        <v>292</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="9" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="B119" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A120" s="9" t="s">
-        <v>328</v>
+        <v>294</v>
       </c>
       <c r="B120" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="9" t="s">
-        <v>329</v>
+        <v>295</v>
       </c>
       <c r="B121" t="s">
-        <v>309</v>
+        <v>275</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="9" t="s">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="B122" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="9" t="s">
-        <v>331</v>
+        <v>297</v>
       </c>
       <c r="B123">
         <v>6</v>
@@ -6030,31 +7019,31 @@
     </row>
     <row r="124" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A124" s="9" t="s">
-        <v>332</v>
+        <v>298</v>
       </c>
       <c r="B124" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A125" s="9" t="s">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="B125" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A127" s="9" t="s">
-        <v>334</v>
+        <v>300</v>
       </c>
       <c r="B127" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A128" s="9" t="s">
-        <v>335</v>
+        <v>301</v>
       </c>
       <c r="B128">
         <v>123</v>
@@ -6062,7 +7051,7 @@
     </row>
     <row r="129" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A129" s="9" t="s">
-        <v>336</v>
+        <v>302</v>
       </c>
       <c r="B129">
         <v>2223</v>
@@ -6070,31 +7059,31 @@
     </row>
     <row r="131" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A131" s="9" t="s">
-        <v>337</v>
+        <v>303</v>
       </c>
       <c r="B131" t="s">
-        <v>339</v>
+        <v>305</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A132" s="9" t="s">
-        <v>338</v>
+        <v>304</v>
       </c>
       <c r="B132" t="s">
-        <v>340</v>
+        <v>306</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="9" t="s">
-        <v>341</v>
+        <v>307</v>
       </c>
       <c r="B133" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A134" s="9" t="s">
-        <v>342</v>
+        <v>308</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -6102,7 +7091,7 @@
     </row>
     <row r="135" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A135" s="9" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="B135">
         <v>1111</v>
@@ -6110,7 +7099,7 @@
     </row>
     <row r="136" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A136" s="9" t="s">
-        <v>344</v>
+        <v>310</v>
       </c>
       <c r="B136">
         <v>2222</v>
@@ -6118,7 +7107,7 @@
     </row>
     <row r="138" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A138" s="9" t="s">
-        <v>345</v>
+        <v>311</v>
       </c>
       <c r="B138">
         <v>3333</v>
@@ -6126,15 +7115,15 @@
     </row>
     <row r="139" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A139" s="9" t="s">
-        <v>346</v>
+        <v>312</v>
       </c>
       <c r="B139" t="s">
-        <v>348</v>
+        <v>314</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A140" s="9" t="s">
-        <v>347</v>
+        <v>313</v>
       </c>
       <c r="B140">
         <v>4444</v>
@@ -6142,607 +7131,607 @@
     </row>
     <row r="141" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="9" t="s">
-        <v>349</v>
+        <v>315</v>
       </c>
       <c r="B141" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A142" s="9" t="s">
-        <v>350</v>
+        <v>316</v>
       </c>
       <c r="B142" t="s">
-        <v>355</v>
+        <v>321</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A143" s="9" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="B143" t="s">
-        <v>356</v>
+        <v>322</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A144" s="9" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="B144" t="s">
-        <v>357</v>
+        <v>323</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A145" s="9" t="s">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="B145" t="s">
-        <v>358</v>
+        <v>324</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A146" s="9" t="s">
-        <v>354</v>
+        <v>320</v>
       </c>
       <c r="B146" t="s">
-        <v>359</v>
+        <v>325</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A147" s="9" t="s">
-        <v>360</v>
+        <v>326</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>360</v>
+        <v>326</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A148" s="9" t="s">
-        <v>361</v>
+        <v>327</v>
       </c>
       <c r="B148" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="9" t="s">
-        <v>362</v>
+        <v>328</v>
       </c>
       <c r="B149" t="s">
-        <v>365</v>
+        <v>331</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="9" t="s">
-        <v>363</v>
+        <v>329</v>
       </c>
       <c r="B150" t="s">
-        <v>366</v>
+        <v>332</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="9" t="s">
-        <v>364</v>
+        <v>330</v>
       </c>
       <c r="B151" t="s">
-        <v>367</v>
+        <v>333</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A152" s="9" t="s">
-        <v>375</v>
+        <v>341</v>
       </c>
       <c r="B152" t="s">
-        <v>368</v>
+        <v>334</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A153" s="9" t="s">
-        <v>376</v>
+        <v>342</v>
       </c>
       <c r="B153" t="s">
-        <v>369</v>
+        <v>335</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A154" s="9" t="s">
-        <v>377</v>
+        <v>343</v>
       </c>
       <c r="B154" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A155" s="9" t="s">
-        <v>378</v>
+        <v>344</v>
       </c>
       <c r="B155" t="s">
-        <v>371</v>
+        <v>337</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A156" s="9" t="s">
-        <v>379</v>
+        <v>345</v>
       </c>
       <c r="B156" t="s">
-        <v>372</v>
+        <v>338</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A157" s="9" t="s">
-        <v>380</v>
+        <v>346</v>
       </c>
       <c r="B157" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A158" s="9" t="s">
-        <v>381</v>
+        <v>347</v>
       </c>
       <c r="B158" t="s">
-        <v>374</v>
+        <v>340</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="9" t="s">
-        <v>382</v>
+        <v>348</v>
       </c>
       <c r="B159" t="s">
-        <v>383</v>
+        <v>349</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="9" t="s">
-        <v>384</v>
+        <v>350</v>
       </c>
       <c r="B160" t="s">
-        <v>383</v>
+        <v>349</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="9" t="s">
-        <v>385</v>
+        <v>351</v>
       </c>
       <c r="B161" t="s">
-        <v>383</v>
+        <v>349</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A162" s="9" t="s">
-        <v>386</v>
+        <v>352</v>
       </c>
       <c r="B162" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="9" t="s">
-        <v>387</v>
+        <v>353</v>
       </c>
       <c r="B163" t="s">
-        <v>408</v>
+        <v>374</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>388</v>
+        <v>354</v>
       </c>
       <c r="B164" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>389</v>
+        <v>355</v>
       </c>
       <c r="B165" t="s">
-        <v>409</v>
+        <v>375</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>390</v>
+        <v>356</v>
       </c>
       <c r="B166" t="s">
-        <v>411</v>
+        <v>377</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>391</v>
+        <v>357</v>
       </c>
       <c r="B167" t="s">
-        <v>412</v>
+        <v>378</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>392</v>
+        <v>358</v>
       </c>
       <c r="B168" t="s">
-        <v>413</v>
+        <v>379</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>393</v>
+        <v>359</v>
       </c>
       <c r="B169" t="s">
-        <v>414</v>
+        <v>380</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>394</v>
+        <v>360</v>
       </c>
       <c r="B170" t="s">
-        <v>415</v>
+        <v>381</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>395</v>
+        <v>361</v>
       </c>
       <c r="B171" t="s">
-        <v>416</v>
+        <v>382</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>396</v>
+        <v>362</v>
       </c>
       <c r="B172" t="s">
-        <v>417</v>
+        <v>383</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>397</v>
+        <v>363</v>
       </c>
       <c r="B173" t="s">
-        <v>418</v>
+        <v>384</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>398</v>
+        <v>364</v>
       </c>
       <c r="B174" t="s">
-        <v>419</v>
+        <v>385</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>399</v>
+        <v>365</v>
       </c>
       <c r="B175" t="s">
-        <v>420</v>
+        <v>386</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>400</v>
+        <v>366</v>
       </c>
       <c r="B176" t="s">
-        <v>421</v>
+        <v>387</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>401</v>
+        <v>367</v>
       </c>
       <c r="B177" t="s">
-        <v>422</v>
+        <v>388</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>402</v>
+        <v>368</v>
       </c>
       <c r="B178" t="s">
-        <v>423</v>
+        <v>389</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>403</v>
+        <v>369</v>
       </c>
       <c r="B179" t="s">
-        <v>424</v>
+        <v>390</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="B180" t="s">
-        <v>425</v>
+        <v>391</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>405</v>
+        <v>371</v>
       </c>
       <c r="B181" t="s">
-        <v>426</v>
+        <v>392</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>406</v>
+        <v>372</v>
       </c>
       <c r="B182" t="s">
-        <v>427</v>
+        <v>393</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>407</v>
+        <v>373</v>
       </c>
       <c r="B183" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>429</v>
+        <v>395</v>
       </c>
       <c r="B184" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>430</v>
+        <v>396</v>
       </c>
       <c r="B185" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>431</v>
+        <v>397</v>
       </c>
       <c r="B186" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>432</v>
+        <v>398</v>
       </c>
       <c r="B187" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>433</v>
+        <v>399</v>
       </c>
       <c r="B188" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>434</v>
+        <v>400</v>
       </c>
       <c r="B189" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>435</v>
+        <v>401</v>
       </c>
       <c r="B190" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>436</v>
+        <v>402</v>
       </c>
       <c r="B191" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>437</v>
+        <v>403</v>
       </c>
       <c r="B192" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>438</v>
+        <v>404</v>
       </c>
       <c r="B193" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>439</v>
+        <v>405</v>
       </c>
       <c r="B194" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>440</v>
+        <v>406</v>
       </c>
       <c r="B195" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>441</v>
+        <v>407</v>
       </c>
       <c r="B196" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>442</v>
+        <v>408</v>
       </c>
       <c r="B197" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>443</v>
+        <v>409</v>
       </c>
       <c r="B198" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>444</v>
+        <v>410</v>
       </c>
       <c r="B199" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>445</v>
+        <v>411</v>
       </c>
       <c r="B200" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>446</v>
+        <v>412</v>
       </c>
       <c r="B201" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>447</v>
+        <v>413</v>
       </c>
       <c r="B202" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>448</v>
+        <v>414</v>
       </c>
       <c r="B203" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>449</v>
+        <v>415</v>
       </c>
       <c r="B204" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A205" s="9" t="s">
-        <v>450</v>
+        <v>416</v>
       </c>
       <c r="B205" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>451</v>
+        <v>417</v>
       </c>
       <c r="B206" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>452</v>
+        <v>418</v>
       </c>
       <c r="B207" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>453</v>
+        <v>419</v>
       </c>
       <c r="B208" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>454</v>
+        <v>420</v>
       </c>
       <c r="B209" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>455</v>
+        <v>421</v>
       </c>
       <c r="B210" t="s">
-        <v>457</v>
+        <v>423</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>456</v>
+        <v>422</v>
       </c>
       <c r="B211" t="s">
-        <v>458</v>
+        <v>424</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>459</v>
+        <v>425</v>
       </c>
       <c r="B212" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>460</v>
+        <v>426</v>
       </c>
       <c r="B213" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>461</v>
+        <v>427</v>
       </c>
       <c r="B214" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>462</v>
+        <v>428</v>
       </c>
       <c r="B215" t="s">
-        <v>464</v>
+        <v>430</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>463</v>
+        <v>429</v>
       </c>
       <c r="B216">
         <v>2</v>
@@ -6750,167 +7739,167 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>465</v>
+        <v>431</v>
       </c>
       <c r="B217" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>466</v>
+        <v>432</v>
       </c>
       <c r="B218" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>467</v>
+        <v>433</v>
       </c>
       <c r="B219" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>468</v>
+        <v>434</v>
       </c>
       <c r="B220" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>469</v>
+        <v>435</v>
       </c>
       <c r="B221" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>470</v>
+        <v>436</v>
       </c>
       <c r="B222" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>471</v>
+        <v>437</v>
       </c>
       <c r="B223" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>472</v>
+        <v>438</v>
       </c>
       <c r="B224" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>473</v>
+        <v>439</v>
       </c>
       <c r="B225" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>474</v>
+        <v>440</v>
       </c>
       <c r="B226" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>475</v>
+        <v>441</v>
       </c>
       <c r="B227" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>476</v>
+        <v>442</v>
       </c>
       <c r="B228" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>477</v>
+        <v>443</v>
       </c>
       <c r="B229" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>478</v>
+        <v>444</v>
       </c>
       <c r="B230" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>479</v>
+        <v>445</v>
       </c>
       <c r="B231" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>480</v>
+        <v>446</v>
       </c>
       <c r="B232" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>481</v>
+        <v>447</v>
       </c>
       <c r="B233" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>482</v>
+        <v>448</v>
       </c>
       <c r="B234" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>483</v>
+        <v>449</v>
       </c>
       <c r="B235" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>484</v>
+        <v>450</v>
       </c>
       <c r="B236" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>485</v>
+        <v>451</v>
       </c>
       <c r="B237">
         <v>1</v>
@@ -6918,15 +7907,15 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>486</v>
+        <v>452</v>
       </c>
       <c r="B238" t="s">
-        <v>489</v>
+        <v>455</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>487</v>
+        <v>453</v>
       </c>
       <c r="B239">
         <v>123</v>
@@ -6934,31 +7923,31 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>488</v>
+        <v>454</v>
       </c>
       <c r="B240" t="s">
-        <v>490</v>
+        <v>456</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>491</v>
+        <v>457</v>
       </c>
       <c r="B241" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>492</v>
+        <v>458</v>
       </c>
       <c r="B242" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>493</v>
+        <v>459</v>
       </c>
       <c r="B243">
         <v>1</v>
@@ -6966,166 +7955,166 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>494</v>
+        <v>460</v>
       </c>
       <c r="B244" t="s">
-        <v>496</v>
+        <v>462</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>495</v>
+        <v>461</v>
       </c>
       <c r="B245" t="s">
-        <v>497</v>
+        <v>463</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>498</v>
+        <v>464</v>
       </c>
       <c r="B246" t="s">
-        <v>501</v>
+        <v>467</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>499</v>
+        <v>465</v>
       </c>
       <c r="B247" t="s">
-        <v>502</v>
+        <v>468</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>500</v>
+        <v>466</v>
       </c>
       <c r="B248" t="s">
-        <v>503</v>
+        <v>469</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>504</v>
+        <v>470</v>
       </c>
       <c r="B249" t="s">
-        <v>505</v>
+        <v>471</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>506</v>
+        <v>472</v>
       </c>
       <c r="B250" t="s">
-        <v>507</v>
+        <v>473</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>508</v>
+        <v>474</v>
       </c>
       <c r="B251" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
       <c r="B252" t="s">
-        <v>510</v>
+        <v>476</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>511</v>
+        <v>477</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>512</v>
+        <v>478</v>
       </c>
       <c r="B254" t="s">
-        <v>515</v>
+        <v>481</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>513</v>
+        <v>479</v>
       </c>
       <c r="B255" t="s">
-        <v>518</v>
+        <v>484</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>514</v>
+        <v>480</v>
       </c>
       <c r="B256" t="s">
-        <v>519</v>
+        <v>485</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>516</v>
+        <v>482</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>517</v>
+        <v>483</v>
       </c>
       <c r="B258" t="s">
-        <v>521</v>
+        <v>487</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>517</v>
+        <v>483</v>
       </c>
       <c r="B259" t="s">
-        <v>520</v>
+        <v>486</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>522</v>
+        <v>488</v>
       </c>
       <c r="B260" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>523</v>
+        <v>489</v>
       </c>
       <c r="B261" t="s">
-        <v>526</v>
+        <v>492</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>524</v>
+        <v>490</v>
       </c>
       <c r="B262" t="s">
-        <v>527</v>
+        <v>493</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>528</v>
+        <v>494</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>529</v>
+        <v>495</v>
       </c>
       <c r="B264" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>530</v>
+        <v>496</v>
       </c>
       <c r="B265">
         <v>1</v>
@@ -7133,17 +8122,17 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>531</v>
+        <v>497</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>532</v>
+        <v>498</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>533</v>
+        <v>499</v>
       </c>
       <c r="B268">
         <v>1</v>
@@ -7151,2834 +8140,2834 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>534</v>
+        <v>500</v>
       </c>
       <c r="B269" t="s">
-        <v>200</v>
+        <v>166</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>535</v>
+        <v>501</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>536</v>
+        <v>502</v>
       </c>
       <c r="B271" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>537</v>
+        <v>503</v>
       </c>
       <c r="B272" t="s">
-        <v>546</v>
+        <v>512</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>538</v>
+        <v>504</v>
       </c>
       <c r="B273" t="s">
-        <v>547</v>
+        <v>513</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>539</v>
+        <v>505</v>
       </c>
       <c r="B274" t="s">
-        <v>548</v>
+        <v>514</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="B275" t="s">
-        <v>549</v>
+        <v>515</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>541</v>
+        <v>507</v>
       </c>
       <c r="B276" t="s">
-        <v>550</v>
+        <v>516</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>542</v>
+        <v>508</v>
       </c>
       <c r="B277" t="s">
-        <v>551</v>
+        <v>517</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>543</v>
+        <v>509</v>
       </c>
       <c r="B278" t="s">
-        <v>552</v>
+        <v>518</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>544</v>
+        <v>510</v>
       </c>
       <c r="B279" t="s">
-        <v>553</v>
+        <v>519</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>545</v>
+        <v>511</v>
       </c>
       <c r="B280" t="s">
-        <v>554</v>
+        <v>520</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>555</v>
+        <v>521</v>
       </c>
       <c r="B281" t="s">
-        <v>558</v>
+        <v>524</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>556</v>
+        <v>522</v>
       </c>
       <c r="B282" t="s">
-        <v>559</v>
+        <v>525</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>556</v>
+        <v>522</v>
       </c>
       <c r="B283" t="s">
-        <v>560</v>
+        <v>526</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>557</v>
+        <v>523</v>
       </c>
       <c r="B284" t="s">
-        <v>561</v>
+        <v>527</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>562</v>
+        <v>528</v>
       </c>
       <c r="B285" t="s">
-        <v>563</v>
+        <v>529</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>564</v>
+        <v>530</v>
       </c>
       <c r="B286" t="s">
-        <v>567</v>
+        <v>533</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>565</v>
+        <v>531</v>
       </c>
       <c r="B287" t="s">
-        <v>568</v>
+        <v>534</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>566</v>
+        <v>532</v>
       </c>
       <c r="B288" t="s">
-        <v>569</v>
+        <v>535</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>570</v>
+        <v>536</v>
       </c>
       <c r="B289" t="s">
-        <v>570</v>
+        <v>536</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>571</v>
+        <v>537</v>
       </c>
       <c r="B290" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>572</v>
+        <v>538</v>
       </c>
       <c r="B291" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>573</v>
+        <v>539</v>
       </c>
       <c r="B292" t="s">
-        <v>575</v>
+        <v>541</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>574</v>
+        <v>540</v>
       </c>
       <c r="B293" t="s">
-        <v>576</v>
+        <v>542</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>577</v>
+        <v>543</v>
       </c>
       <c r="B294" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>578</v>
+        <v>544</v>
       </c>
       <c r="B295" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>579</v>
+        <v>545</v>
       </c>
       <c r="B296" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>580</v>
+        <v>546</v>
       </c>
       <c r="B297" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>581</v>
+        <v>547</v>
       </c>
       <c r="B298" t="s">
-        <v>581</v>
+        <v>547</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>582</v>
+        <v>548</v>
       </c>
       <c r="B299" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>583</v>
+        <v>549</v>
       </c>
       <c r="B300" t="s">
-        <v>586</v>
+        <v>552</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>584</v>
+        <v>550</v>
       </c>
       <c r="B301" t="s">
-        <v>588</v>
+        <v>554</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>585</v>
+        <v>551</v>
       </c>
       <c r="B302" t="s">
-        <v>587</v>
+        <v>553</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>589</v>
+        <v>555</v>
       </c>
       <c r="B303" t="s">
-        <v>590</v>
+        <v>556</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>591</v>
+        <v>557</v>
       </c>
       <c r="B304" t="s">
-        <v>592</v>
+        <v>558</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>593</v>
+        <v>559</v>
       </c>
       <c r="B305" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>594</v>
+        <v>560</v>
       </c>
       <c r="B306" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>595</v>
+        <v>561</v>
       </c>
       <c r="B307" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>596</v>
+        <v>562</v>
       </c>
       <c r="B308" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>597</v>
+        <v>563</v>
       </c>
       <c r="B309" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>598</v>
+        <v>564</v>
       </c>
       <c r="B310" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>599</v>
+        <v>565</v>
       </c>
       <c r="B311" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>600</v>
+        <v>566</v>
       </c>
       <c r="B312" t="s">
-        <v>601</v>
+        <v>567</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>602</v>
+        <v>568</v>
       </c>
       <c r="B313" t="s">
-        <v>601</v>
+        <v>567</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>603</v>
+        <v>569</v>
       </c>
       <c r="B314" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>604</v>
+        <v>570</v>
       </c>
       <c r="B315" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>605</v>
+        <v>571</v>
       </c>
       <c r="B316" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>606</v>
+        <v>572</v>
       </c>
       <c r="B317" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>607</v>
+        <v>573</v>
       </c>
       <c r="B318" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>608</v>
+        <v>574</v>
       </c>
       <c r="B319" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>609</v>
+        <v>575</v>
       </c>
       <c r="B320" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>610</v>
+        <v>576</v>
       </c>
       <c r="B321" t="s">
-        <v>611</v>
+        <v>577</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>612</v>
+        <v>578</v>
       </c>
       <c r="B322" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A323" s="9" t="s">
-        <v>613</v>
+        <v>579</v>
       </c>
       <c r="B323" t="s">
-        <v>611</v>
+        <v>577</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A324" s="9" t="s">
-        <v>614</v>
+        <v>580</v>
       </c>
       <c r="B324" t="s">
-        <v>611</v>
+        <v>577</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>615</v>
+        <v>581</v>
       </c>
       <c r="B325" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>616</v>
+        <v>582</v>
       </c>
       <c r="B326" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>617</v>
+        <v>583</v>
       </c>
       <c r="B327" t="s">
-        <v>611</v>
+        <v>577</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>618</v>
+        <v>584</v>
       </c>
       <c r="B328" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>619</v>
+        <v>585</v>
       </c>
       <c r="B329" t="s">
-        <v>620</v>
+        <v>586</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>621</v>
+        <v>587</v>
       </c>
       <c r="B330" t="s">
-        <v>622</v>
+        <v>588</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>623</v>
+        <v>589</v>
       </c>
       <c r="B331" t="s">
-        <v>622</v>
+        <v>588</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>624</v>
+        <v>590</v>
       </c>
       <c r="B332" t="s">
-        <v>622</v>
+        <v>588</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>625</v>
+        <v>591</v>
       </c>
       <c r="B333" t="s">
-        <v>622</v>
+        <v>588</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>626</v>
+        <v>592</v>
       </c>
       <c r="B334" t="s">
-        <v>622</v>
+        <v>588</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>627</v>
+        <v>593</v>
       </c>
       <c r="B335" t="s">
-        <v>622</v>
+        <v>588</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>628</v>
+        <v>594</v>
       </c>
       <c r="B336" t="s">
-        <v>622</v>
+        <v>588</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>629</v>
+        <v>595</v>
       </c>
       <c r="B337" t="s">
-        <v>622</v>
+        <v>588</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>630</v>
+        <v>596</v>
       </c>
       <c r="B338" t="s">
-        <v>622</v>
+        <v>588</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>631</v>
+        <v>597</v>
       </c>
       <c r="B339" t="s">
-        <v>622</v>
+        <v>588</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>632</v>
+        <v>598</v>
       </c>
       <c r="B340" t="s">
-        <v>622</v>
+        <v>588</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>632</v>
+        <v>598</v>
       </c>
       <c r="B341" t="s">
-        <v>622</v>
+        <v>588</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>633</v>
+        <v>599</v>
       </c>
       <c r="B342" t="s">
-        <v>622</v>
+        <v>588</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>634</v>
+        <v>600</v>
       </c>
       <c r="B343" t="s">
-        <v>622</v>
+        <v>588</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>635</v>
+        <v>601</v>
       </c>
       <c r="B344" t="s">
-        <v>622</v>
+        <v>588</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>636</v>
+        <v>602</v>
       </c>
       <c r="B345" t="s">
-        <v>636</v>
+        <v>602</v>
       </c>
     </row>
     <row r="346" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A346" s="9" t="s">
-        <v>637</v>
+        <v>603</v>
       </c>
       <c r="B346" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="347" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A347" s="9" t="s">
-        <v>638</v>
+        <v>604</v>
       </c>
       <c r="B347" t="s">
-        <v>645</v>
+        <v>611</v>
       </c>
     </row>
     <row r="348" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A348" s="9" t="s">
-        <v>639</v>
+        <v>605</v>
       </c>
       <c r="B348" t="s">
-        <v>646</v>
+        <v>612</v>
       </c>
     </row>
     <row r="349" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A349" s="9" t="s">
-        <v>640</v>
+        <v>606</v>
       </c>
       <c r="B349" t="s">
-        <v>647</v>
+        <v>613</v>
       </c>
     </row>
     <row r="350" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A350" s="9" t="s">
-        <v>641</v>
+        <v>607</v>
       </c>
       <c r="B350" t="s">
-        <v>648</v>
+        <v>614</v>
       </c>
     </row>
     <row r="351" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A351" s="9" t="s">
-        <v>642</v>
+        <v>608</v>
       </c>
       <c r="B351" t="s">
-        <v>649</v>
+        <v>615</v>
       </c>
     </row>
     <row r="352" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A352" s="9" t="s">
-        <v>643</v>
+        <v>609</v>
       </c>
       <c r="B352" t="s">
-        <v>650</v>
+        <v>616</v>
       </c>
     </row>
     <row r="353" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A353" s="9" t="s">
-        <v>644</v>
+        <v>610</v>
       </c>
       <c r="B353" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
     </row>
     <row r="354" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A354" s="9" t="s">
-        <v>651</v>
+        <v>617</v>
       </c>
     </row>
     <row r="355" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A355" s="9" t="s">
-        <v>651</v>
+        <v>617</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>651</v>
+        <v>617</v>
       </c>
       <c r="B356" t="s">
-        <v>659</v>
+        <v>625</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>652</v>
+        <v>618</v>
       </c>
       <c r="B357" t="s">
-        <v>660</v>
+        <v>626</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>653</v>
+        <v>619</v>
       </c>
       <c r="B358" t="s">
-        <v>661</v>
+        <v>627</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>654</v>
+        <v>620</v>
       </c>
       <c r="B359" t="s">
-        <v>662</v>
+        <v>628</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>655</v>
+        <v>621</v>
       </c>
       <c r="B360" t="s">
-        <v>663</v>
+        <v>629</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>656</v>
+        <v>622</v>
       </c>
       <c r="B361" t="s">
-        <v>664</v>
+        <v>630</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>657</v>
+        <v>623</v>
       </c>
       <c r="B362" t="s">
-        <v>665</v>
+        <v>631</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>658</v>
+        <v>624</v>
       </c>
       <c r="B363" t="s">
-        <v>666</v>
+        <v>632</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>667</v>
+        <v>633</v>
       </c>
       <c r="B364" t="s">
-        <v>667</v>
+        <v>633</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>668</v>
+        <v>634</v>
       </c>
       <c r="B365" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>669</v>
+        <v>635</v>
       </c>
       <c r="B366" t="s">
-        <v>672</v>
+        <v>638</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>670</v>
+        <v>636</v>
       </c>
       <c r="B367" t="s">
-        <v>673</v>
+        <v>639</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>671</v>
+        <v>637</v>
       </c>
       <c r="B368" t="s">
-        <v>674</v>
+        <v>640</v>
       </c>
     </row>
     <row r="369" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A369" s="9" t="s">
-        <v>675</v>
+        <v>641</v>
       </c>
       <c r="B369" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>676</v>
+        <v>642</v>
       </c>
       <c r="B370" t="s">
-        <v>680</v>
+        <v>646</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>677</v>
+        <v>643</v>
       </c>
       <c r="B371" t="s">
-        <v>681</v>
+        <v>647</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>678</v>
+        <v>644</v>
       </c>
       <c r="B372" t="s">
-        <v>682</v>
+        <v>648</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>679</v>
+        <v>645</v>
       </c>
       <c r="B373" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>683</v>
+        <v>649</v>
       </c>
       <c r="B374" t="s">
-        <v>691</v>
+        <v>657</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>684</v>
+        <v>650</v>
       </c>
       <c r="B375" t="s">
-        <v>692</v>
+        <v>658</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>685</v>
+        <v>651</v>
       </c>
       <c r="B376" t="s">
-        <v>693</v>
+        <v>659</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>686</v>
+        <v>652</v>
       </c>
       <c r="B377" t="s">
-        <v>694</v>
+        <v>660</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>687</v>
+        <v>653</v>
       </c>
       <c r="B378" t="s">
-        <v>695</v>
+        <v>661</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>688</v>
+        <v>654</v>
       </c>
       <c r="B379" t="s">
-        <v>696</v>
+        <v>662</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>689</v>
+        <v>655</v>
       </c>
       <c r="B380" t="s">
-        <v>697</v>
+        <v>663</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>690</v>
+        <v>656</v>
       </c>
       <c r="B381" t="s">
-        <v>698</v>
+        <v>664</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>699</v>
+        <v>665</v>
       </c>
       <c r="B382" t="s">
-        <v>699</v>
+        <v>665</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>700</v>
+        <v>666</v>
       </c>
       <c r="B383" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>701</v>
+        <v>667</v>
       </c>
       <c r="B384" t="s">
-        <v>704</v>
+        <v>670</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>702</v>
+        <v>668</v>
       </c>
       <c r="B385" t="s">
-        <v>705</v>
+        <v>671</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>703</v>
+        <v>669</v>
       </c>
       <c r="B386" t="s">
-        <v>706</v>
+        <v>672</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>707</v>
+        <v>673</v>
       </c>
       <c r="B387" t="s">
-        <v>714</v>
+        <v>680</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>708</v>
+        <v>674</v>
       </c>
       <c r="B388" t="s">
-        <v>715</v>
+        <v>681</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>709</v>
+        <v>675</v>
       </c>
       <c r="B389" t="s">
-        <v>716</v>
+        <v>682</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>710</v>
+        <v>676</v>
       </c>
       <c r="B390" t="s">
-        <v>717</v>
+        <v>683</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>711</v>
+        <v>677</v>
       </c>
       <c r="B391" t="s">
-        <v>718</v>
+        <v>684</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>712</v>
+        <v>678</v>
       </c>
       <c r="B392" t="s">
-        <v>719</v>
+        <v>685</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>713</v>
+        <v>679</v>
       </c>
       <c r="B393" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>720</v>
+        <v>686</v>
       </c>
       <c r="B394" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>721</v>
+        <v>687</v>
       </c>
       <c r="B395" t="s">
-        <v>726</v>
+        <v>692</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>722</v>
+        <v>688</v>
       </c>
       <c r="B396" t="s">
-        <v>727</v>
+        <v>693</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>723</v>
+        <v>689</v>
       </c>
       <c r="B397" t="s">
-        <v>728</v>
+        <v>694</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>724</v>
+        <v>690</v>
       </c>
       <c r="B398" t="s">
-        <v>729</v>
+        <v>695</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>725</v>
+        <v>691</v>
       </c>
       <c r="B399" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>730</v>
+        <v>696</v>
       </c>
       <c r="B400" t="s">
-        <v>735</v>
+        <v>701</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>731</v>
+        <v>697</v>
       </c>
       <c r="B401" t="s">
-        <v>736</v>
+        <v>702</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>732</v>
+        <v>698</v>
       </c>
       <c r="B402" t="s">
-        <v>737</v>
+        <v>703</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>733</v>
+        <v>699</v>
       </c>
       <c r="B403" t="s">
-        <v>738</v>
+        <v>704</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>734</v>
+        <v>700</v>
       </c>
       <c r="B404" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>739</v>
+        <v>705</v>
       </c>
       <c r="B405" t="s">
-        <v>740</v>
+        <v>706</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>741</v>
+        <v>707</v>
       </c>
       <c r="B406" t="s">
-        <v>746</v>
+        <v>712</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>742</v>
+        <v>708</v>
       </c>
       <c r="B407" t="s">
-        <v>747</v>
+        <v>713</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>743</v>
+        <v>709</v>
       </c>
       <c r="B408" t="s">
-        <v>748</v>
+        <v>714</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>744</v>
+        <v>710</v>
       </c>
       <c r="B409" t="s">
-        <v>749</v>
+        <v>715</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>745</v>
+        <v>711</v>
       </c>
       <c r="B410" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
     </row>
     <row r="411" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A411" s="9" t="s">
-        <v>750</v>
+        <v>716</v>
       </c>
       <c r="B411" s="9" t="s">
-        <v>750</v>
+        <v>716</v>
       </c>
     </row>
     <row r="412" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A412" s="9" t="s">
-        <v>751</v>
+        <v>717</v>
       </c>
       <c r="B412" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>752</v>
+        <v>718</v>
       </c>
       <c r="B413" t="s">
-        <v>755</v>
+        <v>721</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>753</v>
+        <v>719</v>
       </c>
       <c r="B414" t="s">
-        <v>756</v>
+        <v>722</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>754</v>
+        <v>720</v>
       </c>
       <c r="B415" t="s">
-        <v>757</v>
+        <v>723</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>758</v>
+        <v>724</v>
       </c>
       <c r="B416" t="s">
-        <v>762</v>
+        <v>728</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>759</v>
+        <v>725</v>
       </c>
       <c r="B417" t="s">
-        <v>763</v>
+        <v>729</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>760</v>
+        <v>726</v>
       </c>
       <c r="B418" t="s">
-        <v>764</v>
+        <v>730</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>761</v>
+        <v>727</v>
       </c>
       <c r="B419" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>765</v>
+        <v>731</v>
       </c>
       <c r="B420" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="421" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A421" s="9" t="s">
-        <v>766</v>
+        <v>732</v>
       </c>
       <c r="B421" t="s">
-        <v>770</v>
+        <v>736</v>
       </c>
     </row>
     <row r="422" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A422" s="9" t="s">
-        <v>767</v>
+        <v>733</v>
       </c>
       <c r="B422" t="s">
-        <v>771</v>
+        <v>737</v>
       </c>
     </row>
     <row r="423" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A423" s="9" t="s">
-        <v>768</v>
+        <v>734</v>
       </c>
       <c r="B423" t="s">
-        <v>772</v>
+        <v>738</v>
       </c>
     </row>
     <row r="424" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A424" s="9" t="s">
-        <v>769</v>
+        <v>735</v>
       </c>
       <c r="B424" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
     </row>
     <row r="425" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A425" s="9" t="s">
-        <v>773</v>
+        <v>739</v>
       </c>
       <c r="B425" t="s">
-        <v>779</v>
+        <v>745</v>
       </c>
     </row>
     <row r="426" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A426" s="9" t="s">
-        <v>774</v>
+        <v>740</v>
       </c>
       <c r="B426" t="s">
-        <v>780</v>
+        <v>746</v>
       </c>
     </row>
     <row r="427" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A427" s="9" t="s">
-        <v>775</v>
+        <v>741</v>
       </c>
       <c r="B427" t="s">
-        <v>781</v>
+        <v>747</v>
       </c>
     </row>
     <row r="428" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A428" s="9" t="s">
-        <v>776</v>
+        <v>742</v>
       </c>
       <c r="B428" t="s">
-        <v>782</v>
+        <v>748</v>
       </c>
     </row>
     <row r="429" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A429" s="9" t="s">
-        <v>777</v>
+        <v>743</v>
       </c>
       <c r="B429" t="s">
-        <v>783</v>
+        <v>749</v>
       </c>
     </row>
     <row r="430" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A430" s="9" t="s">
-        <v>778</v>
+        <v>744</v>
       </c>
       <c r="B430" t="s">
-        <v>784</v>
+        <v>750</v>
       </c>
     </row>
     <row r="431" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A431" s="9" t="s">
-        <v>785</v>
+        <v>751</v>
       </c>
       <c r="B431" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="432" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A432" s="9" t="s">
-        <v>786</v>
+        <v>752</v>
       </c>
       <c r="B432" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="433" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A433" s="9" t="s">
-        <v>787</v>
+        <v>753</v>
       </c>
       <c r="B433" t="s">
-        <v>793</v>
+        <v>759</v>
       </c>
     </row>
     <row r="434" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A434" s="9" t="s">
-        <v>788</v>
+        <v>754</v>
       </c>
       <c r="B434" t="s">
-        <v>794</v>
+        <v>760</v>
       </c>
     </row>
     <row r="435" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A435" s="9" t="s">
-        <v>789</v>
+        <v>755</v>
       </c>
       <c r="B435" t="s">
-        <v>795</v>
+        <v>761</v>
       </c>
     </row>
     <row r="436" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A436" s="9" t="s">
-        <v>790</v>
+        <v>756</v>
       </c>
       <c r="B436" t="s">
-        <v>796</v>
+        <v>762</v>
       </c>
     </row>
     <row r="437" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A437" s="9" t="s">
-        <v>791</v>
+        <v>757</v>
       </c>
       <c r="B437" t="s">
-        <v>797</v>
+        <v>763</v>
       </c>
     </row>
     <row r="438" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A438" s="9" t="s">
-        <v>792</v>
+        <v>758</v>
       </c>
       <c r="B438" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
     </row>
     <row r="439" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A439" s="9" t="s">
-        <v>798</v>
+        <v>764</v>
       </c>
       <c r="B439" t="s">
-        <v>805</v>
+        <v>771</v>
       </c>
     </row>
     <row r="440" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A440" s="9" t="s">
-        <v>799</v>
+        <v>765</v>
       </c>
       <c r="B440" t="s">
-        <v>806</v>
+        <v>772</v>
       </c>
     </row>
     <row r="441" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A441" s="9" t="s">
-        <v>800</v>
+        <v>766</v>
       </c>
       <c r="B441" t="s">
-        <v>807</v>
+        <v>773</v>
       </c>
     </row>
     <row r="442" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A442" s="9" t="s">
-        <v>801</v>
+        <v>767</v>
       </c>
       <c r="B442" t="s">
-        <v>808</v>
+        <v>774</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>804</v>
+        <v>770</v>
       </c>
       <c r="B443" t="s">
-        <v>809</v>
+        <v>775</v>
       </c>
     </row>
     <row r="444" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A444" s="9" t="s">
-        <v>802</v>
+        <v>768</v>
       </c>
       <c r="B444" t="s">
-        <v>810</v>
+        <v>776</v>
       </c>
     </row>
     <row r="445" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A445" s="9" t="s">
-        <v>803</v>
+        <v>769</v>
       </c>
       <c r="B445" t="s">
-        <v>811</v>
+        <v>777</v>
       </c>
     </row>
     <row r="446" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A446" s="9" t="s">
-        <v>812</v>
+        <v>778</v>
       </c>
       <c r="B446" t="s">
-        <v>812</v>
+        <v>778</v>
       </c>
     </row>
     <row r="447" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A447" s="9" t="s">
-        <v>813</v>
+        <v>779</v>
       </c>
       <c r="B447" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="448" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A448" s="9" t="s">
-        <v>814</v>
+        <v>780</v>
       </c>
       <c r="B448" t="s">
-        <v>817</v>
+        <v>783</v>
       </c>
     </row>
     <row r="449" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A449" s="9" t="s">
-        <v>815</v>
+        <v>781</v>
       </c>
       <c r="B449" t="s">
-        <v>818</v>
+        <v>784</v>
       </c>
     </row>
     <row r="450" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A450" s="9" t="s">
-        <v>816</v>
+        <v>782</v>
       </c>
       <c r="B450" t="s">
-        <v>819</v>
+        <v>785</v>
       </c>
     </row>
     <row r="451" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A451" s="9" t="s">
-        <v>820</v>
+        <v>786</v>
       </c>
       <c r="B451" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="452" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A452" s="9" t="s">
-        <v>821</v>
+        <v>787</v>
       </c>
     </row>
     <row r="453" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A453" s="9" t="s">
-        <v>824</v>
+        <v>790</v>
       </c>
     </row>
     <row r="454" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A454" s="9" t="s">
-        <v>822</v>
+        <v>788</v>
       </c>
     </row>
     <row r="455" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A455" s="9" t="s">
-        <v>823</v>
+        <v>789</v>
       </c>
     </row>
     <row r="456" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A456" s="9" t="s">
-        <v>825</v>
+        <v>791</v>
       </c>
       <c r="B456" t="s">
-        <v>833</v>
+        <v>799</v>
       </c>
     </row>
     <row r="457" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A457" s="9" t="s">
-        <v>826</v>
+        <v>792</v>
       </c>
       <c r="B457" t="s">
-        <v>834</v>
+        <v>800</v>
       </c>
     </row>
     <row r="458" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A458" s="9" t="s">
-        <v>827</v>
+        <v>793</v>
       </c>
       <c r="B458" t="s">
-        <v>835</v>
+        <v>801</v>
       </c>
     </row>
     <row r="459" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A459" s="9" t="s">
-        <v>828</v>
+        <v>794</v>
       </c>
       <c r="B459" t="s">
-        <v>836</v>
+        <v>802</v>
       </c>
     </row>
     <row r="460" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A460" s="9" t="s">
-        <v>829</v>
+        <v>795</v>
       </c>
       <c r="B460" t="s">
-        <v>837</v>
+        <v>803</v>
       </c>
     </row>
     <row r="461" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A461" s="9" t="s">
-        <v>830</v>
+        <v>796</v>
       </c>
       <c r="B461" t="s">
-        <v>838</v>
+        <v>804</v>
       </c>
     </row>
     <row r="462" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A462" s="9" t="s">
-        <v>831</v>
+        <v>797</v>
       </c>
       <c r="B462" t="s">
-        <v>839</v>
+        <v>805</v>
       </c>
     </row>
     <row r="463" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A463" s="9" t="s">
-        <v>832</v>
+        <v>798</v>
       </c>
       <c r="B463" t="s">
-        <v>840</v>
+        <v>806</v>
       </c>
     </row>
     <row r="464" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A464" s="9" t="s">
-        <v>841</v>
+        <v>807</v>
       </c>
       <c r="B464" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="465" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A465" s="9" t="s">
-        <v>842</v>
+        <v>808</v>
       </c>
       <c r="B465" t="s">
-        <v>850</v>
+        <v>816</v>
       </c>
     </row>
     <row r="466" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A466" s="9" t="s">
-        <v>843</v>
+        <v>809</v>
       </c>
       <c r="B466" t="s">
-        <v>851</v>
+        <v>817</v>
       </c>
     </row>
     <row r="467" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A467" s="9" t="s">
-        <v>844</v>
+        <v>810</v>
       </c>
       <c r="B467" t="s">
-        <v>852</v>
+        <v>818</v>
       </c>
     </row>
     <row r="468" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A468" s="9" t="s">
-        <v>845</v>
+        <v>811</v>
       </c>
       <c r="B468" t="s">
-        <v>853</v>
+        <v>819</v>
       </c>
     </row>
     <row r="469" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A469" s="9" t="s">
-        <v>846</v>
+        <v>812</v>
       </c>
       <c r="B469" t="s">
-        <v>854</v>
+        <v>820</v>
       </c>
     </row>
     <row r="470" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A470" s="9" t="s">
-        <v>847</v>
+        <v>813</v>
       </c>
       <c r="B470" t="s">
-        <v>855</v>
+        <v>821</v>
       </c>
     </row>
     <row r="471" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A471" s="9" t="s">
-        <v>848</v>
+        <v>814</v>
       </c>
       <c r="B471" t="s">
-        <v>856</v>
+        <v>822</v>
       </c>
     </row>
     <row r="472" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A472" s="9" t="s">
-        <v>849</v>
+        <v>815</v>
       </c>
       <c r="B472" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
     </row>
     <row r="473" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A473" s="9" t="s">
-        <v>857</v>
+        <v>823</v>
       </c>
       <c r="B473" t="s">
-        <v>865</v>
+        <v>831</v>
       </c>
     </row>
     <row r="474" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A474" s="9" t="s">
-        <v>858</v>
+        <v>824</v>
       </c>
       <c r="B474" t="s">
-        <v>866</v>
+        <v>832</v>
       </c>
     </row>
     <row r="475" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A475" s="9" t="s">
-        <v>859</v>
+        <v>825</v>
       </c>
       <c r="B475" t="s">
-        <v>867</v>
+        <v>833</v>
       </c>
     </row>
     <row r="476" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A476" s="9" t="s">
-        <v>860</v>
+        <v>826</v>
       </c>
       <c r="B476" t="s">
-        <v>868</v>
+        <v>834</v>
       </c>
     </row>
     <row r="477" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A477" s="9" t="s">
-        <v>861</v>
+        <v>827</v>
       </c>
       <c r="B477" t="s">
-        <v>869</v>
+        <v>835</v>
       </c>
     </row>
     <row r="478" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A478" s="9" t="s">
-        <v>862</v>
+        <v>828</v>
       </c>
       <c r="B478" t="s">
-        <v>870</v>
+        <v>836</v>
       </c>
     </row>
     <row r="479" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A479" s="9" t="s">
-        <v>863</v>
+        <v>829</v>
       </c>
       <c r="B479" t="s">
-        <v>871</v>
+        <v>837</v>
       </c>
     </row>
     <row r="480" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A480" s="9" t="s">
-        <v>864</v>
+        <v>830</v>
       </c>
       <c r="B480" t="s">
-        <v>872</v>
+        <v>838</v>
       </c>
     </row>
     <row r="481" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A481" s="9" t="s">
-        <v>873</v>
+        <v>839</v>
       </c>
       <c r="B481" t="s">
-        <v>879</v>
+        <v>845</v>
       </c>
     </row>
     <row r="482" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A482" s="9" t="s">
-        <v>874</v>
+        <v>840</v>
       </c>
       <c r="B482" t="s">
-        <v>880</v>
+        <v>846</v>
       </c>
     </row>
     <row r="483" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A483" s="9" t="s">
-        <v>875</v>
+        <v>841</v>
       </c>
       <c r="B483" t="s">
-        <v>881</v>
+        <v>847</v>
       </c>
     </row>
     <row r="484" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A484" s="9" t="s">
-        <v>876</v>
+        <v>842</v>
       </c>
       <c r="B484" t="s">
-        <v>882</v>
+        <v>848</v>
       </c>
     </row>
     <row r="485" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A485" s="9" t="s">
-        <v>877</v>
+        <v>843</v>
       </c>
       <c r="B485" t="s">
-        <v>883</v>
+        <v>849</v>
       </c>
     </row>
     <row r="486" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A486" s="9" t="s">
-        <v>878</v>
+        <v>844</v>
       </c>
       <c r="B486" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
     </row>
     <row r="487" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A487" s="9" t="s">
-        <v>884</v>
+        <v>850</v>
       </c>
     </row>
     <row r="488" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A488" s="9" t="s">
-        <v>885</v>
+        <v>851</v>
       </c>
       <c r="B488" t="s">
-        <v>890</v>
+        <v>856</v>
       </c>
     </row>
     <row r="489" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A489" s="9" t="s">
-        <v>886</v>
+        <v>852</v>
       </c>
       <c r="B489" t="s">
-        <v>891</v>
+        <v>857</v>
       </c>
     </row>
     <row r="490" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A490" s="9" t="s">
-        <v>887</v>
+        <v>853</v>
       </c>
       <c r="B490" t="s">
-        <v>892</v>
+        <v>858</v>
       </c>
     </row>
     <row r="491" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A491" s="9" t="s">
-        <v>888</v>
+        <v>854</v>
       </c>
       <c r="B491" t="s">
-        <v>893</v>
+        <v>859</v>
       </c>
     </row>
     <row r="492" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A492" s="9" t="s">
-        <v>889</v>
+        <v>855</v>
       </c>
       <c r="B492" t="s">
-        <v>894</v>
+        <v>860</v>
       </c>
     </row>
     <row r="493" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A493" s="9" t="s">
-        <v>895</v>
+        <v>861</v>
       </c>
       <c r="B493" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="494" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A494" s="9" t="s">
-        <v>896</v>
+        <v>862</v>
       </c>
       <c r="B494" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="495" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A495" s="9" t="s">
-        <v>897</v>
+        <v>863</v>
       </c>
       <c r="B495" t="s">
-        <v>900</v>
+        <v>866</v>
       </c>
     </row>
     <row r="496" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A496" s="9" t="s">
-        <v>898</v>
+        <v>864</v>
       </c>
       <c r="B496" t="s">
-        <v>901</v>
+        <v>867</v>
       </c>
     </row>
     <row r="497" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A497" s="9" t="s">
-        <v>899</v>
+        <v>865</v>
       </c>
       <c r="B497" t="s">
-        <v>902</v>
+        <v>868</v>
       </c>
     </row>
     <row r="498" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A498" s="9" t="s">
-        <v>903</v>
+        <v>869</v>
       </c>
       <c r="B498" t="s">
-        <v>906</v>
+        <v>872</v>
       </c>
     </row>
     <row r="499" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A499" s="9" t="s">
-        <v>904</v>
+        <v>870</v>
       </c>
       <c r="B499" t="s">
-        <v>907</v>
+        <v>873</v>
       </c>
     </row>
     <row r="500" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A500" s="9" t="s">
-        <v>905</v>
+        <v>871</v>
       </c>
       <c r="B500" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
     </row>
     <row r="501" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A501" s="9" t="s">
-        <v>908</v>
+        <v>874</v>
       </c>
       <c r="B501" t="s">
-        <v>916</v>
+        <v>882</v>
       </c>
     </row>
     <row r="502" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A502" s="9" t="s">
-        <v>909</v>
+        <v>875</v>
       </c>
       <c r="B502" t="s">
-        <v>917</v>
+        <v>883</v>
       </c>
     </row>
     <row r="503" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A503" s="9" t="s">
-        <v>910</v>
+        <v>876</v>
       </c>
       <c r="B503" t="s">
-        <v>918</v>
+        <v>884</v>
       </c>
     </row>
     <row r="504" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A504" s="9" t="s">
-        <v>911</v>
+        <v>877</v>
       </c>
       <c r="B504" t="s">
-        <v>919</v>
+        <v>885</v>
       </c>
     </row>
     <row r="505" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A505" s="9" t="s">
-        <v>912</v>
+        <v>878</v>
       </c>
       <c r="B505" t="s">
-        <v>920</v>
+        <v>886</v>
       </c>
     </row>
     <row r="506" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A506" s="9" t="s">
-        <v>913</v>
+        <v>879</v>
       </c>
       <c r="B506" t="s">
-        <v>921</v>
+        <v>887</v>
       </c>
     </row>
     <row r="507" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A507" s="9" t="s">
-        <v>914</v>
+        <v>880</v>
       </c>
       <c r="B507" t="s">
-        <v>922</v>
+        <v>888</v>
       </c>
     </row>
     <row r="508" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A508" s="9" t="s">
-        <v>915</v>
+        <v>881</v>
       </c>
       <c r="B508" t="s">
-        <v>923</v>
+        <v>889</v>
       </c>
     </row>
     <row r="509" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A509" s="9" t="s">
-        <v>924</v>
+        <v>890</v>
       </c>
       <c r="B509" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="510" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A510" s="9" t="s">
-        <v>925</v>
+        <v>891</v>
       </c>
       <c r="B510" t="s">
-        <v>930</v>
+        <v>896</v>
       </c>
     </row>
     <row r="511" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A511" s="9" t="s">
-        <v>926</v>
+        <v>892</v>
       </c>
       <c r="B511" t="s">
-        <v>931</v>
+        <v>897</v>
       </c>
     </row>
     <row r="512" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A512" s="9" t="s">
-        <v>927</v>
+        <v>893</v>
       </c>
       <c r="B512" t="s">
-        <v>932</v>
+        <v>898</v>
       </c>
     </row>
     <row r="513" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A513" s="9" t="s">
-        <v>928</v>
+        <v>894</v>
       </c>
       <c r="B513" t="s">
-        <v>933</v>
+        <v>899</v>
       </c>
     </row>
     <row r="514" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A514" s="9" t="s">
-        <v>929</v>
+        <v>895</v>
       </c>
       <c r="B514" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
     </row>
     <row r="515" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A515" s="9" t="s">
-        <v>934</v>
+        <v>900</v>
       </c>
       <c r="B515" t="s">
-        <v>942</v>
+        <v>908</v>
       </c>
     </row>
     <row r="516" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A516" s="9" t="s">
-        <v>935</v>
+        <v>901</v>
       </c>
       <c r="B516" t="s">
-        <v>943</v>
+        <v>909</v>
       </c>
     </row>
     <row r="517" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A517" s="9" t="s">
-        <v>936</v>
+        <v>902</v>
       </c>
       <c r="B517" t="s">
-        <v>944</v>
+        <v>910</v>
       </c>
     </row>
     <row r="518" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A518" s="9" t="s">
-        <v>937</v>
+        <v>903</v>
       </c>
       <c r="B518" t="s">
-        <v>945</v>
+        <v>911</v>
       </c>
     </row>
     <row r="519" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A519" s="9" t="s">
-        <v>938</v>
+        <v>904</v>
       </c>
       <c r="B519" t="s">
-        <v>946</v>
+        <v>912</v>
       </c>
     </row>
     <row r="520" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A520" s="9" t="s">
-        <v>939</v>
+        <v>905</v>
       </c>
       <c r="B520" t="s">
-        <v>947</v>
+        <v>913</v>
       </c>
     </row>
     <row r="521" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A521" s="9" t="s">
-        <v>940</v>
+        <v>906</v>
       </c>
       <c r="B521" t="s">
-        <v>948</v>
+        <v>914</v>
       </c>
     </row>
     <row r="522" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A522" s="9" t="s">
-        <v>941</v>
+        <v>907</v>
       </c>
       <c r="B522" t="s">
-        <v>949</v>
+        <v>915</v>
       </c>
     </row>
     <row r="523" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A523" s="9" t="s">
-        <v>950</v>
+        <v>916</v>
       </c>
       <c r="B523" s="9" t="s">
-        <v>950</v>
+        <v>916</v>
       </c>
     </row>
     <row r="524" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A524" s="9" t="s">
-        <v>951</v>
+        <v>917</v>
       </c>
       <c r="B524" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="525" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A525" s="9" t="s">
-        <v>952</v>
+        <v>918</v>
       </c>
       <c r="B525" t="s">
-        <v>955</v>
+        <v>921</v>
       </c>
     </row>
     <row r="526" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A526" s="9" t="s">
-        <v>953</v>
+        <v>919</v>
       </c>
       <c r="B526" t="s">
-        <v>956</v>
+        <v>922</v>
       </c>
     </row>
     <row r="527" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A527" s="9" t="s">
-        <v>954</v>
+        <v>920</v>
       </c>
       <c r="B527" t="s">
-        <v>957</v>
+        <v>923</v>
       </c>
     </row>
     <row r="528" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A528" s="9" t="s">
-        <v>958</v>
+        <v>924</v>
       </c>
       <c r="B528" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="529" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A529" s="9" t="s">
-        <v>959</v>
+        <v>925</v>
       </c>
       <c r="B529" t="s">
-        <v>965</v>
+        <v>931</v>
       </c>
     </row>
     <row r="530" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A530" s="9" t="s">
-        <v>960</v>
+        <v>926</v>
       </c>
       <c r="B530" t="s">
-        <v>966</v>
+        <v>932</v>
       </c>
     </row>
     <row r="531" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A531" s="9" t="s">
-        <v>961</v>
+        <v>927</v>
       </c>
       <c r="B531" t="s">
-        <v>967</v>
+        <v>933</v>
       </c>
     </row>
     <row r="532" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A532" s="9" t="s">
-        <v>962</v>
+        <v>928</v>
       </c>
       <c r="B532" t="s">
-        <v>968</v>
+        <v>934</v>
       </c>
     </row>
     <row r="533" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A533" s="9" t="s">
-        <v>963</v>
+        <v>929</v>
       </c>
       <c r="B533" t="s">
-        <v>969</v>
+        <v>935</v>
       </c>
     </row>
     <row r="534" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A534" s="9" t="s">
-        <v>964</v>
+        <v>930</v>
       </c>
       <c r="B534" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
     </row>
     <row r="535" spans="1:2" ht="112" x14ac:dyDescent="0.2">
       <c r="A535" s="9" t="s">
-        <v>970</v>
+        <v>936</v>
       </c>
       <c r="B535" t="s">
-        <v>978</v>
+        <v>944</v>
       </c>
     </row>
     <row r="536" spans="1:2" ht="112" x14ac:dyDescent="0.2">
       <c r="A536" s="9" t="s">
-        <v>971</v>
+        <v>937</v>
       </c>
       <c r="B536" t="s">
-        <v>979</v>
+        <v>945</v>
       </c>
     </row>
     <row r="537" spans="1:2" ht="112" x14ac:dyDescent="0.2">
       <c r="A537" s="9" t="s">
-        <v>972</v>
+        <v>938</v>
       </c>
       <c r="B537" t="s">
-        <v>980</v>
+        <v>946</v>
       </c>
     </row>
     <row r="538" spans="1:2" ht="112" x14ac:dyDescent="0.2">
       <c r="A538" s="9" t="s">
-        <v>973</v>
+        <v>939</v>
       </c>
       <c r="B538" t="s">
-        <v>981</v>
+        <v>947</v>
       </c>
     </row>
     <row r="539" spans="1:2" ht="112" x14ac:dyDescent="0.2">
       <c r="A539" s="9" t="s">
-        <v>974</v>
+        <v>940</v>
       </c>
       <c r="B539" t="s">
-        <v>982</v>
+        <v>948</v>
       </c>
     </row>
     <row r="540" spans="1:2" ht="112" x14ac:dyDescent="0.2">
       <c r="A540" s="9" t="s">
-        <v>975</v>
+        <v>941</v>
       </c>
       <c r="B540" t="s">
-        <v>983</v>
+        <v>949</v>
       </c>
     </row>
     <row r="541" spans="1:2" ht="112" x14ac:dyDescent="0.2">
       <c r="A541" s="9" t="s">
-        <v>976</v>
+        <v>942</v>
       </c>
       <c r="B541" t="s">
-        <v>984</v>
+        <v>950</v>
       </c>
     </row>
     <row r="542" spans="1:2" ht="112" x14ac:dyDescent="0.2">
       <c r="A542" s="9" t="s">
-        <v>977</v>
+        <v>943</v>
       </c>
       <c r="B542" t="s">
-        <v>985</v>
+        <v>951</v>
       </c>
     </row>
     <row r="543" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A543" s="9" t="s">
-        <v>986</v>
+        <v>952</v>
       </c>
       <c r="B543" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="544" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A544" s="9" t="s">
-        <v>987</v>
+        <v>953</v>
       </c>
       <c r="B544" t="s">
-        <v>992</v>
+        <v>958</v>
       </c>
     </row>
     <row r="545" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A545" s="9" t="s">
-        <v>988</v>
+        <v>954</v>
       </c>
       <c r="B545" t="s">
-        <v>993</v>
+        <v>959</v>
       </c>
     </row>
     <row r="546" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A546" s="9" t="s">
-        <v>989</v>
+        <v>955</v>
       </c>
       <c r="B546" t="s">
-        <v>994</v>
+        <v>960</v>
       </c>
     </row>
     <row r="547" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A547" s="9" t="s">
-        <v>990</v>
+        <v>956</v>
       </c>
       <c r="B547" t="s">
-        <v>995</v>
+        <v>961</v>
       </c>
     </row>
     <row r="548" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A548" s="9" t="s">
-        <v>991</v>
+        <v>957</v>
       </c>
       <c r="B548" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
     </row>
     <row r="549" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A549" s="9" t="s">
-        <v>996</v>
+        <v>962</v>
       </c>
       <c r="B549" t="s">
-        <v>1002</v>
+        <v>968</v>
       </c>
     </row>
     <row r="550" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A550" s="9" t="s">
-        <v>997</v>
+        <v>963</v>
       </c>
       <c r="B550" t="s">
-        <v>1003</v>
+        <v>969</v>
       </c>
     </row>
     <row r="551" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A551" s="9" t="s">
-        <v>998</v>
+        <v>964</v>
       </c>
       <c r="B551" t="s">
-        <v>1004</v>
+        <v>970</v>
       </c>
     </row>
     <row r="552" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A552" s="9" t="s">
-        <v>999</v>
+        <v>965</v>
       </c>
       <c r="B552" t="s">
-        <v>1005</v>
+        <v>971</v>
       </c>
     </row>
     <row r="553" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A553" s="9" t="s">
-        <v>1000</v>
+        <v>966</v>
       </c>
       <c r="B553" t="s">
-        <v>1006</v>
+        <v>972</v>
       </c>
     </row>
     <row r="554" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A554" s="9" t="s">
-        <v>1001</v>
+        <v>967</v>
       </c>
       <c r="B554" t="s">
-        <v>1007</v>
+        <v>973</v>
       </c>
     </row>
     <row r="555" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A555" s="9" t="s">
-        <v>1008</v>
+        <v>974</v>
       </c>
       <c r="B555" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="556" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A556" s="9" t="s">
-        <v>1009</v>
+        <v>975</v>
       </c>
       <c r="B556" t="s">
-        <v>1012</v>
+        <v>978</v>
       </c>
     </row>
     <row r="557" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A557" s="9" t="s">
-        <v>1010</v>
+        <v>976</v>
       </c>
       <c r="B557" t="s">
-        <v>1013</v>
+        <v>979</v>
       </c>
     </row>
     <row r="558" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A558" s="9" t="s">
-        <v>1011</v>
+        <v>977</v>
       </c>
       <c r="B558" t="s">
-        <v>1014</v>
+        <v>980</v>
       </c>
     </row>
     <row r="559" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A559" s="9" t="s">
-        <v>1015</v>
+        <v>981</v>
       </c>
       <c r="B559" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="560" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A560" s="9" t="s">
-        <v>1016</v>
+        <v>982</v>
       </c>
       <c r="B560" t="s">
-        <v>1026</v>
+        <v>992</v>
       </c>
     </row>
     <row r="561" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A561" s="9" t="s">
-        <v>1017</v>
+        <v>983</v>
       </c>
       <c r="B561" t="s">
-        <v>1027</v>
+        <v>993</v>
       </c>
     </row>
     <row r="562" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A562" s="9" t="s">
-        <v>1018</v>
+        <v>984</v>
       </c>
       <c r="B562" t="s">
-        <v>1028</v>
+        <v>994</v>
       </c>
     </row>
     <row r="563" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A563" s="9" t="s">
-        <v>1019</v>
+        <v>985</v>
       </c>
       <c r="B563" t="s">
-        <v>1029</v>
+        <v>995</v>
       </c>
     </row>
     <row r="564" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A564" s="9" t="s">
-        <v>1020</v>
+        <v>986</v>
       </c>
       <c r="B564" t="s">
-        <v>1030</v>
+        <v>996</v>
       </c>
     </row>
     <row r="565" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A565" s="9" t="s">
-        <v>1021</v>
+        <v>987</v>
       </c>
       <c r="B565" t="s">
-        <v>1031</v>
+        <v>997</v>
       </c>
     </row>
     <row r="566" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A566" s="9" t="s">
-        <v>1022</v>
+        <v>988</v>
       </c>
       <c r="B566" t="s">
-        <v>1032</v>
+        <v>998</v>
       </c>
     </row>
     <row r="567" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A567" s="9" t="s">
-        <v>1023</v>
+        <v>989</v>
       </c>
       <c r="B567" t="s">
-        <v>1033</v>
+        <v>999</v>
       </c>
     </row>
     <row r="568" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A568" s="9" t="s">
-        <v>1024</v>
+        <v>990</v>
       </c>
       <c r="B568" t="s">
-        <v>1034</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="569" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A569" s="9" t="s">
-        <v>1025</v>
+        <v>991</v>
       </c>
       <c r="B569" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
     </row>
     <row r="570" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A570" s="9" t="s">
-        <v>1035</v>
+        <v>1001</v>
       </c>
       <c r="B570" t="s">
-        <v>1042</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="571" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A571" s="9" t="s">
-        <v>1036</v>
+        <v>1002</v>
       </c>
       <c r="B571" t="s">
-        <v>1043</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="572" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A572" s="9" t="s">
-        <v>1037</v>
+        <v>1003</v>
       </c>
       <c r="B572" t="s">
-        <v>1044</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="573" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A573" s="9" t="s">
-        <v>1038</v>
+        <v>1004</v>
       </c>
       <c r="B573" t="s">
-        <v>1045</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="574" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A574" s="9" t="s">
-        <v>1039</v>
+        <v>1005</v>
       </c>
       <c r="B574" t="s">
-        <v>1046</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="575" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A575" s="9" t="s">
-        <v>1040</v>
+        <v>1006</v>
       </c>
       <c r="B575" t="s">
-        <v>1047</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="576" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A576" s="9" t="s">
-        <v>1041</v>
+        <v>1007</v>
       </c>
       <c r="B576" t="s">
-        <v>1048</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="577" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A577" s="9" t="s">
-        <v>1049</v>
+        <v>1015</v>
       </c>
       <c r="B577" t="s">
-        <v>1050</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="578" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A578" s="9" t="s">
-        <v>1051</v>
+        <v>1017</v>
       </c>
       <c r="B578" t="s">
-        <v>1051</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="579" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A579" s="9" t="s">
-        <v>1052</v>
+        <v>1018</v>
       </c>
       <c r="B579" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="580" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A580" s="9" t="s">
-        <v>1053</v>
+        <v>1019</v>
       </c>
       <c r="B580" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="581" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A581" s="9" t="s">
-        <v>1054</v>
+        <v>1020</v>
       </c>
       <c r="B581" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="582" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A582" s="9" t="s">
-        <v>1055</v>
+        <v>1021</v>
       </c>
       <c r="B582" t="s">
-        <v>1061</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="583" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A583" s="9" t="s">
-        <v>1056</v>
+        <v>1022</v>
       </c>
       <c r="B583" t="s">
-        <v>1062</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="584" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A584" s="9" t="s">
-        <v>1057</v>
+        <v>1023</v>
       </c>
       <c r="B584" t="s">
-        <v>1063</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="585" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A585" s="9" t="s">
-        <v>1058</v>
+        <v>1024</v>
       </c>
       <c r="B585" t="s">
-        <v>1064</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="586" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A586" s="9" t="s">
-        <v>1059</v>
+        <v>1025</v>
       </c>
       <c r="B586" t="s">
-        <v>1065</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="587" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A587" s="9" t="s">
-        <v>1060</v>
+        <v>1026</v>
       </c>
       <c r="B587" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
     </row>
     <row r="588" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A588" s="9" t="s">
-        <v>1066</v>
+        <v>1032</v>
       </c>
       <c r="B588" t="s">
-        <v>1073</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="589" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A589" s="9" t="s">
-        <v>1067</v>
+        <v>1033</v>
       </c>
       <c r="B589" t="s">
-        <v>1074</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="590" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A590" s="9" t="s">
-        <v>1068</v>
+        <v>1034</v>
       </c>
       <c r="B590" t="s">
-        <v>1075</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="591" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A591" s="9" t="s">
-        <v>1069</v>
+        <v>1035</v>
       </c>
       <c r="B591" t="s">
-        <v>1076</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="592" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A592" s="9" t="s">
-        <v>1070</v>
+        <v>1036</v>
       </c>
       <c r="B592" t="s">
-        <v>1077</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="593" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A593" s="9" t="s">
-        <v>1071</v>
+        <v>1037</v>
       </c>
       <c r="B593" t="s">
-        <v>1078</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="594" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A594" s="9" t="s">
-        <v>1072</v>
+        <v>1038</v>
       </c>
       <c r="B594" t="s">
-        <v>1079</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="595" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A595" s="9" t="s">
-        <v>1080</v>
+        <v>1046</v>
       </c>
       <c r="B595" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="596" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A596" s="9" t="s">
-        <v>1081</v>
+        <v>1047</v>
       </c>
       <c r="B596" t="s">
-        <v>1087</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="597" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A597" s="9" t="s">
-        <v>1082</v>
+        <v>1048</v>
       </c>
       <c r="B597" t="s">
-        <v>1088</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="598" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A598" s="9" t="s">
-        <v>1083</v>
+        <v>1049</v>
       </c>
       <c r="B598" t="s">
-        <v>1089</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="599" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A599" s="9" t="s">
-        <v>1084</v>
+        <v>1050</v>
       </c>
       <c r="B599" t="s">
-        <v>1090</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="600" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A600" s="9" t="s">
-        <v>1085</v>
+        <v>1051</v>
       </c>
       <c r="B600" t="s">
-        <v>1091</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="601" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A601" s="9" t="s">
-        <v>1086</v>
+        <v>1052</v>
       </c>
       <c r="B601" t="s">
-        <v>1092</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="602" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A602" s="9" t="s">
-        <v>1093</v>
+        <v>1059</v>
       </c>
       <c r="B602" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="603" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A603" s="9" t="s">
-        <v>1094</v>
+        <v>1060</v>
       </c>
       <c r="B603" t="s">
-        <v>1100</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="604" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A604" s="9" t="s">
-        <v>1095</v>
+        <v>1061</v>
       </c>
       <c r="B604" t="s">
-        <v>1101</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="605" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A605" s="9" t="s">
-        <v>1096</v>
+        <v>1062</v>
       </c>
       <c r="B605" t="s">
-        <v>1102</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="606" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A606" s="9" t="s">
-        <v>1097</v>
+        <v>1063</v>
       </c>
       <c r="B606" t="s">
-        <v>1103</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="607" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A607" s="9" t="s">
-        <v>1098</v>
+        <v>1064</v>
       </c>
       <c r="B607" t="s">
-        <v>1104</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="608" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A608" s="9" t="s">
-        <v>1099</v>
+        <v>1065</v>
       </c>
       <c r="B608" t="s">
-        <v>1105</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="609" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A609" s="9" t="s">
-        <v>1106</v>
+        <v>1072</v>
       </c>
       <c r="B609" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="610" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A610" s="9" t="s">
-        <v>1107</v>
+        <v>1073</v>
       </c>
       <c r="B610" t="s">
-        <v>1112</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="611" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A611" s="9" t="s">
-        <v>1108</v>
+        <v>1074</v>
       </c>
       <c r="B611" t="s">
-        <v>1113</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="612" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A612" s="9" t="s">
-        <v>1109</v>
+        <v>1075</v>
       </c>
       <c r="B612" t="s">
-        <v>1114</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="613" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A613" s="9" t="s">
-        <v>1110</v>
+        <v>1076</v>
       </c>
       <c r="B613" t="s">
-        <v>1115</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="614" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A614" s="9" t="s">
-        <v>1111</v>
+        <v>1077</v>
       </c>
       <c r="B614" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
     </row>
     <row r="615" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A615" s="9" t="s">
-        <v>1116</v>
+        <v>1082</v>
       </c>
       <c r="B615" t="s">
-        <v>1122</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="616" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A616" s="9" t="s">
-        <v>1117</v>
+        <v>1083</v>
       </c>
       <c r="B616" t="s">
-        <v>1123</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="617" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A617" s="9" t="s">
-        <v>1118</v>
+        <v>1084</v>
       </c>
       <c r="B617" t="s">
-        <v>1124</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="618" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A618" s="9" t="s">
-        <v>1119</v>
+        <v>1085</v>
       </c>
       <c r="B618" t="s">
-        <v>1125</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="619" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A619" s="9" t="s">
-        <v>1120</v>
+        <v>1086</v>
       </c>
       <c r="B619" t="s">
-        <v>1126</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="620" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A620" s="9" t="s">
-        <v>1121</v>
+        <v>1087</v>
       </c>
       <c r="B620" t="s">
-        <v>1127</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="621" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A621" s="9" t="s">
-        <v>1128</v>
+        <v>1094</v>
       </c>
       <c r="B621" t="s">
-        <v>1131</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
-        <v>1129</v>
+        <v>1095</v>
       </c>
       <c r="B622" t="s">
-        <v>1132</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="623" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A623" s="9" t="s">
-        <v>1130</v>
+        <v>1096</v>
       </c>
       <c r="B623" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
     </row>
     <row r="624" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A624" s="9" t="s">
-        <v>1133</v>
+        <v>1099</v>
       </c>
       <c r="B624" t="s">
-        <v>1134</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="625" spans="1:2" ht="160" x14ac:dyDescent="0.2">
       <c r="A625" s="9" t="s">
-        <v>1135</v>
+        <v>1101</v>
       </c>
       <c r="B625" s="9" t="s">
-        <v>1135</v>
+        <v>1101</v>
       </c>
     </row>
   </sheetData>
@@ -9993,15 +10982,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010084299BAE6AB37648AD80DEB59DC34125" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3eadf2c1f25cd7b71915c87a24a5e490">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="70b45aa3-433c-4bb7-a757-4861a21b7bcd" xmlns:ns3="f9acbf48-ccda-47b6-abb6-c9eb96c9ba33" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="383f12c7747b491aea3350ad3b69b32a" ns2:_="" ns3:_="">
     <xsd:import namespace="70b45aa3-433c-4bb7-a757-4861a21b7bcd"/>
@@ -10172,6 +11152,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B75DB3A7-FCD6-4DD2-8F1A-F1A891316494}">
   <ds:schemaRefs>
@@ -10182,14 +11171,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A376A26F-A459-4EA6-9FC7-DF620BE07CA9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8739BBC0-A319-48B2-92BB-329AC3208E3F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10206,4 +11187,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A376A26F-A459-4EA6-9FC7-DF620BE07CA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/test/java/ServiceNow/CHARMS/Resources/RASScenario2.xlsx
+++ b/src/test/java/ServiceNow/CHARMS/Resources/RASScenario2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bucurgb/IdeaProjects/CBIIT-Test-Automation/src/test/java/ServiceNow/CHARMS/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A647D93-C316-6343-AA9F-30F49A8FDA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D52335-E96D-574F-BD5F-667704F21FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25960" yWindow="500" windowWidth="25100" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25960" yWindow="500" windowWidth="25100" windowHeight="28300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="screenerScenario2" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3423" uniqueCount="3151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3419" uniqueCount="3149">
   <si>
     <t>Question</t>
   </si>
@@ -9632,18 +9632,6 @@
 This questionnaire should take you approximately 15-20 minutes. </t>
   </si>
   <si>
-    <t>RASTest2022$$</t>
-  </si>
-  <si>
-    <t>Please log in. One Time Pin</t>
-  </si>
-  <si>
-    <t>charmsras1@yahoo.com</t>
-  </si>
-  <si>
-    <t>Please log in. Email</t>
-  </si>
-  <si>
     <t>How many of each pregnancy outcomes have you had? Option 1</t>
   </si>
   <si>
@@ -9651,6 +9639,12 @@
   </si>
   <si>
     <t>How many of each pregnancy outcomes have you had? Option 3</t>
+  </si>
+  <si>
+    <t>To determine eligibility for this study, we need to collect information about medical diagnoses.</t>
+  </si>
+  <si>
+    <t>We know that RASopathies are a group of syndromes that have a genetic basis.  In order to help us determine eligibility for the RASopathies Study, we also need to know about any genetic testing that has been completed.</t>
   </si>
 </sst>
 </file>
@@ -9760,7 +9754,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -9823,9 +9817,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -10150,7 +10141,7 @@
   <dimension ref="A1:B156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10412,9 +10403,9 @@
         <v>532</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>533</v>
+        <v>3147</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>533</v>
@@ -10726,7 +10717,7 @@
     </row>
     <row r="72" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>598</v>
+        <v>3148</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>598</v>
@@ -11210,10 +11201,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB9B37E-A256-1E4F-9B35-9A6E20F6FDB7}">
-  <dimension ref="A1:B209"/>
+  <dimension ref="A1:B207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="B198" sqref="B198"/>
+    <sheetView topLeftCell="A359" workbookViewId="0">
+      <selection activeCell="A3" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11228,277 +11219,277 @@
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
-        <v>3147</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>3146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
-        <v>3145</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>3144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="136" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>3143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="170" x14ac:dyDescent="0.2">
+        <v>3142</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>3143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>3142</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="23" t="s">
+        <v>47</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="23" t="s">
+        <v>48</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
-        <v>47</v>
+        <v>3141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
+        <v>33</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
-        <v>48</v>
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
+        <v>49</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>3141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
-        <v>33</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="23" t="s">
+        <v>11</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>3140</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
-        <v>11</v>
+    <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
+        <v>3139</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>12</v>
+        <v>3138</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
-        <v>50</v>
+        <v>3137</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>12</v>
+        <v>3136</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
-        <v>3139</v>
+        <v>3135</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>3138</v>
+        <v>3134</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
-        <v>3137</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>3136</v>
+        <v>3133</v>
+      </c>
+      <c r="B16" s="18">
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
-        <v>3135</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>3134</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="20" t="s">
-        <v>3133</v>
-      </c>
-      <c r="B18" s="18">
-        <v>10</v>
+        <v>3132</v>
+      </c>
+      <c r="B17" s="18">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="22">
+        <v>38301</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
-        <v>3132</v>
-      </c>
-      <c r="B19" s="18">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="22">
-        <v>38301</v>
+        <v>3131</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>3130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="20" t="s">
+        <v>3129</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>3128</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
-        <v>3131</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>3130</v>
+        <v>3127</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>3126</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
-        <v>3129</v>
+        <v>3125</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>3128</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
-        <v>3127</v>
+        <v>3124</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>3121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
-        <v>3124</v>
+        <v>3120</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>3123</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
-        <v>3122</v>
+        <v>52</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>3121</v>
+        <v>3118</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
-        <v>3120</v>
+        <v>53</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>3119</v>
+        <v>3117</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
-        <v>52</v>
+        <v>3116</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>3118</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>3117</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
-        <v>3116</v>
+        <v>3114</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>3115</v>
+        <v>3113</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>12</v>
+        <v>3112</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
-        <v>3114</v>
+        <v>56</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>3113</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>3112</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
-        <v>56</v>
+        <v>3111</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>56</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
-        <v>57</v>
+        <v>3109</v>
       </c>
       <c r="B35" s="18" t="s">
         <v>12</v>
@@ -11506,151 +11497,151 @@
     </row>
     <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
-        <v>3111</v>
+        <v>58</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>3110</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
-        <v>3109</v>
+        <v>3108</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>12</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
-        <v>58</v>
+        <v>3106</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>12</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
-        <v>3108</v>
+        <v>3104</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>3107</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="20" t="s">
-        <v>3106</v>
+        <v>3102</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>3105</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
-        <v>3104</v>
+        <v>3100</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>3103</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
-        <v>3102</v>
+        <v>3098</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>3101</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
-        <v>3100</v>
+        <v>3096</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>3099</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
-        <v>3098</v>
+        <v>3094</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>3097</v>
+        <v>3093</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
-        <v>3096</v>
+        <v>3092</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>3095</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="20" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>59</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="20" t="s">
-        <v>3091</v>
+        <v>3087</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>3090</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
-        <v>3089</v>
+        <v>3085</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>3088</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
-        <v>3087</v>
+        <v>3083</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>3086</v>
+        <v>3082</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
-        <v>3085</v>
+        <v>3081</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>3084</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="20" t="s">
-        <v>3083</v>
+      <c r="A52" s="13" t="s">
+        <v>3079</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>3082</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="20" t="s">
-        <v>3081</v>
+      <c r="A53" s="13" t="s">
+        <v>3078</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>3080</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
-        <v>3079</v>
+        <v>3077</v>
       </c>
       <c r="B54" s="18" t="s">
         <v>3076</v>
@@ -11658,911 +11649,911 @@
     </row>
     <row r="55" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
-        <v>3078</v>
+        <v>3075</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
-        <v>3077</v>
+        <v>3074</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>3073</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>3073</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="13" t="s">
-        <v>3072</v>
+      <c r="A59" s="20" t="s">
+        <v>60</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>3070</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="13" t="s">
-        <v>3071</v>
+      <c r="A60" s="20" t="s">
+        <v>61</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>3070</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="20" t="s">
-        <v>60</v>
+        <v>3069</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>12</v>
+        <v>3068</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>62</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="20" t="s">
-        <v>3069</v>
-      </c>
-      <c r="B63" s="18" t="s">
-        <v>3068</v>
+        <v>3066</v>
+      </c>
+      <c r="B63" s="18">
+        <v>4.5</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="20" t="s">
-        <v>63</v>
+        <v>3065</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>3067</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="20" t="s">
-        <v>3066</v>
+      <c r="A65" s="21" t="s">
+        <v>3064</v>
       </c>
       <c r="B65" s="18">
-        <v>4.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="20" t="s">
-        <v>3065</v>
-      </c>
-      <c r="B66" s="18" t="s">
-        <v>2841</v>
+      <c r="A66" s="21" t="s">
+        <v>3063</v>
+      </c>
+      <c r="B66" s="18">
+        <v>34</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="21" t="s">
-        <v>3064</v>
-      </c>
-      <c r="B67" s="18">
-        <v>19</v>
+        <v>3062</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>2855</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="21" t="s">
-        <v>3063</v>
-      </c>
-      <c r="B68" s="18">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>3061</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="21" t="s">
-        <v>3062</v>
-      </c>
-      <c r="B69" s="18" t="s">
-        <v>2855</v>
+        <v>64</v>
+      </c>
+      <c r="B69" s="19" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="21" t="s">
-        <v>3061</v>
+        <v>65</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>3060</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="B71" s="19" t="s">
-        <v>64</v>
+        <v>3059</v>
+      </c>
+      <c r="B71" s="18" t="s">
+        <v>3058</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="21" t="s">
-        <v>65</v>
+        <v>3057</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>12</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="21" t="s">
-        <v>3059</v>
+        <v>3055</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>3058</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="21" t="s">
-        <v>3057</v>
+        <v>3053</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>3056</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="21" t="s">
-        <v>3055</v>
+        <v>3051</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>3054</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="21" t="s">
-        <v>3053</v>
+        <v>3049</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>3052</v>
+        <v>3048</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="21" t="s">
-        <v>3051</v>
+        <v>3047</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>3050</v>
+        <v>3046</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="21" t="s">
-        <v>3049</v>
+        <v>3045</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>3048</v>
+        <v>3044</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="21" t="s">
-        <v>3047</v>
+        <v>3043</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>3046</v>
+        <v>3042</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="21" t="s">
-        <v>3045</v>
+        <v>3041</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>3044</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="21" t="s">
-        <v>3043</v>
+        <v>3039</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>3042</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="21" t="s">
-        <v>3041</v>
+        <v>3037</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>3040</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="21" t="s">
-        <v>3039</v>
+        <v>3035</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>3038</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="21" t="s">
-        <v>3037</v>
+        <v>3033</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>3036</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="21" t="s">
-        <v>3035</v>
+        <v>3031</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>3034</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="21" t="s">
-        <v>3033</v>
+        <v>3029</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>3032</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="21" t="s">
-        <v>3031</v>
+        <v>3027</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>3030</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="21" t="s">
-        <v>3029</v>
+        <v>3025</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>3028</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="21" t="s">
-        <v>3027</v>
+        <v>3023</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>3026</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="21" t="s">
-        <v>3025</v>
+        <v>3021</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>3024</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="21" t="s">
-        <v>3023</v>
+        <v>3019</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>3022</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="21" t="s">
-        <v>3021</v>
+        <v>3017</v>
       </c>
       <c r="B92" s="18" t="s">
-        <v>3020</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="21" t="s">
-        <v>3019</v>
+        <v>3015</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>3018</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="21" t="s">
-        <v>3017</v>
+        <v>3013</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>3016</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="21" t="s">
-        <v>3015</v>
+        <v>3011</v>
       </c>
       <c r="B95" s="18" t="s">
-        <v>3014</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="21" t="s">
-        <v>3013</v>
+        <v>3009</v>
       </c>
       <c r="B96" s="18" t="s">
-        <v>3012</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="21" t="s">
-        <v>3011</v>
+        <v>3007</v>
       </c>
       <c r="B97" s="18" t="s">
-        <v>3010</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="21" t="s">
-        <v>3009</v>
+        <v>3005</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>3008</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="21" t="s">
-        <v>3007</v>
+        <v>3003</v>
       </c>
       <c r="B99" s="18" t="s">
-        <v>3006</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="21" t="s">
-        <v>3005</v>
+        <v>3001</v>
       </c>
       <c r="B100" s="18" t="s">
-        <v>3004</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="21" t="s">
-        <v>3003</v>
+        <v>2999</v>
       </c>
       <c r="B101" s="18" t="s">
-        <v>3002</v>
+        <v>2998</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="21" t="s">
-        <v>3001</v>
+        <v>2997</v>
       </c>
       <c r="B102" s="18" t="s">
-        <v>3000</v>
+        <v>2996</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="21" t="s">
-        <v>2999</v>
+        <v>2995</v>
       </c>
       <c r="B103" s="18" t="s">
-        <v>2998</v>
+        <v>2994</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="21" t="s">
-        <v>2997</v>
+        <v>2993</v>
       </c>
       <c r="B104" s="18" t="s">
-        <v>2996</v>
+        <v>2992</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="21" t="s">
-        <v>2995</v>
+        <v>2991</v>
       </c>
       <c r="B105" s="18" t="s">
-        <v>2994</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="21" t="s">
-        <v>2993</v>
+        <v>2989</v>
       </c>
       <c r="B106" s="18" t="s">
-        <v>2992</v>
+        <v>2988</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="21" t="s">
-        <v>2991</v>
+        <v>2987</v>
       </c>
       <c r="B107" s="18" t="s">
-        <v>2990</v>
+        <v>2986</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A108" s="21" t="s">
-        <v>2989</v>
+      <c r="A108" s="13" t="s">
+        <v>2985</v>
       </c>
       <c r="B108" s="18" t="s">
-        <v>2988</v>
+        <v>2984</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A109" s="21" t="s">
-        <v>2987</v>
+      <c r="A109" s="13" t="s">
+        <v>2983</v>
       </c>
       <c r="B109" s="18" t="s">
-        <v>2986</v>
+        <v>2982</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="13" t="s">
-        <v>2985</v>
+        <v>2981</v>
       </c>
       <c r="B110" s="18" t="s">
-        <v>2984</v>
+        <v>2980</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="13" t="s">
-        <v>2983</v>
+        <v>2979</v>
       </c>
       <c r="B111" s="18" t="s">
-        <v>2982</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="13" t="s">
-        <v>2981</v>
+        <v>2977</v>
       </c>
       <c r="B112" s="18" t="s">
-        <v>2980</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="13" t="s">
-        <v>2979</v>
+        <v>2975</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>2978</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="13" t="s">
-        <v>2977</v>
+        <v>2973</v>
       </c>
       <c r="B114" s="18" t="s">
-        <v>2976</v>
+        <v>2972</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="13" t="s">
-        <v>2975</v>
+        <v>2971</v>
       </c>
       <c r="B115" s="18" t="s">
-        <v>2974</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="13" t="s">
-        <v>2973</v>
+        <v>2969</v>
       </c>
       <c r="B116" s="18" t="s">
-        <v>2972</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="13" t="s">
-        <v>2971</v>
+        <v>2967</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>2970</v>
+        <v>2966</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="13" t="s">
-        <v>2969</v>
+        <v>2965</v>
       </c>
       <c r="B118" s="18" t="s">
-        <v>2968</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="13" t="s">
-        <v>2967</v>
+        <v>2963</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>2966</v>
+        <v>2962</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="13" t="s">
-        <v>2965</v>
+        <v>2961</v>
       </c>
       <c r="B120" s="18" t="s">
-        <v>2964</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="13" t="s">
-        <v>2963</v>
+        <v>2959</v>
       </c>
       <c r="B121" s="18" t="s">
-        <v>2962</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="13" t="s">
-        <v>2961</v>
+        <v>2957</v>
       </c>
       <c r="B122" s="18" t="s">
-        <v>2960</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="13" t="s">
-        <v>2959</v>
+        <v>2955</v>
       </c>
       <c r="B123" s="18" t="s">
-        <v>2958</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="13" t="s">
-        <v>2957</v>
+        <v>2953</v>
       </c>
       <c r="B124" s="18" t="s">
-        <v>2956</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="13" t="s">
-        <v>2955</v>
+        <v>2951</v>
       </c>
       <c r="B125" s="18" t="s">
-        <v>2954</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="13" t="s">
-        <v>2953</v>
+        <v>2949</v>
       </c>
       <c r="B126" s="18" t="s">
-        <v>2952</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="13" t="s">
-        <v>2951</v>
+        <v>2947</v>
       </c>
       <c r="B127" s="18" t="s">
-        <v>2950</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="13" t="s">
-        <v>2949</v>
+        <v>2945</v>
       </c>
       <c r="B128" s="18" t="s">
-        <v>2948</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="13" t="s">
-        <v>2947</v>
+        <v>2943</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>2946</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="13" t="s">
-        <v>2945</v>
+        <v>2941</v>
       </c>
       <c r="B130" s="18" t="s">
-        <v>2944</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="13" t="s">
-        <v>2943</v>
+        <v>2939</v>
       </c>
       <c r="B131" s="18" t="s">
-        <v>2942</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="13" t="s">
-        <v>2941</v>
+        <v>2937</v>
       </c>
       <c r="B132" s="18" t="s">
-        <v>2940</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="13" t="s">
-        <v>2939</v>
+        <v>2935</v>
       </c>
       <c r="B133" s="18" t="s">
-        <v>2938</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="13" t="s">
-        <v>2937</v>
+        <v>2933</v>
       </c>
       <c r="B134" s="18" t="s">
-        <v>2936</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="13" t="s">
-        <v>2935</v>
+        <v>2931</v>
       </c>
       <c r="B135" s="18" t="s">
-        <v>2934</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="13" t="s">
-        <v>2933</v>
+        <v>2929</v>
       </c>
       <c r="B136" s="18" t="s">
-        <v>2932</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="13" t="s">
-        <v>2931</v>
+        <v>2927</v>
       </c>
       <c r="B137" s="18" t="s">
-        <v>2930</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="13" t="s">
-        <v>2929</v>
+        <v>2925</v>
       </c>
       <c r="B138" s="18" t="s">
-        <v>2928</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="13" t="s">
-        <v>2927</v>
+        <v>2923</v>
       </c>
       <c r="B139" s="18" t="s">
-        <v>2926</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="13" t="s">
-        <v>2925</v>
+        <v>2921</v>
       </c>
       <c r="B140" s="18" t="s">
-        <v>2924</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="13" t="s">
-        <v>2923</v>
+        <v>2919</v>
       </c>
       <c r="B141" s="18" t="s">
-        <v>2922</v>
+        <v>2918</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="13" t="s">
-        <v>2921</v>
+        <v>2917</v>
       </c>
       <c r="B142" s="18" t="s">
-        <v>2920</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="13" t="s">
-        <v>2919</v>
+        <v>2915</v>
       </c>
       <c r="B143" s="18" t="s">
-        <v>2918</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" s="13" t="s">
-        <v>2917</v>
+        <v>2913</v>
       </c>
       <c r="B144" s="18" t="s">
-        <v>2916</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" s="13" t="s">
-        <v>2915</v>
+        <v>2911</v>
       </c>
       <c r="B145" s="18" t="s">
-        <v>2914</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" s="13" t="s">
-        <v>2913</v>
+        <v>2909</v>
       </c>
       <c r="B146" s="18" t="s">
-        <v>2912</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" s="13" t="s">
-        <v>2911</v>
+        <v>2907</v>
       </c>
       <c r="B147" s="18" t="s">
-        <v>2910</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="13" t="s">
-        <v>2909</v>
+        <v>2905</v>
       </c>
       <c r="B148" s="18" t="s">
-        <v>2908</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" s="13" t="s">
-        <v>2907</v>
+        <v>2903</v>
       </c>
       <c r="B149" s="18" t="s">
-        <v>2906</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" s="13" t="s">
-        <v>2905</v>
+        <v>2901</v>
       </c>
       <c r="B150" s="18" t="s">
-        <v>2904</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" s="13" t="s">
-        <v>2903</v>
+        <v>2899</v>
       </c>
       <c r="B151" s="18" t="s">
-        <v>2902</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" s="13" t="s">
-        <v>2901</v>
+        <v>2897</v>
       </c>
       <c r="B152" s="18" t="s">
-        <v>2900</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" s="13" t="s">
-        <v>2899</v>
+        <v>2895</v>
       </c>
       <c r="B153" s="18" t="s">
-        <v>2898</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" s="13" t="s">
-        <v>2897</v>
+        <v>2893</v>
       </c>
       <c r="B154" s="18" t="s">
-        <v>2896</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" s="13" t="s">
-        <v>2895</v>
+        <v>2891</v>
       </c>
       <c r="B155" s="18" t="s">
-        <v>2894</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A156" s="13" t="s">
-        <v>2893</v>
+      <c r="A156" s="21" t="s">
+        <v>66</v>
       </c>
       <c r="B156" s="18" t="s">
-        <v>2892</v>
+        <v>12</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A157" s="13" t="s">
-        <v>2891</v>
+      <c r="A157" s="21" t="s">
+        <v>2889</v>
       </c>
       <c r="B157" s="18" t="s">
-        <v>2890</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" s="21" t="s">
-        <v>66</v>
+        <v>2887</v>
       </c>
       <c r="B158" s="18" t="s">
-        <v>12</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" s="21" t="s">
-        <v>2889</v>
+        <v>2885</v>
       </c>
       <c r="B159" s="18" t="s">
-        <v>2888</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" s="21" t="s">
-        <v>2887</v>
+        <v>2883</v>
       </c>
       <c r="B160" s="18" t="s">
-        <v>2886</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" s="21" t="s">
-        <v>2885</v>
+        <v>2881</v>
       </c>
       <c r="B161" s="18" t="s">
-        <v>2884</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" s="21" t="s">
-        <v>2883</v>
+        <v>2879</v>
       </c>
       <c r="B162" s="18" t="s">
-        <v>2882</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A163" s="21" t="s">
-        <v>2881</v>
+      <c r="A163" s="13" t="s">
+        <v>2877</v>
       </c>
       <c r="B163" s="18" t="s">
-        <v>2880</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A164" s="21" t="s">
-        <v>2879</v>
+      <c r="A164" s="13" t="s">
+        <v>2875</v>
       </c>
       <c r="B164" s="18" t="s">
-        <v>2878</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A165" s="13" t="s">
-        <v>2877</v>
+        <v>2873</v>
       </c>
       <c r="B165" s="18" t="s">
-        <v>2876</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" s="13" t="s">
-        <v>2875</v>
+        <v>2871</v>
       </c>
       <c r="B166" s="18" t="s">
-        <v>2874</v>
+        <v>51</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A167" s="13" t="s">
-        <v>2873</v>
+        <v>2870</v>
       </c>
       <c r="B167" s="18" t="s">
-        <v>2872</v>
+        <v>51</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A168" s="13" t="s">
-        <v>2871</v>
+        <v>2869</v>
       </c>
       <c r="B168" s="18" t="s">
         <v>51</v>
@@ -12570,135 +12561,135 @@
     </row>
     <row r="169" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" s="13" t="s">
-        <v>2870</v>
+        <v>2868</v>
       </c>
       <c r="B169" s="18" t="s">
-        <v>51</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A170" s="13" t="s">
-        <v>2869</v>
+        <v>2866</v>
       </c>
       <c r="B170" s="18" t="s">
-        <v>51</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" s="13" t="s">
-        <v>2868</v>
+        <v>2864</v>
       </c>
       <c r="B171" s="18" t="s">
-        <v>2867</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A172" s="13" t="s">
-        <v>2866</v>
+        <v>2862</v>
       </c>
       <c r="B172" s="18" t="s">
-        <v>2865</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="13" t="s">
-        <v>2864</v>
+        <v>2860</v>
       </c>
       <c r="B173" s="18" t="s">
-        <v>2863</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" s="13" t="s">
-        <v>2862</v>
+        <v>2859</v>
       </c>
       <c r="B174" s="18" t="s">
-        <v>2861</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A175" s="13" t="s">
-        <v>2860</v>
+        <v>601</v>
       </c>
       <c r="B175" s="18" t="s">
-        <v>2858</v>
+        <v>12</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A176" s="13" t="s">
-        <v>2859</v>
-      </c>
-      <c r="B176" s="18" t="s">
-        <v>2858</v>
+      <c r="A176" s="21" t="s">
+        <v>2857</v>
+      </c>
+      <c r="B176" s="18">
+        <v>70</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A177" s="13" t="s">
-        <v>601</v>
+      <c r="A177" s="21" t="s">
+        <v>2856</v>
       </c>
       <c r="B177" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A178" s="21" t="s">
-        <v>2857</v>
-      </c>
-      <c r="B178" s="18">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>2854</v>
+      </c>
+      <c r="B178" s="18" t="s">
+        <v>2853</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A179" s="21" t="s">
-        <v>2856</v>
+        <v>2852</v>
       </c>
       <c r="B179" s="18" t="s">
-        <v>2855</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A180" s="21" t="s">
-        <v>2854</v>
+        <v>2850</v>
       </c>
       <c r="B180" s="18" t="s">
-        <v>2853</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A181" s="21" t="s">
-        <v>2852</v>
+        <v>2848</v>
       </c>
       <c r="B181" s="18" t="s">
-        <v>2851</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A182" s="21" t="s">
-        <v>2850</v>
+        <v>2846</v>
       </c>
       <c r="B182" s="18" t="s">
-        <v>2849</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A183" s="21" t="s">
-        <v>2848</v>
+        <v>2844</v>
       </c>
       <c r="B183" s="18" t="s">
-        <v>2847</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A184" s="21" t="s">
-        <v>2846</v>
+        <v>2843</v>
       </c>
       <c r="B184" s="18" t="s">
-        <v>2845</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A185" s="21" t="s">
-        <v>2844</v>
+        <v>2842</v>
       </c>
       <c r="B185" s="18" t="s">
         <v>2841</v>
@@ -12706,200 +12697,181 @@
     </row>
     <row r="186" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A186" s="21" t="s">
-        <v>2843</v>
+        <v>2840</v>
       </c>
       <c r="B186" s="18" t="s">
-        <v>2841</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A187" s="21" t="s">
-        <v>2842</v>
+        <v>2839</v>
       </c>
       <c r="B187" s="18" t="s">
-        <v>2841</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" s="21" t="s">
-        <v>2840</v>
+        <v>2837</v>
       </c>
       <c r="B188" s="18" t="s">
-        <v>2838</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A189" s="21" t="s">
-        <v>2839</v>
-      </c>
-      <c r="B189" s="18" t="s">
-        <v>2838</v>
+        <v>2835</v>
+      </c>
+      <c r="B189" s="18">
+        <v>11</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A190" s="21" t="s">
-        <v>2837</v>
+        <v>2834</v>
       </c>
       <c r="B190" s="18" t="s">
-        <v>2836</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" s="21" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B191" s="18">
-        <v>11</v>
+        <v>67</v>
+      </c>
+      <c r="B191" s="18" t="s">
+        <v>1120</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" s="21" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="B192" s="18" t="s">
-        <v>2826</v>
+        <v>12</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A193" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B193" s="18" t="s">
-        <v>1120</v>
+        <v>2832</v>
+      </c>
+      <c r="B193" s="18">
+        <v>20</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A194" s="21" t="s">
-        <v>2833</v>
-      </c>
-      <c r="B194" s="18" t="s">
-        <v>12</v>
+        <v>2831</v>
+      </c>
+      <c r="B194" s="18">
+        <v>3</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A195" s="21" t="s">
-        <v>2832</v>
+        <v>3144</v>
       </c>
       <c r="B195" s="18">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A196" s="21" t="s">
-        <v>2831</v>
+        <v>3145</v>
       </c>
       <c r="B196" s="18">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A197" s="21" t="s">
-        <v>3148</v>
+        <v>3146</v>
       </c>
       <c r="B197" s="18">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A198" s="21" t="s">
-        <v>3149</v>
-      </c>
-      <c r="B198" s="18">
-        <v>18</v>
+        <v>2830</v>
+      </c>
+      <c r="B198" s="18" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A199" s="21" t="s">
-        <v>3150</v>
-      </c>
-      <c r="B199" s="18">
-        <v>2</v>
+        <v>2829</v>
+      </c>
+      <c r="B199" s="18" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A200" s="21" t="s">
-        <v>2830</v>
-      </c>
-      <c r="B200" s="18" t="s">
-        <v>12</v>
+        <v>2828</v>
+      </c>
+      <c r="B200" s="18">
+        <v>25</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A201" s="21" t="s">
-        <v>2829</v>
+        <v>2827</v>
       </c>
       <c r="B201" s="18" t="s">
-        <v>12</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A202" s="21" t="s">
-        <v>2828</v>
-      </c>
-      <c r="B202" s="18">
-        <v>25</v>
+        <v>2825</v>
+      </c>
+      <c r="B202" s="18" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A203" s="21" t="s">
-        <v>2827</v>
+        <v>2824</v>
       </c>
       <c r="B203" s="18" t="s">
-        <v>2826</v>
+        <v>12</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A204" s="21" t="s">
-        <v>2825</v>
+        <v>2823</v>
       </c>
       <c r="B204" s="18" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A205" s="21" t="s">
-        <v>2824</v>
-      </c>
-      <c r="B205" s="18" t="s">
-        <v>12</v>
+        <v>2822</v>
+      </c>
+      <c r="B205" s="18">
+        <v>30</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A206" s="21" t="s">
-        <v>2823</v>
-      </c>
-      <c r="B206" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A207" s="21" t="s">
-        <v>2822</v>
-      </c>
-      <c r="B207" s="18">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A208" s="21" t="s">
         <v>2821</v>
       </c>
-      <c r="B208" s="18">
+      <c r="B206" s="18">
         <v>43</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="136" x14ac:dyDescent="0.2">
-      <c r="A209" s="20" t="s">
+    <row r="207" spans="1:2" ht="136" x14ac:dyDescent="0.2">
+      <c r="A207" s="20" t="s">
         <v>2820</v>
       </c>
-      <c r="B209" s="19" t="s">
+      <c r="B207" s="19" t="s">
         <v>2820</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{466D397C-590B-1947-A609-6FEA72BAEE96}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12908,8 +12880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9D8CBE7-FBBE-194B-88E2-C1DC4C20EF1C}">
   <dimension ref="A1:B1412"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/src/test/java/ServiceNow/CHARMS/Resources/RASScenario2.xlsx
+++ b/src/test/java/ServiceNow/CHARMS/Resources/RASScenario2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juarezds/Desktop/CBIIT-Test-Automation/src/test/java/ServiceNow/CHARMS/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F171E7F5-29FD-9C48-AC06-30EDD2C2E006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FF8281-4F3C-6141-B877-2D35A3D6C2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39520" yWindow="940" windowWidth="38880" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="screenerScenario2" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3413" uniqueCount="3144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3413" uniqueCount="3145">
   <si>
     <t>Question</t>
   </si>
@@ -9630,6 +9630,9 @@
   </si>
   <si>
     <t>For which specific RASopathy have you been diagnosed? Other text box</t>
+  </si>
+  <si>
+    <t>Asian</t>
   </si>
 </sst>
 </file>
@@ -10122,8 +10125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="162" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="162" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10313,7 +10316,7 @@
         <v>32</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>33</v>
+        <v>3144</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -24295,18 +24298,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -24329,18 +24332,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A376A26F-A459-4EA6-9FC7-DF620BE07CA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B75DB3A7-FCD6-4DD2-8F1A-F1A891316494}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A376A26F-A459-4EA6-9FC7-DF620BE07CA9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>